--- a/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.131925712525188</v>
+      </c>
+      <c r="D3">
+        <v>0.9422496913523514</v>
+      </c>
+      <c r="E3">
+        <v>1.188435197922191</v>
+      </c>
+      <c r="F3">
+        <v>1.078301569264577</v>
+      </c>
+      <c r="G3">
+        <v>1.131925712525188</v>
+      </c>
+      <c r="H3">
+        <v>1.040362978238184</v>
+      </c>
+      <c r="I3">
+        <v>1.026181523097045</v>
+      </c>
+      <c r="J3">
         <v>1.188435197922139</v>
       </c>
-      <c r="D3">
-        <v>1.131925712525188</v>
-      </c>
-      <c r="E3">
-        <v>1.078301569264577</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.188435197922139</v>
       </c>
-      <c r="G3">
-        <v>1.040362978238184</v>
-      </c>
-      <c r="H3">
-        <v>1.026181523097045</v>
-      </c>
-      <c r="I3">
-        <v>1.188435197922191</v>
-      </c>
-      <c r="J3">
-        <v>1.131925712525188</v>
-      </c>
-      <c r="K3">
-        <v>0.9422496913523514</v>
-      </c>
       <c r="L3">
+        <v>1.0305374257722</v>
+      </c>
+      <c r="M3">
         <v>1.028591755786158</v>
-      </c>
-      <c r="M3">
-        <v>1.0305374257722</v>
       </c>
       <c r="N3">
         <v>1.188435197922139</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.199283816154053</v>
+      </c>
+      <c r="D4">
+        <v>0.9202351166176346</v>
+      </c>
+      <c r="E4">
+        <v>1.417205481451256</v>
+      </c>
+      <c r="F4">
+        <v>1.118661553062093</v>
+      </c>
+      <c r="G4">
+        <v>1.199283816154053</v>
+      </c>
+      <c r="H4">
+        <v>1.087798064723927</v>
+      </c>
+      <c r="I4">
+        <v>1.057073872886221</v>
+      </c>
+      <c r="J4">
         <v>1.417205481451259</v>
       </c>
-      <c r="D4">
-        <v>1.199283816154053</v>
-      </c>
-      <c r="E4">
-        <v>1.118661553062093</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.417205481451259</v>
       </c>
-      <c r="G4">
-        <v>1.087798064723927</v>
-      </c>
-      <c r="H4">
-        <v>1.057073872886221</v>
-      </c>
-      <c r="I4">
-        <v>1.417205481451256</v>
-      </c>
-      <c r="J4">
-        <v>1.199283816154053</v>
-      </c>
-      <c r="K4">
-        <v>0.9202351166176348</v>
-      </c>
       <c r="L4">
+        <v>1.075320716921016</v>
+      </c>
+      <c r="M4">
         <v>1.049297823514456</v>
-      </c>
-      <c r="M4">
-        <v>1.075320716921016</v>
       </c>
       <c r="N4">
         <v>1.417205481451259</v>
@@ -783,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.465660858705745</v>
+      </c>
+      <c r="D5">
+        <v>0.9698278739823576</v>
+      </c>
+      <c r="E5">
         <v>2.011081918575733</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.323719355077419</v>
+      </c>
+      <c r="G5">
         <v>1.465660858705745</v>
       </c>
-      <c r="E5">
-        <v>1.323719355077419</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1.111991151632138</v>
+      </c>
+      <c r="I5">
+        <v>1.223270377756779</v>
+      </c>
+      <c r="J5">
         <v>2.011081918575733</v>
       </c>
-      <c r="G5">
-        <v>1.111991151632138</v>
-      </c>
-      <c r="H5">
-        <v>1.223270377756779</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>2.011081918575733</v>
       </c>
-      <c r="J5">
-        <v>1.465660858705745</v>
-      </c>
-      <c r="K5">
-        <v>0.9698278739823576</v>
-      </c>
       <c r="L5">
+        <v>1.279794937675692</v>
+      </c>
+      <c r="M5">
         <v>1.347839542919922</v>
-      </c>
-      <c r="M5">
-        <v>1.279794937675693</v>
       </c>
       <c r="N5">
         <v>2.011081918575733</v>
@@ -854,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.958167472476742</v>
+      </c>
+      <c r="D6">
+        <v>0.7166432862554265</v>
+      </c>
+      <c r="E6">
         <v>2.886134281613763</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.768223459933033</v>
+      </c>
+      <c r="G6">
         <v>1.958167472476742</v>
       </c>
-      <c r="E6">
-        <v>1.768223459933033</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.618612105770097</v>
+      </c>
+      <c r="I6">
+        <v>0.9450221804410572</v>
+      </c>
+      <c r="J6">
         <v>2.886134281613763</v>
       </c>
-      <c r="G6">
-        <v>1.618612105770097</v>
-      </c>
-      <c r="H6">
-        <v>0.9450221804410572</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>2.886134281613763</v>
       </c>
-      <c r="J6">
-        <v>1.958167472476742</v>
-      </c>
-      <c r="K6">
-        <v>0.7166432862554265</v>
-      </c>
       <c r="L6">
+        <v>0.9451728066937155</v>
+      </c>
+      <c r="M6">
         <v>1.039270782724601</v>
-      </c>
-      <c r="M6">
-        <v>0.9451728066937155</v>
       </c>
       <c r="N6">
         <v>2.886134281613763</v>
@@ -925,43 +937,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998886644541515</v>
+        <v>0.9986333030070658</v>
       </c>
       <c r="D7">
-        <v>0.9986333030070667</v>
+        <v>0.9984996777177522</v>
       </c>
       <c r="E7">
-        <v>1.025833678743525</v>
+        <v>0.9988866445416117</v>
       </c>
       <c r="F7">
-        <v>0.998886644541515</v>
+        <v>1.025833678743526</v>
       </c>
       <c r="G7">
-        <v>0.9998691019197307</v>
+        <v>0.9986333030070658</v>
       </c>
       <c r="H7">
-        <v>0.9994161996659707</v>
+        <v>0.9998691019197304</v>
       </c>
       <c r="I7">
-        <v>0.9988866445416119</v>
+        <v>0.9994161996659711</v>
       </c>
       <c r="J7">
-        <v>0.9986333030070667</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="K7">
-        <v>0.9984996777177525</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="L7">
+        <v>0.9990447516638296</v>
+      </c>
+      <c r="M7">
         <v>1.000496286563564</v>
       </c>
-      <c r="M7">
-        <v>0.9990447516638313</v>
-      </c>
       <c r="N7">
-        <v>0.998886644541515</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="O7">
-        <v>1.025833678743525</v>
+        <v>1.025833678743526</v>
       </c>
       <c r="P7">
         <v>1.012233490875296</v>
@@ -973,19 +985,19 @@
         <v>1.007784542097369</v>
       </c>
       <c r="S7">
-        <v>1.008112027890108</v>
+        <v>1.008112027890107</v>
       </c>
       <c r="T7">
         <v>1.007784542097369</v>
       </c>
       <c r="U7">
-        <v>1.00580568205296</v>
+        <v>1.005805682052959</v>
       </c>
       <c r="V7">
-        <v>1.004421874550671</v>
+        <v>1.00442187455067</v>
       </c>
       <c r="W7">
-        <v>1.00258495547787</v>
+        <v>1.002584955477869</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,64 +1008,64 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9966368502006046</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="D8">
-        <v>0.9986377404258935</v>
+        <v>0.9954901278068785</v>
       </c>
       <c r="E8">
-        <v>1.050433379329462</v>
+        <v>0.9966368502006497</v>
       </c>
       <c r="F8">
-        <v>0.9966368502006046</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="G8">
-        <v>0.9944978832534873</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="H8">
+        <v>0.994497883253487</v>
+      </c>
+      <c r="I8">
         <v>1.003786982862443</v>
       </c>
-      <c r="I8">
-        <v>0.996636850200651</v>
-      </c>
       <c r="J8">
-        <v>0.9986377404258935</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="K8">
-        <v>0.9954901278068785</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="L8">
-        <v>1.005456498129637</v>
+        <v>0.9958178111250164</v>
       </c>
       <c r="M8">
-        <v>0.9958178111250175</v>
+        <v>1.005456498129638</v>
       </c>
       <c r="N8">
-        <v>0.9966368502006046</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="O8">
-        <v>1.050433379329462</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="P8">
-        <v>1.024535559877678</v>
+        <v>1.02453555987768</v>
       </c>
       <c r="Q8">
-        <v>1.022465631291475</v>
+        <v>1.022465631291477</v>
       </c>
       <c r="R8">
-        <v>1.01523598998532</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="S8">
-        <v>1.014523001002948</v>
+        <v>1.014523001002949</v>
       </c>
       <c r="T8">
-        <v>1.01523598998532</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="U8">
-        <v>1.010051463302362</v>
+        <v>1.010051463302363</v>
       </c>
       <c r="V8">
-        <v>1.00736854068201</v>
+        <v>1.007368540682011</v>
       </c>
       <c r="W8">
         <v>1.005094659141678</v>
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9751242878626613</v>
+      </c>
+      <c r="D9">
+        <v>1.003890627153009</v>
+      </c>
+      <c r="E9">
+        <v>1.00939292248145</v>
+      </c>
+      <c r="F9">
+        <v>1.048925201989139</v>
+      </c>
+      <c r="G9">
+        <v>0.9751242878626613</v>
+      </c>
+      <c r="H9">
+        <v>1.000918072694548</v>
+      </c>
+      <c r="I9">
+        <v>0.9895954882788106</v>
+      </c>
+      <c r="J9">
         <v>1.009392922481381</v>
       </c>
-      <c r="D9">
-        <v>0.9751242878626613</v>
-      </c>
-      <c r="E9">
-        <v>1.048925201989139</v>
-      </c>
-      <c r="F9">
+      <c r="K9">
         <v>1.009392922481381</v>
       </c>
-      <c r="G9">
-        <v>1.000918072694548</v>
-      </c>
-      <c r="H9">
-        <v>0.9895954882788106</v>
-      </c>
-      <c r="I9">
-        <v>1.00939292248145</v>
-      </c>
-      <c r="J9">
-        <v>0.9751242878626613</v>
-      </c>
-      <c r="K9">
-        <v>1.003890627153009</v>
-      </c>
       <c r="L9">
+        <v>0.9894274645205412</v>
+      </c>
+      <c r="M9">
         <v>1.024529772195253</v>
-      </c>
-      <c r="M9">
-        <v>0.9894274645205412</v>
       </c>
       <c r="N9">
         <v>1.009392922481381</v>
@@ -1138,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9813670868251095</v>
+      </c>
+      <c r="D10">
+        <v>0.9904358855777051</v>
+      </c>
+      <c r="E10">
+        <v>1.014532585000059</v>
+      </c>
+      <c r="F10">
+        <v>1.149885027876599</v>
+      </c>
+      <c r="G10">
+        <v>0.9813670868251095</v>
+      </c>
+      <c r="H10">
+        <v>1.004545793105161</v>
+      </c>
+      <c r="I10">
+        <v>1.002065080224303</v>
+      </c>
+      <c r="J10">
         <v>1.014532584999888</v>
       </c>
-      <c r="D10">
-        <v>0.9813670868251095</v>
-      </c>
-      <c r="E10">
-        <v>1.149885027876599</v>
-      </c>
-      <c r="F10">
+      <c r="K10">
         <v>1.014532584999888</v>
       </c>
-      <c r="G10">
-        <v>1.004545793105161</v>
-      </c>
-      <c r="H10">
-        <v>1.002065080224303</v>
-      </c>
-      <c r="I10">
-        <v>1.014532585000059</v>
-      </c>
-      <c r="J10">
-        <v>0.9813670868251095</v>
-      </c>
-      <c r="K10">
-        <v>0.9904358855777051</v>
-      </c>
       <c r="L10">
+        <v>1.000312551881359</v>
+      </c>
+      <c r="M10">
         <v>1.037479906541115</v>
-      </c>
-      <c r="M10">
-        <v>1.000312551881359</v>
       </c>
       <c r="N10">
         <v>1.014532584999888</v>
@@ -1209,46 +1221,46 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.7900079486668176</v>
+      </c>
+      <c r="D11">
+        <v>1.026218406448258</v>
+      </c>
+      <c r="E11">
+        <v>0.9360873001749701</v>
+      </c>
+      <c r="F11">
+        <v>1.289732058906649</v>
+      </c>
+      <c r="G11">
+        <v>0.7900079486668176</v>
+      </c>
+      <c r="H11">
+        <v>0.970886664309461</v>
+      </c>
+      <c r="I11">
+        <v>0.9268814622655643</v>
+      </c>
+      <c r="J11">
         <v>0.9360873001749715</v>
       </c>
-      <c r="D11">
-        <v>0.7900079486668178</v>
-      </c>
-      <c r="E11">
-        <v>1.28973205890665</v>
-      </c>
-      <c r="F11">
+      <c r="K11">
         <v>0.9360873001749715</v>
       </c>
-      <c r="G11">
-        <v>0.9708866643094608</v>
-      </c>
-      <c r="H11">
-        <v>0.926881462265564</v>
-      </c>
-      <c r="I11">
-        <v>0.9360873001749701</v>
-      </c>
-      <c r="J11">
-        <v>0.7900079486668178</v>
-      </c>
-      <c r="K11">
-        <v>1.026218406448258</v>
-      </c>
       <c r="L11">
+        <v>0.9577017005875006</v>
+      </c>
+      <c r="M11">
         <v>1.180736999345972</v>
-      </c>
-      <c r="M11">
-        <v>0.9577017005875006</v>
       </c>
       <c r="N11">
         <v>0.9360873001749715</v>
       </c>
       <c r="O11">
-        <v>1.28973205890665</v>
+        <v>1.289732058906649</v>
       </c>
       <c r="P11">
-        <v>1.039870003786734</v>
+        <v>1.039870003786733</v>
       </c>
       <c r="Q11">
         <v>1.130309361608055</v>
@@ -1263,10 +1275,10 @@
         <v>1.00527576924948</v>
       </c>
       <c r="U11">
-        <v>0.996678493014475</v>
+        <v>0.9966784930144749</v>
       </c>
       <c r="V11">
-        <v>0.9845602544465744</v>
+        <v>0.9845602544465741</v>
       </c>
       <c r="W11">
         <v>1.009781567588149</v>
@@ -1280,46 +1292,46 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="D12">
+        <v>0.5367521538377465</v>
+      </c>
+      <c r="E12">
+        <v>1.610944634682633</v>
+      </c>
+      <c r="F12">
+        <v>0.000908516006570043</v>
+      </c>
+      <c r="G12">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="H12">
+        <v>0.8677726221578203</v>
+      </c>
+      <c r="I12">
+        <v>0.4969938815467497</v>
+      </c>
+      <c r="J12">
         <v>1.610944634680863</v>
       </c>
-      <c r="D12">
-        <v>4.04193778799289</v>
-      </c>
-      <c r="E12">
-        <v>0.0009085160065700445</v>
-      </c>
-      <c r="F12">
+      <c r="K12">
         <v>1.610944634680863</v>
       </c>
-      <c r="G12">
-        <v>0.8677726221578201</v>
-      </c>
-      <c r="H12">
-        <v>0.4969938815467501</v>
-      </c>
-      <c r="I12">
-        <v>1.610944634682632</v>
-      </c>
-      <c r="J12">
-        <v>4.04193778799289</v>
-      </c>
-      <c r="K12">
-        <v>0.5367521538377475</v>
-      </c>
       <c r="L12">
+        <v>1.145403902705154</v>
+      </c>
+      <c r="M12">
         <v>0.9895721687651821</v>
-      </c>
-      <c r="M12">
-        <v>1.145403902705155</v>
       </c>
       <c r="N12">
         <v>1.610944634680863</v>
       </c>
       <c r="O12">
-        <v>0.0009085160065700445</v>
+        <v>0.000908516006570043</v>
       </c>
       <c r="P12">
-        <v>2.02142315199973</v>
+        <v>2.021423151999731</v>
       </c>
       <c r="Q12">
         <v>0.4343405690821951</v>
@@ -1351,52 +1363,52 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.0005238517142313297</v>
+        <v>0.02987992942547596</v>
       </c>
       <c r="D13">
-        <v>0.02987992942547599</v>
+        <v>0.7585353448858002</v>
       </c>
       <c r="E13">
-        <v>0.72101817948155</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="F13">
-        <v>0.0005238517142313297</v>
+        <v>0.7210181794815498</v>
       </c>
       <c r="G13">
+        <v>0.02987992942547596</v>
+      </c>
+      <c r="H13">
         <v>1.611845770703254</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.000328412638958</v>
       </c>
-      <c r="I13">
-        <v>0.0005238517142313297</v>
-      </c>
       <c r="J13">
-        <v>0.02987992942547599</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="K13">
-        <v>0.7585353448858008</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="L13">
+        <v>0.9829323283851462</v>
+      </c>
+      <c r="M13">
         <v>1.375682220263042</v>
       </c>
-      <c r="M13">
-        <v>0.9829323283851467</v>
-      </c>
       <c r="N13">
-        <v>0.0005238517142313297</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="O13">
-        <v>0.72101817948155</v>
+        <v>0.7210181794815498</v>
       </c>
       <c r="P13">
-        <v>0.375449054453513</v>
+        <v>0.3754490544535128</v>
       </c>
       <c r="Q13">
         <v>1.166431975092402</v>
       </c>
       <c r="R13">
-        <v>0.2504739868737524</v>
+        <v>0.2504739868737523</v>
       </c>
       <c r="S13">
         <v>0.7875812932034266</v>
@@ -1405,13 +1417,13 @@
         <v>0.2504739868737524</v>
       </c>
       <c r="U13">
-        <v>0.5908169328311278</v>
+        <v>0.5908169328311279</v>
       </c>
       <c r="V13">
-        <v>0.4727583166077485</v>
+        <v>0.4727583166077486</v>
       </c>
       <c r="W13">
-        <v>0.8100932546871824</v>
+        <v>0.8100932546871822</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1434,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0009504485273303545</v>
+        <v>0.1345042796491597</v>
       </c>
       <c r="D14">
-        <v>0.1345042796491598</v>
+        <v>1.372465142416202</v>
       </c>
       <c r="E14">
-        <v>0.005452140686010068</v>
+        <v>0.0009504485273454639</v>
       </c>
       <c r="F14">
-        <v>0.0009504485273303545</v>
+        <v>0.005452140686010064</v>
       </c>
       <c r="G14">
-        <v>0.6423559346484288</v>
+        <v>0.1345042796491597</v>
       </c>
       <c r="H14">
-        <v>0.04295996218495598</v>
+        <v>0.6423559346484294</v>
       </c>
       <c r="I14">
-        <v>0.0009504485273454656</v>
+        <v>0.04295996218495594</v>
       </c>
       <c r="J14">
-        <v>0.1345042796491598</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="K14">
-        <v>1.372465142416203</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="L14">
-        <v>2.108280647645759</v>
+        <v>1.923300204130495</v>
       </c>
       <c r="M14">
-        <v>1.923300204130495</v>
+        <v>2.10828064764576</v>
       </c>
       <c r="N14">
-        <v>0.0009504485273303545</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="O14">
-        <v>0.005452140686010068</v>
+        <v>0.005452140686010064</v>
       </c>
       <c r="P14">
-        <v>0.06997821016758494</v>
+        <v>0.06997821016758488</v>
       </c>
       <c r="Q14">
-        <v>0.3239040376672194</v>
+        <v>0.3239040376672198</v>
       </c>
       <c r="R14">
-        <v>0.04696895628750009</v>
+        <v>0.04696895628750004</v>
       </c>
       <c r="S14">
-        <v>0.2607707849945329</v>
+        <v>0.260770784994533</v>
       </c>
       <c r="T14">
-        <v>0.04696895628750009</v>
+        <v>0.04696895628750004</v>
       </c>
       <c r="U14">
-        <v>0.1958157008777323</v>
+        <v>0.1958157008777324</v>
       </c>
       <c r="V14">
-        <v>0.1568426504076519</v>
+        <v>0.156842650407652</v>
       </c>
       <c r="W14">
-        <v>0.7787835949860427</v>
+        <v>0.7787835949860429</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,46 +1505,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.495813502275312</v>
+        <v>3.764445332348538</v>
       </c>
       <c r="D15">
-        <v>3.764445332348539</v>
+        <v>0.8892578769328345</v>
       </c>
       <c r="E15">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="F15">
         <v>1.715526862205314</v>
       </c>
-      <c r="F15">
-        <v>1.495813502275312</v>
-      </c>
       <c r="G15">
-        <v>0.4008822325947025</v>
+        <v>3.764445332348538</v>
       </c>
       <c r="H15">
+        <v>0.4008822325947026</v>
+      </c>
+      <c r="I15">
         <v>1.651418092919315</v>
       </c>
-      <c r="I15">
-        <v>1.495813502275312</v>
-      </c>
       <c r="J15">
-        <v>3.764445332348539</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="K15">
-        <v>0.8892578769328345</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="L15">
+        <v>1.393726803578442</v>
+      </c>
+      <c r="M15">
         <v>0.02098859333633427</v>
       </c>
-      <c r="M15">
-        <v>1.393726803578441</v>
-      </c>
       <c r="N15">
-        <v>1.495813502275312</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="O15">
         <v>1.715526862205314</v>
       </c>
       <c r="P15">
-        <v>2.739986097276927</v>
+        <v>2.739986097276926</v>
       </c>
       <c r="Q15">
         <v>1.058204547400008</v>
@@ -1541,7 +1553,7 @@
         <v>2.325261898943055</v>
       </c>
       <c r="S15">
-        <v>1.960284809049519</v>
+        <v>1.960284809049518</v>
       </c>
       <c r="T15">
         <v>2.325261898943055</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.020973743947315</v>
+        <v>2.903826429674891</v>
       </c>
       <c r="D16">
-        <v>1.023354343061932</v>
+        <v>0.2388776890468768</v>
       </c>
       <c r="E16">
-        <v>1.009075765608452</v>
+        <v>4.268155351025974</v>
       </c>
       <c r="F16">
-        <v>1.020973743947315</v>
+        <v>1.955684207531714</v>
       </c>
       <c r="G16">
-        <v>0.9876301499326322</v>
+        <v>2.903826429674891</v>
       </c>
       <c r="H16">
-        <v>0.9939016388325416</v>
+        <v>1.5669851221335</v>
       </c>
       <c r="I16">
-        <v>1.020973743947415</v>
+        <v>1.625772692289075</v>
       </c>
       <c r="J16">
-        <v>1.023354343061932</v>
+        <v>4.268155351025934</v>
       </c>
       <c r="K16">
-        <v>1.00038057422715</v>
+        <v>4.268155351025934</v>
       </c>
       <c r="L16">
-        <v>0.9903849516046722</v>
+        <v>1.560855187016804</v>
       </c>
       <c r="M16">
-        <v>0.9946724890615252</v>
+        <v>1.574161473596495</v>
       </c>
       <c r="N16">
-        <v>1.020973743947315</v>
+        <v>4.268155351025934</v>
       </c>
       <c r="O16">
-        <v>1.009075765608452</v>
+        <v>1.955684207531714</v>
       </c>
       <c r="P16">
-        <v>1.016215054335192</v>
+        <v>2.429755318603303</v>
       </c>
       <c r="Q16">
-        <v>0.9983529577705421</v>
+        <v>1.761334664832607</v>
       </c>
       <c r="R16">
-        <v>1.0178012842059</v>
+        <v>3.042555329410847</v>
       </c>
       <c r="S16">
-        <v>1.006686752867672</v>
+        <v>2.142165253113369</v>
       </c>
       <c r="T16">
-        <v>1.0178012842059</v>
+        <v>3.042555329410847</v>
       </c>
       <c r="U16">
-        <v>1.010258500637583</v>
+        <v>2.67366277759151</v>
       </c>
       <c r="V16">
-        <v>1.01240154929953</v>
+        <v>2.992561292278395</v>
       </c>
       <c r="W16">
-        <v>1.002546707034528</v>
+        <v>1.961789769039411</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9588297560411586</v>
+        <v>2.21026933717528</v>
       </c>
       <c r="D17">
-        <v>0.9534285128718081</v>
+        <v>0.4762011651207469</v>
       </c>
       <c r="E17">
-        <v>1.032776778388946</v>
+        <v>3.141357228185059</v>
       </c>
       <c r="F17">
-        <v>0.9588297560411586</v>
+        <v>2.128015470438122</v>
       </c>
       <c r="G17">
-        <v>1.010157654634312</v>
+        <v>2.21026933717528</v>
       </c>
       <c r="H17">
-        <v>1.007039191971703</v>
+        <v>1.334936174562949</v>
       </c>
       <c r="I17">
-        <v>0.9588297560411729</v>
+        <v>1.452808971796852</v>
       </c>
       <c r="J17">
-        <v>0.9534285128718081</v>
+        <v>3.141357228184983</v>
       </c>
       <c r="K17">
-        <v>0.9959883671489342</v>
+        <v>3.141357228184983</v>
       </c>
       <c r="L17">
-        <v>1.014636599692892</v>
+        <v>1.321127267219594</v>
       </c>
       <c r="M17">
-        <v>1.004677666068547</v>
+        <v>1.35039063448461</v>
       </c>
       <c r="N17">
-        <v>0.9588297560411586</v>
+        <v>3.141357228184983</v>
       </c>
       <c r="O17">
-        <v>1.032776778388946</v>
+        <v>2.128015470438122</v>
       </c>
       <c r="P17">
-        <v>0.9931026456303772</v>
+        <v>2.169142403806701</v>
       </c>
       <c r="Q17">
-        <v>1.021467216511629</v>
+        <v>1.731475822500536</v>
       </c>
       <c r="R17">
-        <v>0.9816783491006377</v>
+        <v>2.493214011932795</v>
       </c>
       <c r="S17">
-        <v>0.9987876486316889</v>
+        <v>1.89107366072545</v>
       </c>
       <c r="T17">
-        <v>0.9816783491006377</v>
+        <v>2.493214011932795</v>
       </c>
       <c r="U17">
-        <v>0.9887981754840562</v>
+        <v>2.203644552590333</v>
       </c>
       <c r="V17">
-        <v>0.9828044915954767</v>
+        <v>2.391187087709263</v>
       </c>
       <c r="W17">
-        <v>0.9971918158522877</v>
+        <v>1.676888281122892</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.190319070915757</v>
+        <v>0.8152142531704862</v>
       </c>
       <c r="D18">
-        <v>1.144106204282512</v>
+        <v>0.9392042176922619</v>
       </c>
       <c r="E18">
-        <v>0.9977774189626428</v>
+        <v>0.9154194176166068</v>
       </c>
       <c r="F18">
-        <v>1.190319070915757</v>
+        <v>2.434306307574432</v>
       </c>
       <c r="G18">
-        <v>1.023777002353839</v>
+        <v>0.8152142531704862</v>
       </c>
       <c r="H18">
-        <v>0.9880961094858424</v>
+        <v>0.8715390636887743</v>
       </c>
       <c r="I18">
-        <v>1.190319070915756</v>
+        <v>1.116638730074692</v>
       </c>
       <c r="J18">
-        <v>1.144106204282512</v>
+        <v>0.9154194176166079</v>
       </c>
       <c r="K18">
-        <v>1.003606171507222</v>
+        <v>0.9154194176166079</v>
       </c>
       <c r="L18">
-        <v>1.046233146460518</v>
+        <v>0.8466414343850616</v>
       </c>
       <c r="M18">
-        <v>1.007495421646768</v>
+        <v>0.9275370452687368</v>
       </c>
       <c r="N18">
-        <v>1.190319070915757</v>
+        <v>0.9154194176166079</v>
       </c>
       <c r="O18">
-        <v>0.9977774189626428</v>
+        <v>2.434306307574432</v>
       </c>
       <c r="P18">
-        <v>1.070941811622577</v>
+        <v>1.624760280372459</v>
       </c>
       <c r="Q18">
-        <v>1.010777210658241</v>
+        <v>1.652922685631603</v>
       </c>
       <c r="R18">
-        <v>1.11073423138697</v>
+        <v>1.388313326120509</v>
       </c>
       <c r="S18">
-        <v>1.055220208532998</v>
+        <v>1.373686541477897</v>
       </c>
       <c r="T18">
-        <v>1.11073423138697</v>
+        <v>1.388313326120509</v>
       </c>
       <c r="U18">
-        <v>1.088994924128687</v>
+        <v>1.259119760512575</v>
       </c>
       <c r="V18">
-        <v>1.109259753486101</v>
+        <v>1.190379691933382</v>
       </c>
       <c r="W18">
-        <v>1.050176318201888</v>
+        <v>1.108312558683882</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8494348586355633</v>
+      </c>
+      <c r="D19">
+        <v>0.9359149298407257</v>
+      </c>
+      <c r="E19">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="F19">
+        <v>3.289796292413472</v>
+      </c>
+      <c r="G19">
+        <v>0.8494348586355633</v>
+      </c>
+      <c r="H19">
+        <v>0.7021428909377537</v>
+      </c>
+      <c r="I19">
+        <v>1.164245347975658</v>
+      </c>
+      <c r="J19">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="K19">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="L19">
+        <v>0.8119009038886488</v>
+      </c>
+      <c r="M19">
+        <v>0.7901776774779583</v>
+      </c>
+      <c r="N19">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="O19">
+        <v>3.289796292413472</v>
+      </c>
+      <c r="P19">
+        <v>2.069615575524518</v>
+      </c>
+      <c r="Q19">
+        <v>1.995969591675613</v>
+      </c>
+      <c r="R19">
+        <v>1.651338854642149</v>
+      </c>
+      <c r="S19">
+        <v>1.61379134732893</v>
+      </c>
+      <c r="T19">
+        <v>1.651338854642149</v>
+      </c>
+      <c r="U19">
+        <v>1.414039863716051</v>
+      </c>
+      <c r="V19">
+        <v>1.294188973548323</v>
+      </c>
+      <c r="W19">
+        <v>1.169799789255899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.023354343061934</v>
+      </c>
+      <c r="D20">
+        <v>1.000380574227151</v>
+      </c>
+      <c r="E20">
+        <v>1.020973743947417</v>
+      </c>
+      <c r="F20">
+        <v>1.009075765608452</v>
+      </c>
+      <c r="G20">
+        <v>1.023354343061934</v>
+      </c>
+      <c r="H20">
+        <v>0.9876301499326327</v>
+      </c>
+      <c r="I20">
+        <v>0.9939016388325428</v>
+      </c>
+      <c r="J20">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="K20">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="L20">
+        <v>0.9946724890615262</v>
+      </c>
+      <c r="M20">
+        <v>0.9903849516046718</v>
+      </c>
+      <c r="N20">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="O20">
+        <v>1.009075765608452</v>
+      </c>
+      <c r="P20">
+        <v>1.016215054335193</v>
+      </c>
+      <c r="Q20">
+        <v>0.9983529577705423</v>
+      </c>
+      <c r="R20">
+        <v>1.017801284205901</v>
+      </c>
+      <c r="S20">
+        <v>1.006686752867673</v>
+      </c>
+      <c r="T20">
+        <v>1.017801284205901</v>
+      </c>
+      <c r="U20">
+        <v>1.010258500637584</v>
+      </c>
+      <c r="V20">
+        <v>1.012401549299531</v>
+      </c>
+      <c r="W20">
+        <v>1.002546707034529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9534285128718087</v>
+      </c>
+      <c r="D21">
+        <v>0.9959883671489338</v>
+      </c>
+      <c r="E21">
+        <v>0.9588297560411738</v>
+      </c>
+      <c r="F21">
+        <v>1.032776778388947</v>
+      </c>
+      <c r="G21">
+        <v>0.9534285128718087</v>
+      </c>
+      <c r="H21">
+        <v>1.010157654634312</v>
+      </c>
+      <c r="I21">
+        <v>1.007039191971704</v>
+      </c>
+      <c r="J21">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="K21">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="L21">
+        <v>1.004677666068548</v>
+      </c>
+      <c r="M21">
+        <v>1.014636599692891</v>
+      </c>
+      <c r="N21">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="O21">
+        <v>1.032776778388947</v>
+      </c>
+      <c r="P21">
+        <v>0.9931026456303778</v>
+      </c>
+      <c r="Q21">
+        <v>1.021467216511629</v>
+      </c>
+      <c r="R21">
+        <v>0.9816783491006383</v>
+      </c>
+      <c r="S21">
+        <v>0.9987876486316892</v>
+      </c>
+      <c r="T21">
+        <v>0.9816783491006383</v>
+      </c>
+      <c r="U21">
+        <v>0.9887981754840567</v>
+      </c>
+      <c r="V21">
+        <v>0.9828044915954772</v>
+      </c>
+      <c r="W21">
+        <v>0.9971918158522879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.144106204282514</v>
+      </c>
+      <c r="D22">
+        <v>1.003606171507223</v>
+      </c>
+      <c r="E22">
+        <v>1.190319070915759</v>
+      </c>
+      <c r="F22">
+        <v>0.9977774189626432</v>
+      </c>
+      <c r="G22">
+        <v>1.144106204282514</v>
+      </c>
+      <c r="H22">
+        <v>1.02377700235384</v>
+      </c>
+      <c r="I22">
+        <v>0.9880961094858424</v>
+      </c>
+      <c r="J22">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="K22">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="L22">
+        <v>1.007495421646769</v>
+      </c>
+      <c r="M22">
+        <v>1.046233146460518</v>
+      </c>
+      <c r="N22">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="O22">
+        <v>0.9977774189626432</v>
+      </c>
+      <c r="P22">
+        <v>1.070941811622578</v>
+      </c>
+      <c r="Q22">
+        <v>1.010777210658241</v>
+      </c>
+      <c r="R22">
+        <v>1.110734231386972</v>
+      </c>
+      <c r="S22">
+        <v>1.055220208532999</v>
+      </c>
+      <c r="T22">
+        <v>1.110734231386972</v>
+      </c>
+      <c r="U22">
+        <v>1.088994924128689</v>
+      </c>
+      <c r="V22">
+        <v>1.109259753486103</v>
+      </c>
+      <c r="W22">
+        <v>1.050176318201889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.43671577580494</v>
+      </c>
+      <c r="D23">
+        <v>1.017233843058802</v>
+      </c>
+      <c r="E23">
         <v>1.589415400589796</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.076027626424043</v>
+      </c>
+      <c r="G23">
         <v>1.43671577580494</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.7675374369763202</v>
+      </c>
+      <c r="I23">
+        <v>1.061416121486824</v>
+      </c>
+      <c r="J23">
+        <v>1.589415400589796</v>
+      </c>
+      <c r="K23">
+        <v>1.589415400589796</v>
+      </c>
+      <c r="L23">
+        <v>1.012765353961964</v>
+      </c>
+      <c r="M23">
+        <v>1.045233505607876</v>
+      </c>
+      <c r="N23">
+        <v>1.589415400589796</v>
+      </c>
+      <c r="O23">
         <v>1.076027626424043</v>
       </c>
-      <c r="F19">
-        <v>1.589415400589796</v>
-      </c>
-      <c r="G19">
-        <v>0.7675374369763202</v>
-      </c>
-      <c r="H19">
-        <v>1.061416121486824</v>
-      </c>
-      <c r="I19">
-        <v>1.589415400589796</v>
-      </c>
-      <c r="J19">
-        <v>1.43671577580494</v>
-      </c>
-      <c r="K19">
-        <v>1.017233843058802</v>
-      </c>
-      <c r="L19">
-        <v>1.045233505607876</v>
-      </c>
-      <c r="M19">
-        <v>1.012765353961964</v>
-      </c>
-      <c r="N19">
-        <v>1.589415400589796</v>
-      </c>
-      <c r="O19">
-        <v>1.076027626424043</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.256371701114491</v>
       </c>
-      <c r="Q19">
-        <v>0.9217825317001815</v>
-      </c>
-      <c r="R19">
-        <v>1.36738626760626</v>
-      </c>
-      <c r="S19">
-        <v>1.093426946401768</v>
-      </c>
-      <c r="T19">
-        <v>1.36738626760626</v>
-      </c>
-      <c r="U19">
-        <v>1.217424059948775</v>
-      </c>
-      <c r="V19">
+      <c r="Q23">
+        <v>0.9217825317001814</v>
+      </c>
+      <c r="R23">
+        <v>1.367386267606259</v>
+      </c>
+      <c r="S23">
+        <v>1.093426946401767</v>
+      </c>
+      <c r="T23">
+        <v>1.367386267606259</v>
+      </c>
+      <c r="U23">
+        <v>1.217424059948774</v>
+      </c>
+      <c r="V23">
         <v>1.291822328076979</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.125793132988821</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.131925712525188</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="D3">
-        <v>0.9422496913523514</v>
+        <v>0.8946054496707839</v>
       </c>
       <c r="E3">
-        <v>1.188435197922191</v>
+        <v>0.9569740186227577</v>
       </c>
       <c r="F3">
-        <v>1.078301569264577</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="G3">
-        <v>1.131925712525188</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="H3">
-        <v>1.040362978238184</v>
+        <v>0.8616190563367911</v>
       </c>
       <c r="I3">
-        <v>1.026181523097045</v>
+        <v>1.101282103086288</v>
       </c>
       <c r="J3">
-        <v>1.188435197922139</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="K3">
-        <v>1.188435197922139</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="L3">
-        <v>1.0305374257722</v>
+        <v>0.8323102723649171</v>
       </c>
       <c r="M3">
-        <v>1.028591755786158</v>
+        <v>0.9166440397015987</v>
       </c>
       <c r="N3">
-        <v>1.188435197922139</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="O3">
-        <v>1.078301569264577</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="P3">
-        <v>1.105113640894882</v>
+        <v>2.015176227255959</v>
       </c>
       <c r="Q3">
-        <v>1.059332273751381</v>
+        <v>2.018180265817504</v>
       </c>
       <c r="R3">
-        <v>1.132887493237301</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="S3">
-        <v>1.083530086675983</v>
+        <v>1.630657170282903</v>
       </c>
       <c r="T3">
-        <v>1.132887493237301</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="U3">
-        <v>1.109756364487522</v>
+        <v>1.462236382367831</v>
       </c>
       <c r="V3">
-        <v>1.125492131174445</v>
+        <v>1.361183909618788</v>
       </c>
       <c r="W3">
-        <v>1.05832323174473</v>
+        <v>1.199223424286864</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.199283816154053</v>
+        <v>0.8369816405870003</v>
       </c>
       <c r="D4">
-        <v>0.9202351166176346</v>
+        <v>0.9255221083208326</v>
       </c>
       <c r="E4">
-        <v>1.417205481451256</v>
+        <v>0.9178069913048674</v>
       </c>
       <c r="F4">
-        <v>1.118661553062093</v>
+        <v>2.791323465223309</v>
       </c>
       <c r="G4">
-        <v>1.199283816154053</v>
+        <v>0.8369816405870003</v>
       </c>
       <c r="H4">
-        <v>1.087798064723927</v>
+        <v>0.8659459217138402</v>
       </c>
       <c r="I4">
-        <v>1.057073872886221</v>
+        <v>1.104872169052898</v>
       </c>
       <c r="J4">
-        <v>1.417205481451259</v>
+        <v>0.9178069913047195</v>
       </c>
       <c r="K4">
-        <v>1.417205481451259</v>
+        <v>0.9178069913047195</v>
       </c>
       <c r="L4">
-        <v>1.075320716921016</v>
+        <v>0.8370867793035428</v>
       </c>
       <c r="M4">
-        <v>1.049297823514456</v>
+        <v>0.9019516606036241</v>
       </c>
       <c r="N4">
-        <v>1.417205481451259</v>
+        <v>0.9178069913047195</v>
       </c>
       <c r="O4">
-        <v>1.118661553062093</v>
+        <v>2.791323465223309</v>
       </c>
       <c r="P4">
-        <v>1.158972684608073</v>
+        <v>1.814152552905155</v>
       </c>
       <c r="Q4">
-        <v>1.10322980889301</v>
+        <v>1.828634693468575</v>
       </c>
       <c r="R4">
-        <v>1.245050283555801</v>
+        <v>1.515370699038343</v>
       </c>
       <c r="S4">
-        <v>1.135247811313358</v>
+        <v>1.498083675841383</v>
       </c>
       <c r="T4">
-        <v>1.245050283555801</v>
+        <v>1.515370699038343</v>
       </c>
       <c r="U4">
-        <v>1.205737228847833</v>
+        <v>1.353014504707217</v>
       </c>
       <c r="V4">
-        <v>1.248030879368518</v>
+        <v>1.265973002026718</v>
       </c>
       <c r="W4">
-        <v>1.115609555666332</v>
+        <v>1.147686342013721</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.465660858705745</v>
+        <v>0.8480013696415523</v>
       </c>
       <c r="D5">
-        <v>0.9698278739823576</v>
+        <v>0.8546317918225057</v>
       </c>
       <c r="E5">
-        <v>2.011081918575733</v>
+        <v>1.044508638995925</v>
       </c>
       <c r="F5">
-        <v>1.323719355077419</v>
+        <v>4.029338997219821</v>
       </c>
       <c r="G5">
-        <v>1.465660858705745</v>
+        <v>0.8480013696415523</v>
       </c>
       <c r="H5">
-        <v>1.111991151632138</v>
+        <v>0.8573755268389753</v>
       </c>
       <c r="I5">
-        <v>1.223270377756779</v>
+        <v>1.128027924662173</v>
       </c>
       <c r="J5">
-        <v>2.011081918575733</v>
+        <v>1.044508638995925</v>
       </c>
       <c r="K5">
-        <v>2.011081918575733</v>
+        <v>1.044508638995925</v>
       </c>
       <c r="L5">
-        <v>1.279794937675692</v>
+        <v>0.8061352418186523</v>
       </c>
       <c r="M5">
-        <v>1.347839542919922</v>
+        <v>0.9837964362659302</v>
       </c>
       <c r="N5">
-        <v>2.011081918575733</v>
+        <v>1.044508638995925</v>
       </c>
       <c r="O5">
-        <v>1.323719355077419</v>
+        <v>4.029338997219821</v>
       </c>
       <c r="P5">
-        <v>1.394690106891582</v>
+        <v>2.438670183430686</v>
       </c>
       <c r="Q5">
-        <v>1.217855253354778</v>
+        <v>2.443357262029398</v>
       </c>
       <c r="R5">
-        <v>1.600154044119632</v>
+        <v>1.973949668619099</v>
       </c>
       <c r="S5">
-        <v>1.300457121805101</v>
+        <v>1.911571964566783</v>
       </c>
       <c r="T5">
-        <v>1.600154044119632</v>
+        <v>1.973949668619099</v>
       </c>
       <c r="U5">
-        <v>1.478113320997759</v>
+        <v>1.694806133174068</v>
       </c>
       <c r="V5">
-        <v>1.584707040513354</v>
+        <v>1.56474663433844</v>
       </c>
       <c r="W5">
-        <v>1.341648252040723</v>
+        <v>1.318976990908192</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.958167472476742</v>
+        <v>1.033809659269341</v>
       </c>
       <c r="D6">
-        <v>0.7166432862554265</v>
+        <v>0.7644022379152038</v>
       </c>
       <c r="E6">
-        <v>2.886134281613763</v>
+        <v>1.199450516138819</v>
       </c>
       <c r="F6">
-        <v>1.768223459933033</v>
+        <v>5.471846298758979</v>
       </c>
       <c r="G6">
-        <v>1.958167472476742</v>
+        <v>1.033809659269341</v>
       </c>
       <c r="H6">
-        <v>1.618612105770097</v>
+        <v>0.9747534082023868</v>
       </c>
       <c r="I6">
-        <v>0.9450221804410572</v>
+        <v>1.092560933395819</v>
       </c>
       <c r="J6">
-        <v>2.886134281613763</v>
+        <v>1.199450516138819</v>
       </c>
       <c r="K6">
-        <v>2.886134281613763</v>
+        <v>1.199450516138819</v>
       </c>
       <c r="L6">
-        <v>0.9451728066937155</v>
+        <v>0.7342749388442047</v>
       </c>
       <c r="M6">
-        <v>1.039270782724601</v>
+        <v>1.274142446614387</v>
       </c>
       <c r="N6">
-        <v>2.886134281613763</v>
+        <v>1.199450516138819</v>
       </c>
       <c r="O6">
-        <v>1.768223459933033</v>
+        <v>5.471846298758979</v>
       </c>
       <c r="P6">
-        <v>1.863195466204887</v>
+        <v>3.25282797901416</v>
       </c>
       <c r="Q6">
-        <v>1.693417782851565</v>
+        <v>3.223299853480682</v>
       </c>
       <c r="R6">
-        <v>2.204175071341179</v>
+        <v>2.568368824722379</v>
       </c>
       <c r="S6">
-        <v>1.781667679393291</v>
+        <v>2.493469788743569</v>
       </c>
       <c r="T6">
-        <v>2.204175071341179</v>
+        <v>2.568368824722379</v>
       </c>
       <c r="U6">
-        <v>2.057784329948409</v>
+        <v>2.169964970592381</v>
       </c>
       <c r="V6">
-        <v>2.22345432028148</v>
+        <v>1.975862079701669</v>
       </c>
       <c r="W6">
-        <v>1.484655796988555</v>
+        <v>1.568155054892392</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986333030070658</v>
+        <v>-0.001343734299463901</v>
       </c>
       <c r="D7">
-        <v>0.9984996777177522</v>
+        <v>0.01034284275710641</v>
       </c>
       <c r="E7">
-        <v>0.9988866445416117</v>
+        <v>0.001242507952528591</v>
       </c>
       <c r="F7">
-        <v>1.025833678743526</v>
+        <v>4.428291695584961</v>
       </c>
       <c r="G7">
-        <v>0.9986333030070658</v>
+        <v>-0.001343734299463901</v>
       </c>
       <c r="H7">
-        <v>0.9998691019197304</v>
+        <v>0.17904951971755</v>
       </c>
       <c r="I7">
-        <v>0.9994161996659711</v>
+        <v>1.100928406120079</v>
       </c>
       <c r="J7">
-        <v>0.9988866445415148</v>
+        <v>0.001242507952528591</v>
       </c>
       <c r="K7">
-        <v>0.9988866445415148</v>
+        <v>0.001242507952528591</v>
       </c>
       <c r="L7">
-        <v>0.9990447516638296</v>
+        <v>-0.000385756168315915</v>
       </c>
       <c r="M7">
-        <v>1.000496286563564</v>
+        <v>2.875266394680205</v>
       </c>
       <c r="N7">
-        <v>0.9988866445415148</v>
+        <v>0.001242507952528591</v>
       </c>
       <c r="O7">
-        <v>1.025833678743526</v>
+        <v>4.428291695584961</v>
       </c>
       <c r="P7">
-        <v>1.012233490875296</v>
+        <v>2.213473980642748</v>
       </c>
       <c r="Q7">
-        <v>1.012851390331628</v>
+        <v>2.303670607651255</v>
       </c>
       <c r="R7">
-        <v>1.007784542097369</v>
+        <v>1.476063489746008</v>
       </c>
       <c r="S7">
-        <v>1.008112027890107</v>
+        <v>1.535332493667682</v>
       </c>
       <c r="T7">
-        <v>1.007784542097369</v>
+        <v>1.476063489746009</v>
       </c>
       <c r="U7">
-        <v>1.005805682052959</v>
+        <v>1.151809997238894</v>
       </c>
       <c r="V7">
-        <v>1.00442187455067</v>
+        <v>0.9216964993816209</v>
       </c>
       <c r="W7">
-        <v>1.002584955477869</v>
+        <v>1.074173984543081</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986377404258929</v>
+        <v>-0.001352288825052127</v>
       </c>
       <c r="D8">
-        <v>0.9954901278068785</v>
+        <v>0.01029846540936226</v>
       </c>
       <c r="E8">
-        <v>0.9966368502006497</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="F8">
-        <v>1.050433379329467</v>
+        <v>4.49693082844336</v>
       </c>
       <c r="G8">
-        <v>0.9986377404258929</v>
+        <v>-0.001352288825052127</v>
       </c>
       <c r="H8">
-        <v>0.994497883253487</v>
+        <v>0.1797443978197705</v>
       </c>
       <c r="I8">
-        <v>1.003786982862443</v>
+        <v>1.096825101568488</v>
       </c>
       <c r="J8">
-        <v>0.9966368502006033</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="K8">
-        <v>0.9966368502006033</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="L8">
-        <v>0.9958178111250164</v>
+        <v>-0.0003898151431831477</v>
       </c>
       <c r="M8">
-        <v>1.005456498129638</v>
+        <v>2.886504778798488</v>
       </c>
       <c r="N8">
-        <v>0.9966368502006033</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="O8">
-        <v>1.050433379329467</v>
+        <v>4.49693082844336</v>
       </c>
       <c r="P8">
-        <v>1.02453555987768</v>
+        <v>2.247789269809154</v>
       </c>
       <c r="Q8">
-        <v>1.022465631291477</v>
+        <v>2.338337613131565</v>
       </c>
       <c r="R8">
-        <v>1.015235989985321</v>
+        <v>1.498946436500895</v>
       </c>
       <c r="S8">
-        <v>1.014523001002949</v>
+        <v>1.558440979146026</v>
       </c>
       <c r="T8">
-        <v>1.015235989985321</v>
+        <v>1.498946436500895</v>
       </c>
       <c r="U8">
-        <v>1.010051463302363</v>
+        <v>1.169145926830614</v>
       </c>
       <c r="V8">
-        <v>1.007368540682011</v>
+        <v>0.9355688954413669</v>
       </c>
       <c r="W8">
-        <v>1.005094659141678</v>
+        <v>1.083727779744451</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9751242878626613</v>
+        <v>-0.001341186094725736</v>
       </c>
       <c r="D9">
-        <v>1.003890627153009</v>
+        <v>0.01025419747209542</v>
       </c>
       <c r="E9">
-        <v>1.00939292248145</v>
+        <v>0.001252851022687619</v>
       </c>
       <c r="F9">
-        <v>1.048925201989139</v>
+        <v>4.606647105246701</v>
       </c>
       <c r="G9">
-        <v>0.9751242878626613</v>
+        <v>-0.001341186094725736</v>
       </c>
       <c r="H9">
-        <v>1.000918072694548</v>
+        <v>0.1791764294189433</v>
       </c>
       <c r="I9">
-        <v>0.9895954882788106</v>
+        <v>1.092622236145161</v>
       </c>
       <c r="J9">
-        <v>1.009392922481381</v>
+        <v>0.001252851022687619</v>
       </c>
       <c r="K9">
-        <v>1.009392922481381</v>
+        <v>0.001252851022687619</v>
       </c>
       <c r="L9">
-        <v>0.9894274645205412</v>
+        <v>-0.0004061943983858657</v>
       </c>
       <c r="M9">
-        <v>1.024529772195253</v>
+        <v>2.87728747873192</v>
       </c>
       <c r="N9">
-        <v>1.009392922481381</v>
+        <v>0.001252851022687619</v>
       </c>
       <c r="O9">
-        <v>1.048925201989139</v>
+        <v>4.606647105246701</v>
       </c>
       <c r="P9">
-        <v>1.0120247449259</v>
+        <v>2.302652959575988</v>
       </c>
       <c r="Q9">
-        <v>1.024921637341843</v>
+        <v>2.392911767332822</v>
       </c>
       <c r="R9">
-        <v>1.011147470777727</v>
+        <v>1.535519590058221</v>
       </c>
       <c r="S9">
-        <v>1.008322520848783</v>
+        <v>1.594827449523639</v>
       </c>
       <c r="T9">
-        <v>1.011147470777727</v>
+        <v>1.535519590058221</v>
       </c>
       <c r="U9">
-        <v>1.008590121256932</v>
+        <v>1.196433799898401</v>
       </c>
       <c r="V9">
-        <v>1.008750681501822</v>
+        <v>0.9573976101232586</v>
       </c>
       <c r="W9">
-        <v>1.005225479646918</v>
+        <v>1.09568661469305</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9813670868251095</v>
+        <v>-0.001367259146185869</v>
       </c>
       <c r="D10">
-        <v>0.9904358855777051</v>
+        <v>0.01004253606939621</v>
       </c>
       <c r="E10">
-        <v>1.014532585000059</v>
+        <v>0.001295944878737514</v>
       </c>
       <c r="F10">
-        <v>1.149885027876599</v>
+        <v>4.781124676873814</v>
       </c>
       <c r="G10">
-        <v>0.9813670868251095</v>
+        <v>-0.001367259146185869</v>
       </c>
       <c r="H10">
-        <v>1.004545793105161</v>
+        <v>0.1848323854238566</v>
       </c>
       <c r="I10">
-        <v>1.002065080224303</v>
+        <v>1.072717164366583</v>
       </c>
       <c r="J10">
-        <v>1.014532584999888</v>
+        <v>0.001295944878737514</v>
       </c>
       <c r="K10">
-        <v>1.014532584999888</v>
+        <v>0.001295944878737514</v>
       </c>
       <c r="L10">
-        <v>1.000312551881359</v>
+        <v>-0.0004355876101599946</v>
       </c>
       <c r="M10">
-        <v>1.037479906541115</v>
+        <v>2.969046354019687</v>
       </c>
       <c r="N10">
-        <v>1.014532584999888</v>
+        <v>0.001295944878737514</v>
       </c>
       <c r="O10">
-        <v>1.149885027876599</v>
+        <v>4.781124676873814</v>
       </c>
       <c r="P10">
-        <v>1.065626057350854</v>
+        <v>2.389878708863814</v>
       </c>
       <c r="Q10">
-        <v>1.07721541049088</v>
+        <v>2.482978531148835</v>
       </c>
       <c r="R10">
-        <v>1.048594899900532</v>
+        <v>1.593684454202122</v>
       </c>
       <c r="S10">
-        <v>1.045265969268957</v>
+        <v>1.654863267717162</v>
       </c>
       <c r="T10">
-        <v>1.048594899900532</v>
+        <v>1.593684454202122</v>
       </c>
       <c r="U10">
-        <v>1.037582623201689</v>
+        <v>1.241471437007555</v>
       </c>
       <c r="V10">
-        <v>1.032972615561329</v>
+        <v>0.9934363385817919</v>
       </c>
       <c r="W10">
-        <v>1.022577989628905</v>
+        <v>1.127157026859466</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7900079486668176</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="D11">
-        <v>1.026218406448258</v>
+        <v>0.9554226516713367</v>
       </c>
       <c r="E11">
-        <v>0.9360873001749701</v>
+        <v>1.179348721785962</v>
       </c>
       <c r="F11">
-        <v>1.289732058906649</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="G11">
-        <v>0.7900079486668176</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="H11">
-        <v>0.970886664309461</v>
+        <v>1.030056761288366</v>
       </c>
       <c r="I11">
-        <v>0.9268814622655643</v>
+        <v>1.031933855854076</v>
       </c>
       <c r="J11">
-        <v>0.9360873001749715</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="K11">
-        <v>0.9360873001749715</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="L11">
-        <v>0.9577017005875006</v>
+        <v>1.031337234310504</v>
       </c>
       <c r="M11">
-        <v>1.180736999345972</v>
+        <v>1.042151695290369</v>
       </c>
       <c r="N11">
-        <v>0.9360873001749715</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="O11">
-        <v>1.289732058906649</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="P11">
-        <v>1.039870003786733</v>
+        <v>1.078719811802107</v>
       </c>
       <c r="Q11">
-        <v>1.130309361608055</v>
+        <v>1.040888288663038</v>
       </c>
       <c r="R11">
-        <v>1.00527576924948</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="S11">
-        <v>1.016875557294309</v>
+        <v>1.062498794964193</v>
       </c>
       <c r="T11">
-        <v>1.00527576924948</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="U11">
-        <v>0.9966784930144749</v>
+        <v>1.091711276669636</v>
       </c>
       <c r="V11">
-        <v>0.9845602544465741</v>
+        <v>1.109238765692902</v>
       </c>
       <c r="W11">
-        <v>1.009781567588149</v>
+        <v>1.053461317975604</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.041937787992891</v>
+        <v>1.049894180919037</v>
       </c>
       <c r="D12">
-        <v>0.5367521538377465</v>
+        <v>0.9723771421276762</v>
       </c>
       <c r="E12">
-        <v>1.610944634682633</v>
+        <v>1.088547693518612</v>
       </c>
       <c r="F12">
-        <v>0.000908516006570043</v>
+        <v>1.054363197248624</v>
       </c>
       <c r="G12">
-        <v>4.041937787992891</v>
+        <v>1.049894180919037</v>
       </c>
       <c r="H12">
-        <v>0.8677726221578203</v>
+        <v>1.011665245585318</v>
       </c>
       <c r="I12">
-        <v>0.4969938815467497</v>
+        <v>1.016422136909815</v>
       </c>
       <c r="J12">
-        <v>1.610944634680863</v>
+        <v>1.088547693518511</v>
       </c>
       <c r="K12">
-        <v>1.610944634680863</v>
+        <v>1.088547693518511</v>
       </c>
       <c r="L12">
-        <v>1.145403902705154</v>
+        <v>1.012595814756126</v>
       </c>
       <c r="M12">
-        <v>0.9895721687651821</v>
+        <v>1.019887646427599</v>
       </c>
       <c r="N12">
-        <v>1.610944634680863</v>
+        <v>1.088547693518511</v>
       </c>
       <c r="O12">
-        <v>0.000908516006570043</v>
+        <v>1.054363197248624</v>
       </c>
       <c r="P12">
-        <v>2.021423151999731</v>
+        <v>1.05212868908383</v>
       </c>
       <c r="Q12">
-        <v>0.4343405690821951</v>
+        <v>1.033014221416971</v>
       </c>
       <c r="R12">
-        <v>1.884596979560108</v>
+        <v>1.064268357228724</v>
       </c>
       <c r="S12">
-        <v>1.63687297538576</v>
+        <v>1.038640874584326</v>
       </c>
       <c r="T12">
-        <v>1.884596979560108</v>
+        <v>1.064268357228724</v>
       </c>
       <c r="U12">
-        <v>1.630390890209536</v>
+        <v>1.051117579317872</v>
       </c>
       <c r="V12">
-        <v>1.626501639103801</v>
+        <v>1.058603602158</v>
       </c>
       <c r="W12">
-        <v>1.211285708461622</v>
+        <v>1.028219132186588</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.02987992942547596</v>
+        <v>1.143481837094334</v>
       </c>
       <c r="D13">
-        <v>0.7585353448858002</v>
+        <v>0.9635118495692897</v>
       </c>
       <c r="E13">
-        <v>0.0005238517142313264</v>
+        <v>1.382392656843178</v>
       </c>
       <c r="F13">
-        <v>0.7210181794815498</v>
+        <v>1.153543237744381</v>
       </c>
       <c r="G13">
-        <v>0.02987992942547596</v>
+        <v>1.143481837094334</v>
       </c>
       <c r="H13">
-        <v>1.611845770703254</v>
+        <v>1.066157306772739</v>
       </c>
       <c r="I13">
-        <v>1.000328412638958</v>
+        <v>1.093799245881147</v>
       </c>
       <c r="J13">
-        <v>0.0005238517142313264</v>
+        <v>1.382392656843178</v>
       </c>
       <c r="K13">
-        <v>0.0005238517142313264</v>
+        <v>1.382392656843178</v>
       </c>
       <c r="L13">
-        <v>0.9829323283851462</v>
+        <v>1.046928452223299</v>
       </c>
       <c r="M13">
-        <v>1.375682220263042</v>
+        <v>1.079348632966953</v>
       </c>
       <c r="N13">
-        <v>0.0005238517142313264</v>
+        <v>1.382392656843178</v>
       </c>
       <c r="O13">
-        <v>0.7210181794815498</v>
+        <v>1.153543237744381</v>
       </c>
       <c r="P13">
-        <v>0.3754490544535128</v>
+        <v>1.148512537419357</v>
       </c>
       <c r="Q13">
-        <v>1.166431975092402</v>
+        <v>1.109850272258559</v>
       </c>
       <c r="R13">
-        <v>0.2504739868737523</v>
+        <v>1.226472577227298</v>
       </c>
       <c r="S13">
-        <v>0.7875812932034266</v>
+        <v>1.121060793870484</v>
       </c>
       <c r="T13">
-        <v>0.2504739868737524</v>
+        <v>1.226472577227298</v>
       </c>
       <c r="U13">
-        <v>0.5908169328311279</v>
+        <v>1.186393759613658</v>
       </c>
       <c r="V13">
-        <v>0.4727583166077486</v>
+        <v>1.225593539059562</v>
       </c>
       <c r="W13">
-        <v>0.8100932546871822</v>
+        <v>1.116145402386915</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1345042796491597</v>
+        <v>1.461220741041841</v>
       </c>
       <c r="D14">
-        <v>1.372465142416202</v>
+        <v>0.8985000177290438</v>
       </c>
       <c r="E14">
-        <v>0.0009504485273454639</v>
+        <v>1.8053047536519</v>
       </c>
       <c r="F14">
-        <v>0.005452140686010064</v>
+        <v>1.474679659339607</v>
       </c>
       <c r="G14">
-        <v>0.1345042796491597</v>
+        <v>1.461220741041841</v>
       </c>
       <c r="H14">
-        <v>0.6423559346484294</v>
+        <v>1.244767398922453</v>
       </c>
       <c r="I14">
-        <v>0.04295996218495594</v>
+        <v>0.9959721160987464</v>
       </c>
       <c r="J14">
-        <v>0.0009504485273303528</v>
+        <v>1.8053047536519</v>
       </c>
       <c r="K14">
-        <v>0.0009504485273303528</v>
+        <v>1.8053047536519</v>
       </c>
       <c r="L14">
-        <v>1.923300204130495</v>
+        <v>1.036496638082417</v>
       </c>
       <c r="M14">
-        <v>2.10828064764576</v>
+        <v>1.429010356027748</v>
       </c>
       <c r="N14">
-        <v>0.0009504485273303528</v>
+        <v>1.8053047536519</v>
       </c>
       <c r="O14">
-        <v>0.005452140686010064</v>
+        <v>1.474679659339607</v>
       </c>
       <c r="P14">
-        <v>0.06997821016758488</v>
+        <v>1.467950200190724</v>
       </c>
       <c r="Q14">
-        <v>0.3239040376672198</v>
+        <v>1.35972352913103</v>
       </c>
       <c r="R14">
-        <v>0.04696895628750004</v>
+        <v>1.580401718011116</v>
       </c>
       <c r="S14">
-        <v>0.260770784994533</v>
+        <v>1.3935559331013</v>
       </c>
       <c r="T14">
-        <v>0.04696895628750004</v>
+        <v>1.580401718011116</v>
       </c>
       <c r="U14">
-        <v>0.1958157008777324</v>
+        <v>1.49649313823895</v>
       </c>
       <c r="V14">
-        <v>0.156842650407652</v>
+        <v>1.55825546132154</v>
       </c>
       <c r="W14">
-        <v>0.7787835949860429</v>
+        <v>1.293243960111719</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.764445332348538</v>
+        <v>1.131925712525188</v>
       </c>
       <c r="D15">
-        <v>0.8892578769328345</v>
+        <v>0.9422496913523514</v>
       </c>
       <c r="E15">
-        <v>1.495813502275313</v>
+        <v>1.188435197922191</v>
       </c>
       <c r="F15">
-        <v>1.715526862205314</v>
+        <v>1.078301569264577</v>
       </c>
       <c r="G15">
-        <v>3.764445332348538</v>
+        <v>1.131925712525188</v>
       </c>
       <c r="H15">
-        <v>0.4008822325947026</v>
+        <v>1.040362978238184</v>
       </c>
       <c r="I15">
-        <v>1.651418092919315</v>
+        <v>1.026181523097045</v>
       </c>
       <c r="J15">
-        <v>1.495813502275313</v>
+        <v>1.188435197922139</v>
       </c>
       <c r="K15">
-        <v>1.495813502275313</v>
+        <v>1.188435197922139</v>
       </c>
       <c r="L15">
-        <v>1.393726803578442</v>
+        <v>1.0305374257722</v>
       </c>
       <c r="M15">
-        <v>0.02098859333633427</v>
+        <v>1.028591755786158</v>
       </c>
       <c r="N15">
-        <v>1.495813502275313</v>
+        <v>1.188435197922139</v>
       </c>
       <c r="O15">
-        <v>1.715526862205314</v>
+        <v>1.078301569264577</v>
       </c>
       <c r="P15">
-        <v>2.739986097276926</v>
+        <v>1.105113640894882</v>
       </c>
       <c r="Q15">
-        <v>1.058204547400008</v>
+        <v>1.059332273751381</v>
       </c>
       <c r="R15">
-        <v>2.325261898943055</v>
+        <v>1.132887493237301</v>
       </c>
       <c r="S15">
-        <v>1.960284809049518</v>
+        <v>1.083530086675983</v>
       </c>
       <c r="T15">
-        <v>2.325261898943055</v>
+        <v>1.132887493237301</v>
       </c>
       <c r="U15">
-        <v>1.844166982355967</v>
+        <v>1.109756364487522</v>
       </c>
       <c r="V15">
-        <v>1.774496286339836</v>
+        <v>1.125492131174445</v>
       </c>
       <c r="W15">
-        <v>1.416507412023849</v>
+        <v>1.05832323174473</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.903826429674891</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="D16">
-        <v>0.2388776890468768</v>
+        <v>0.9202351166176346</v>
       </c>
       <c r="E16">
-        <v>4.268155351025974</v>
+        <v>1.417205481451256</v>
       </c>
       <c r="F16">
-        <v>1.955684207531714</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="G16">
-        <v>2.903826429674891</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="H16">
-        <v>1.5669851221335</v>
+        <v>1.087798064723927</v>
       </c>
       <c r="I16">
-        <v>1.625772692289075</v>
+        <v>1.057073872886221</v>
       </c>
       <c r="J16">
-        <v>4.268155351025934</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="K16">
-        <v>4.268155351025934</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="L16">
-        <v>1.560855187016804</v>
+        <v>1.075320716921016</v>
       </c>
       <c r="M16">
-        <v>1.574161473596495</v>
+        <v>1.049297823514456</v>
       </c>
       <c r="N16">
-        <v>4.268155351025934</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="O16">
-        <v>1.955684207531714</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="P16">
-        <v>2.429755318603303</v>
+        <v>1.158972684608073</v>
       </c>
       <c r="Q16">
-        <v>1.761334664832607</v>
+        <v>1.10322980889301</v>
       </c>
       <c r="R16">
-        <v>3.042555329410847</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="S16">
-        <v>2.142165253113369</v>
+        <v>1.135247811313358</v>
       </c>
       <c r="T16">
-        <v>3.042555329410847</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="U16">
-        <v>2.67366277759151</v>
+        <v>1.205737228847833</v>
       </c>
       <c r="V16">
-        <v>2.992561292278395</v>
+        <v>1.248030879368518</v>
       </c>
       <c r="W16">
-        <v>1.961789769039411</v>
+        <v>1.115609555666332</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.21026933717528</v>
+        <v>1.465660858705745</v>
       </c>
       <c r="D17">
-        <v>0.4762011651207469</v>
+        <v>0.9698278739823576</v>
       </c>
       <c r="E17">
-        <v>3.141357228185059</v>
+        <v>2.011081918575733</v>
       </c>
       <c r="F17">
-        <v>2.128015470438122</v>
+        <v>1.323719355077419</v>
       </c>
       <c r="G17">
-        <v>2.21026933717528</v>
+        <v>1.465660858705745</v>
       </c>
       <c r="H17">
-        <v>1.334936174562949</v>
+        <v>1.111991151632138</v>
       </c>
       <c r="I17">
-        <v>1.452808971796852</v>
+        <v>1.223270377756779</v>
       </c>
       <c r="J17">
-        <v>3.141357228184983</v>
+        <v>2.011081918575733</v>
       </c>
       <c r="K17">
-        <v>3.141357228184983</v>
+        <v>2.011081918575733</v>
       </c>
       <c r="L17">
-        <v>1.321127267219594</v>
+        <v>1.279794937675692</v>
       </c>
       <c r="M17">
-        <v>1.35039063448461</v>
+        <v>1.347839542919922</v>
       </c>
       <c r="N17">
-        <v>3.141357228184983</v>
+        <v>2.011081918575733</v>
       </c>
       <c r="O17">
-        <v>2.128015470438122</v>
+        <v>1.323719355077419</v>
       </c>
       <c r="P17">
-        <v>2.169142403806701</v>
+        <v>1.394690106891582</v>
       </c>
       <c r="Q17">
-        <v>1.731475822500536</v>
+        <v>1.217855253354778</v>
       </c>
       <c r="R17">
-        <v>2.493214011932795</v>
+        <v>1.600154044119632</v>
       </c>
       <c r="S17">
-        <v>1.89107366072545</v>
+        <v>1.300457121805101</v>
       </c>
       <c r="T17">
-        <v>2.493214011932795</v>
+        <v>1.600154044119632</v>
       </c>
       <c r="U17">
-        <v>2.203644552590333</v>
+        <v>1.478113320997759</v>
       </c>
       <c r="V17">
-        <v>2.391187087709263</v>
+        <v>1.584707040513354</v>
       </c>
       <c r="W17">
-        <v>1.676888281122892</v>
+        <v>1.341648252040723</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8152142531704862</v>
+        <v>1.958167472476742</v>
       </c>
       <c r="D18">
-        <v>0.9392042176922619</v>
+        <v>0.7166432862554265</v>
       </c>
       <c r="E18">
-        <v>0.9154194176166068</v>
+        <v>2.886134281613763</v>
       </c>
       <c r="F18">
-        <v>2.434306307574432</v>
+        <v>1.768223459933033</v>
       </c>
       <c r="G18">
-        <v>0.8152142531704862</v>
+        <v>1.958167472476742</v>
       </c>
       <c r="H18">
-        <v>0.8715390636887743</v>
+        <v>1.618612105770097</v>
       </c>
       <c r="I18">
-        <v>1.116638730074692</v>
+        <v>0.9450221804410572</v>
       </c>
       <c r="J18">
-        <v>0.9154194176166079</v>
+        <v>2.886134281613763</v>
       </c>
       <c r="K18">
-        <v>0.9154194176166079</v>
+        <v>2.886134281613763</v>
       </c>
       <c r="L18">
-        <v>0.8466414343850616</v>
+        <v>0.9451728066937155</v>
       </c>
       <c r="M18">
-        <v>0.9275370452687368</v>
+        <v>1.039270782724601</v>
       </c>
       <c r="N18">
-        <v>0.9154194176166079</v>
+        <v>2.886134281613763</v>
       </c>
       <c r="O18">
-        <v>2.434306307574432</v>
+        <v>1.768223459933033</v>
       </c>
       <c r="P18">
-        <v>1.624760280372459</v>
+        <v>1.863195466204887</v>
       </c>
       <c r="Q18">
-        <v>1.652922685631603</v>
+        <v>1.693417782851565</v>
       </c>
       <c r="R18">
-        <v>1.388313326120509</v>
+        <v>2.204175071341179</v>
       </c>
       <c r="S18">
-        <v>1.373686541477897</v>
+        <v>1.781667679393291</v>
       </c>
       <c r="T18">
-        <v>1.388313326120509</v>
+        <v>2.204175071341179</v>
       </c>
       <c r="U18">
-        <v>1.259119760512575</v>
+        <v>2.057784329948409</v>
       </c>
       <c r="V18">
-        <v>1.190379691933382</v>
+        <v>2.22345432028148</v>
       </c>
       <c r="W18">
-        <v>1.108312558683882</v>
+        <v>1.484655796988555</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8494348586355633</v>
+        <v>0.9986333030070658</v>
       </c>
       <c r="D19">
-        <v>0.9359149298407257</v>
+        <v>0.9984996777177522</v>
       </c>
       <c r="E19">
-        <v>0.8147854128774122</v>
+        <v>0.9988866445416117</v>
       </c>
       <c r="F19">
-        <v>3.289796292413472</v>
+        <v>1.025833678743526</v>
       </c>
       <c r="G19">
-        <v>0.8494348586355633</v>
+        <v>0.9986333030070658</v>
       </c>
       <c r="H19">
-        <v>0.7021428909377537</v>
+        <v>0.9998691019197304</v>
       </c>
       <c r="I19">
-        <v>1.164245347975658</v>
+        <v>0.9994161996659711</v>
       </c>
       <c r="J19">
-        <v>0.8147854128774122</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="K19">
-        <v>0.8147854128774122</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="L19">
-        <v>0.8119009038886488</v>
+        <v>0.9990447516638296</v>
       </c>
       <c r="M19">
-        <v>0.7901776774779583</v>
+        <v>1.000496286563564</v>
       </c>
       <c r="N19">
-        <v>0.8147854128774122</v>
+        <v>0.9988866445415148</v>
       </c>
       <c r="O19">
-        <v>3.289796292413472</v>
+        <v>1.025833678743526</v>
       </c>
       <c r="P19">
-        <v>2.069615575524518</v>
+        <v>1.012233490875296</v>
       </c>
       <c r="Q19">
-        <v>1.995969591675613</v>
+        <v>1.012851390331628</v>
       </c>
       <c r="R19">
-        <v>1.651338854642149</v>
+        <v>1.007784542097369</v>
       </c>
       <c r="S19">
-        <v>1.61379134732893</v>
+        <v>1.008112027890107</v>
       </c>
       <c r="T19">
-        <v>1.651338854642149</v>
+        <v>1.007784542097369</v>
       </c>
       <c r="U19">
-        <v>1.414039863716051</v>
+        <v>1.005805682052959</v>
       </c>
       <c r="V19">
-        <v>1.294188973548323</v>
+        <v>1.00442187455067</v>
       </c>
       <c r="W19">
-        <v>1.169799789255899</v>
+        <v>1.002584955477869</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.023354343061934</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="D20">
-        <v>1.000380574227151</v>
+        <v>0.9954901278068785</v>
       </c>
       <c r="E20">
-        <v>1.020973743947417</v>
+        <v>0.9966368502006497</v>
       </c>
       <c r="F20">
-        <v>1.009075765608452</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="G20">
-        <v>1.023354343061934</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="H20">
-        <v>0.9876301499326327</v>
+        <v>0.994497883253487</v>
       </c>
       <c r="I20">
-        <v>0.9939016388325428</v>
+        <v>1.003786982862443</v>
       </c>
       <c r="J20">
-        <v>1.020973743947317</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="K20">
-        <v>1.020973743947317</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="L20">
-        <v>0.9946724890615262</v>
+        <v>0.9958178111250164</v>
       </c>
       <c r="M20">
-        <v>0.9903849516046718</v>
+        <v>1.005456498129638</v>
       </c>
       <c r="N20">
-        <v>1.020973743947317</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="O20">
-        <v>1.009075765608452</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="P20">
-        <v>1.016215054335193</v>
+        <v>1.02453555987768</v>
       </c>
       <c r="Q20">
-        <v>0.9983529577705423</v>
+        <v>1.022465631291477</v>
       </c>
       <c r="R20">
-        <v>1.017801284205901</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="S20">
-        <v>1.006686752867673</v>
+        <v>1.014523001002949</v>
       </c>
       <c r="T20">
-        <v>1.017801284205901</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="U20">
-        <v>1.010258500637584</v>
+        <v>1.010051463302363</v>
       </c>
       <c r="V20">
-        <v>1.012401549299531</v>
+        <v>1.007368540682011</v>
       </c>
       <c r="W20">
-        <v>1.002546707034529</v>
+        <v>1.005094659141678</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9534285128718087</v>
+        <v>0.9751242878626613</v>
       </c>
       <c r="D21">
-        <v>0.9959883671489338</v>
+        <v>1.003890627153009</v>
       </c>
       <c r="E21">
-        <v>0.9588297560411738</v>
+        <v>1.00939292248145</v>
       </c>
       <c r="F21">
-        <v>1.032776778388947</v>
+        <v>1.048925201989139</v>
       </c>
       <c r="G21">
-        <v>0.9534285128718087</v>
+        <v>0.9751242878626613</v>
       </c>
       <c r="H21">
-        <v>1.010157654634312</v>
+        <v>1.000918072694548</v>
       </c>
       <c r="I21">
-        <v>1.007039191971704</v>
+        <v>0.9895954882788106</v>
       </c>
       <c r="J21">
-        <v>0.9588297560411595</v>
+        <v>1.009392922481381</v>
       </c>
       <c r="K21">
-        <v>0.9588297560411595</v>
+        <v>1.009392922481381</v>
       </c>
       <c r="L21">
-        <v>1.004677666068548</v>
+        <v>0.9894274645205412</v>
       </c>
       <c r="M21">
-        <v>1.014636599692891</v>
+        <v>1.024529772195253</v>
       </c>
       <c r="N21">
-        <v>0.9588297560411595</v>
+        <v>1.009392922481381</v>
       </c>
       <c r="O21">
-        <v>1.032776778388947</v>
+        <v>1.048925201989139</v>
       </c>
       <c r="P21">
-        <v>0.9931026456303778</v>
+        <v>1.0120247449259</v>
       </c>
       <c r="Q21">
-        <v>1.021467216511629</v>
+        <v>1.024921637341843</v>
       </c>
       <c r="R21">
-        <v>0.9816783491006383</v>
+        <v>1.011147470777727</v>
       </c>
       <c r="S21">
-        <v>0.9987876486316892</v>
+        <v>1.008322520848783</v>
       </c>
       <c r="T21">
-        <v>0.9816783491006383</v>
+        <v>1.011147470777727</v>
       </c>
       <c r="U21">
-        <v>0.9887981754840567</v>
+        <v>1.008590121256932</v>
       </c>
       <c r="V21">
-        <v>0.9828044915954772</v>
+        <v>1.008750681501822</v>
       </c>
       <c r="W21">
-        <v>0.9971918158522879</v>
+        <v>1.005225479646918</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.144106204282514</v>
+        <v>0.9813670868251095</v>
       </c>
       <c r="D22">
-        <v>1.003606171507223</v>
+        <v>0.9904358855777051</v>
       </c>
       <c r="E22">
-        <v>1.190319070915759</v>
+        <v>1.014532585000059</v>
       </c>
       <c r="F22">
-        <v>0.9977774189626432</v>
+        <v>1.149885027876599</v>
       </c>
       <c r="G22">
-        <v>1.144106204282514</v>
+        <v>0.9813670868251095</v>
       </c>
       <c r="H22">
-        <v>1.02377700235384</v>
+        <v>1.004545793105161</v>
       </c>
       <c r="I22">
-        <v>0.9880961094858424</v>
+        <v>1.002065080224303</v>
       </c>
       <c r="J22">
-        <v>1.19031907091576</v>
+        <v>1.014532584999888</v>
       </c>
       <c r="K22">
-        <v>1.19031907091576</v>
+        <v>1.014532584999888</v>
       </c>
       <c r="L22">
-        <v>1.007495421646769</v>
+        <v>1.000312551881359</v>
       </c>
       <c r="M22">
-        <v>1.046233146460518</v>
+        <v>1.037479906541115</v>
       </c>
       <c r="N22">
-        <v>1.19031907091576</v>
+        <v>1.014532584999888</v>
       </c>
       <c r="O22">
-        <v>0.9977774189626432</v>
+        <v>1.149885027876599</v>
       </c>
       <c r="P22">
-        <v>1.070941811622578</v>
+        <v>1.065626057350854</v>
       </c>
       <c r="Q22">
-        <v>1.010777210658241</v>
+        <v>1.07721541049088</v>
       </c>
       <c r="R22">
-        <v>1.110734231386972</v>
+        <v>1.048594899900532</v>
       </c>
       <c r="S22">
-        <v>1.055220208532999</v>
+        <v>1.045265969268957</v>
       </c>
       <c r="T22">
-        <v>1.110734231386972</v>
+        <v>1.048594899900532</v>
       </c>
       <c r="U22">
-        <v>1.088994924128689</v>
+        <v>1.037582623201689</v>
       </c>
       <c r="V22">
-        <v>1.109259753486103</v>
+        <v>1.032972615561329</v>
       </c>
       <c r="W22">
-        <v>1.050176318201889</v>
+        <v>1.022577989628905</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.7900079486668176</v>
+      </c>
+      <c r="D23">
+        <v>1.026218406448258</v>
+      </c>
+      <c r="E23">
+        <v>0.9360873001749701</v>
+      </c>
+      <c r="F23">
+        <v>1.289732058906649</v>
+      </c>
+      <c r="G23">
+        <v>0.7900079486668176</v>
+      </c>
+      <c r="H23">
+        <v>0.970886664309461</v>
+      </c>
+      <c r="I23">
+        <v>0.9268814622655643</v>
+      </c>
+      <c r="J23">
+        <v>0.9360873001749715</v>
+      </c>
+      <c r="K23">
+        <v>0.9360873001749715</v>
+      </c>
+      <c r="L23">
+        <v>0.9577017005875006</v>
+      </c>
+      <c r="M23">
+        <v>1.180736999345972</v>
+      </c>
+      <c r="N23">
+        <v>0.9360873001749715</v>
+      </c>
+      <c r="O23">
+        <v>1.289732058906649</v>
+      </c>
+      <c r="P23">
+        <v>1.039870003786733</v>
+      </c>
+      <c r="Q23">
+        <v>1.130309361608055</v>
+      </c>
+      <c r="R23">
+        <v>1.00527576924948</v>
+      </c>
+      <c r="S23">
+        <v>1.016875557294309</v>
+      </c>
+      <c r="T23">
+        <v>1.00527576924948</v>
+      </c>
+      <c r="U23">
+        <v>0.9966784930144749</v>
+      </c>
+      <c r="V23">
+        <v>0.9845602544465741</v>
+      </c>
+      <c r="W23">
+        <v>1.009781567588149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="D24">
+        <v>0.5367521538377465</v>
+      </c>
+      <c r="E24">
+        <v>1.610944634682633</v>
+      </c>
+      <c r="F24">
+        <v>0.000908516006570043</v>
+      </c>
+      <c r="G24">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="H24">
+        <v>0.8677726221578203</v>
+      </c>
+      <c r="I24">
+        <v>0.4969938815467497</v>
+      </c>
+      <c r="J24">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="K24">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="L24">
+        <v>1.145403902705154</v>
+      </c>
+      <c r="M24">
+        <v>0.9895721687651821</v>
+      </c>
+      <c r="N24">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="O24">
+        <v>0.000908516006570043</v>
+      </c>
+      <c r="P24">
+        <v>2.021423151999731</v>
+      </c>
+      <c r="Q24">
+        <v>0.4343405690821951</v>
+      </c>
+      <c r="R24">
+        <v>1.884596979560108</v>
+      </c>
+      <c r="S24">
+        <v>1.63687297538576</v>
+      </c>
+      <c r="T24">
+        <v>1.884596979560108</v>
+      </c>
+      <c r="U24">
+        <v>1.630390890209536</v>
+      </c>
+      <c r="V24">
+        <v>1.626501639103801</v>
+      </c>
+      <c r="W24">
+        <v>1.211285708461622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.02987992942547596</v>
+      </c>
+      <c r="D25">
+        <v>0.7585353448858002</v>
+      </c>
+      <c r="E25">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="F25">
+        <v>0.7210181794815498</v>
+      </c>
+      <c r="G25">
+        <v>0.02987992942547596</v>
+      </c>
+      <c r="H25">
+        <v>1.611845770703254</v>
+      </c>
+      <c r="I25">
+        <v>1.000328412638958</v>
+      </c>
+      <c r="J25">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="K25">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="L25">
+        <v>0.9829323283851462</v>
+      </c>
+      <c r="M25">
+        <v>1.375682220263042</v>
+      </c>
+      <c r="N25">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="O25">
+        <v>0.7210181794815498</v>
+      </c>
+      <c r="P25">
+        <v>0.3754490544535128</v>
+      </c>
+      <c r="Q25">
+        <v>1.166431975092402</v>
+      </c>
+      <c r="R25">
+        <v>0.2504739868737523</v>
+      </c>
+      <c r="S25">
+        <v>0.7875812932034266</v>
+      </c>
+      <c r="T25">
+        <v>0.2504739868737524</v>
+      </c>
+      <c r="U25">
+        <v>0.5908169328311279</v>
+      </c>
+      <c r="V25">
+        <v>0.4727583166077486</v>
+      </c>
+      <c r="W25">
+        <v>0.8100932546871822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1345042796491597</v>
+      </c>
+      <c r="D26">
+        <v>1.372465142416202</v>
+      </c>
+      <c r="E26">
+        <v>0.0009504485273454639</v>
+      </c>
+      <c r="F26">
+        <v>0.005452140686010064</v>
+      </c>
+      <c r="G26">
+        <v>0.1345042796491597</v>
+      </c>
+      <c r="H26">
+        <v>0.6423559346484294</v>
+      </c>
+      <c r="I26">
+        <v>0.04295996218495594</v>
+      </c>
+      <c r="J26">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="K26">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="L26">
+        <v>1.923300204130495</v>
+      </c>
+      <c r="M26">
+        <v>2.10828064764576</v>
+      </c>
+      <c r="N26">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="O26">
+        <v>0.005452140686010064</v>
+      </c>
+      <c r="P26">
+        <v>0.06997821016758488</v>
+      </c>
+      <c r="Q26">
+        <v>0.3239040376672198</v>
+      </c>
+      <c r="R26">
+        <v>0.04696895628750004</v>
+      </c>
+      <c r="S26">
+        <v>0.260770784994533</v>
+      </c>
+      <c r="T26">
+        <v>0.04696895628750004</v>
+      </c>
+      <c r="U26">
+        <v>0.1958157008777324</v>
+      </c>
+      <c r="V26">
+        <v>0.156842650407652</v>
+      </c>
+      <c r="W26">
+        <v>0.7787835949860429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3.764445332348538</v>
+      </c>
+      <c r="D27">
+        <v>0.8892578769328345</v>
+      </c>
+      <c r="E27">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="F27">
+        <v>1.715526862205314</v>
+      </c>
+      <c r="G27">
+        <v>3.764445332348538</v>
+      </c>
+      <c r="H27">
+        <v>0.4008822325947026</v>
+      </c>
+      <c r="I27">
+        <v>1.651418092919315</v>
+      </c>
+      <c r="J27">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="K27">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="L27">
+        <v>1.393726803578442</v>
+      </c>
+      <c r="M27">
+        <v>0.02098859333633427</v>
+      </c>
+      <c r="N27">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="O27">
+        <v>1.715526862205314</v>
+      </c>
+      <c r="P27">
+        <v>2.739986097276926</v>
+      </c>
+      <c r="Q27">
+        <v>1.058204547400008</v>
+      </c>
+      <c r="R27">
+        <v>2.325261898943055</v>
+      </c>
+      <c r="S27">
+        <v>1.960284809049518</v>
+      </c>
+      <c r="T27">
+        <v>2.325261898943055</v>
+      </c>
+      <c r="U27">
+        <v>1.844166982355967</v>
+      </c>
+      <c r="V27">
+        <v>1.774496286339836</v>
+      </c>
+      <c r="W27">
+        <v>1.416507412023849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.903826429674891</v>
+      </c>
+      <c r="D28">
+        <v>0.2388776890468768</v>
+      </c>
+      <c r="E28">
+        <v>4.268155351025974</v>
+      </c>
+      <c r="F28">
+        <v>1.955684207531714</v>
+      </c>
+      <c r="G28">
+        <v>2.903826429674891</v>
+      </c>
+      <c r="H28">
+        <v>1.5669851221335</v>
+      </c>
+      <c r="I28">
+        <v>1.625772692289075</v>
+      </c>
+      <c r="J28">
+        <v>4.268155351025934</v>
+      </c>
+      <c r="K28">
+        <v>4.268155351025934</v>
+      </c>
+      <c r="L28">
+        <v>1.560855187016804</v>
+      </c>
+      <c r="M28">
+        <v>1.574161473596495</v>
+      </c>
+      <c r="N28">
+        <v>4.268155351025934</v>
+      </c>
+      <c r="O28">
+        <v>1.955684207531714</v>
+      </c>
+      <c r="P28">
+        <v>2.429755318603303</v>
+      </c>
+      <c r="Q28">
+        <v>1.761334664832607</v>
+      </c>
+      <c r="R28">
+        <v>3.042555329410847</v>
+      </c>
+      <c r="S28">
+        <v>2.142165253113369</v>
+      </c>
+      <c r="T28">
+        <v>3.042555329410847</v>
+      </c>
+      <c r="U28">
+        <v>2.67366277759151</v>
+      </c>
+      <c r="V28">
+        <v>2.992561292278395</v>
+      </c>
+      <c r="W28">
+        <v>1.961789769039411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.21026933717528</v>
+      </c>
+      <c r="D29">
+        <v>0.4762011651207469</v>
+      </c>
+      <c r="E29">
+        <v>3.141357228185059</v>
+      </c>
+      <c r="F29">
+        <v>2.128015470438122</v>
+      </c>
+      <c r="G29">
+        <v>2.21026933717528</v>
+      </c>
+      <c r="H29">
+        <v>1.334936174562949</v>
+      </c>
+      <c r="I29">
+        <v>1.452808971796852</v>
+      </c>
+      <c r="J29">
+        <v>3.141357228184983</v>
+      </c>
+      <c r="K29">
+        <v>3.141357228184983</v>
+      </c>
+      <c r="L29">
+        <v>1.321127267219594</v>
+      </c>
+      <c r="M29">
+        <v>1.35039063448461</v>
+      </c>
+      <c r="N29">
+        <v>3.141357228184983</v>
+      </c>
+      <c r="O29">
+        <v>2.128015470438122</v>
+      </c>
+      <c r="P29">
+        <v>2.169142403806701</v>
+      </c>
+      <c r="Q29">
+        <v>1.731475822500536</v>
+      </c>
+      <c r="R29">
+        <v>2.493214011932795</v>
+      </c>
+      <c r="S29">
+        <v>1.89107366072545</v>
+      </c>
+      <c r="T29">
+        <v>2.493214011932795</v>
+      </c>
+      <c r="U29">
+        <v>2.203644552590333</v>
+      </c>
+      <c r="V29">
+        <v>2.391187087709263</v>
+      </c>
+      <c r="W29">
+        <v>1.676888281122892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8152142531704862</v>
+      </c>
+      <c r="D30">
+        <v>0.9392042176922619</v>
+      </c>
+      <c r="E30">
+        <v>0.9154194176166068</v>
+      </c>
+      <c r="F30">
+        <v>2.434306307574432</v>
+      </c>
+      <c r="G30">
+        <v>0.8152142531704862</v>
+      </c>
+      <c r="H30">
+        <v>0.8715390636887743</v>
+      </c>
+      <c r="I30">
+        <v>1.116638730074692</v>
+      </c>
+      <c r="J30">
+        <v>0.9154194176166079</v>
+      </c>
+      <c r="K30">
+        <v>0.9154194176166079</v>
+      </c>
+      <c r="L30">
+        <v>0.8466414343850616</v>
+      </c>
+      <c r="M30">
+        <v>0.9275370452687368</v>
+      </c>
+      <c r="N30">
+        <v>0.9154194176166079</v>
+      </c>
+      <c r="O30">
+        <v>2.434306307574432</v>
+      </c>
+      <c r="P30">
+        <v>1.624760280372459</v>
+      </c>
+      <c r="Q30">
+        <v>1.652922685631603</v>
+      </c>
+      <c r="R30">
+        <v>1.388313326120509</v>
+      </c>
+      <c r="S30">
+        <v>1.373686541477897</v>
+      </c>
+      <c r="T30">
+        <v>1.388313326120509</v>
+      </c>
+      <c r="U30">
+        <v>1.259119760512575</v>
+      </c>
+      <c r="V30">
+        <v>1.190379691933382</v>
+      </c>
+      <c r="W30">
+        <v>1.108312558683882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8494348586355633</v>
+      </c>
+      <c r="D31">
+        <v>0.9359149298407257</v>
+      </c>
+      <c r="E31">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="F31">
+        <v>3.289796292413472</v>
+      </c>
+      <c r="G31">
+        <v>0.8494348586355633</v>
+      </c>
+      <c r="H31">
+        <v>0.7021428909377537</v>
+      </c>
+      <c r="I31">
+        <v>1.164245347975658</v>
+      </c>
+      <c r="J31">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="K31">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="L31">
+        <v>0.8119009038886488</v>
+      </c>
+      <c r="M31">
+        <v>0.7901776774779583</v>
+      </c>
+      <c r="N31">
+        <v>0.8147854128774122</v>
+      </c>
+      <c r="O31">
+        <v>3.289796292413472</v>
+      </c>
+      <c r="P31">
+        <v>2.069615575524518</v>
+      </c>
+      <c r="Q31">
+        <v>1.995969591675613</v>
+      </c>
+      <c r="R31">
+        <v>1.651338854642149</v>
+      </c>
+      <c r="S31">
+        <v>1.61379134732893</v>
+      </c>
+      <c r="T31">
+        <v>1.651338854642149</v>
+      </c>
+      <c r="U31">
+        <v>1.414039863716051</v>
+      </c>
+      <c r="V31">
+        <v>1.294188973548323</v>
+      </c>
+      <c r="W31">
+        <v>1.169799789255899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.546862464858905</v>
+      </c>
+      <c r="D32">
+        <v>0.0009646458843287674</v>
+      </c>
+      <c r="E32">
+        <v>5.319614891150686</v>
+      </c>
+      <c r="F32">
+        <v>1.774527139705205</v>
+      </c>
+      <c r="G32">
+        <v>3.546862464858905</v>
+      </c>
+      <c r="H32">
+        <v>1.786575892026302</v>
+      </c>
+      <c r="I32">
+        <v>1.773207853897534</v>
+      </c>
+      <c r="J32">
+        <v>5.319614891150686</v>
+      </c>
+      <c r="K32">
+        <v>5.319614891150686</v>
+      </c>
+      <c r="L32">
+        <v>1.775090965915205</v>
+      </c>
+      <c r="M32">
+        <v>1.983429950333862</v>
+      </c>
+      <c r="N32">
+        <v>5.319614891150686</v>
+      </c>
+      <c r="O32">
+        <v>1.774527139705205</v>
+      </c>
+      <c r="P32">
+        <v>2.660694802282055</v>
+      </c>
+      <c r="Q32">
+        <v>1.780551515865754</v>
+      </c>
+      <c r="R32">
+        <v>3.547001498571599</v>
+      </c>
+      <c r="S32">
+        <v>2.369321832196804</v>
+      </c>
+      <c r="T32">
+        <v>3.547001498571599</v>
+      </c>
+      <c r="U32">
+        <v>3.106895096935275</v>
+      </c>
+      <c r="V32">
+        <v>3.549439055778357</v>
+      </c>
+      <c r="W32">
+        <v>2.245034225471504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.001263754283263158</v>
+      </c>
+      <c r="D33">
+        <v>1.783217642024737</v>
+      </c>
+      <c r="E33">
+        <v>3.752783996557052</v>
+      </c>
+      <c r="F33">
+        <v>2.504721636714681</v>
+      </c>
+      <c r="G33">
+        <v>0.001263754283263158</v>
+      </c>
+      <c r="H33">
+        <v>1.708747056802105</v>
+      </c>
+      <c r="I33">
+        <v>0.1406515773943684</v>
+      </c>
+      <c r="J33">
+        <v>3.752783996557052</v>
+      </c>
+      <c r="K33">
+        <v>3.752783996557052</v>
+      </c>
+      <c r="L33">
+        <v>0.1773699181505263</v>
+      </c>
+      <c r="M33">
+        <v>0.2668171258199999</v>
+      </c>
+      <c r="N33">
+        <v>3.752783996557052</v>
+      </c>
+      <c r="O33">
+        <v>2.504721636714681</v>
+      </c>
+      <c r="P33">
+        <v>1.252992695498972</v>
+      </c>
+      <c r="Q33">
+        <v>2.106734346758393</v>
+      </c>
+      <c r="R33">
+        <v>2.086256462518332</v>
+      </c>
+      <c r="S33">
+        <v>1.40491081593335</v>
+      </c>
+      <c r="T33">
+        <v>2.086256462518332</v>
+      </c>
+      <c r="U33">
+        <v>1.991879111089276</v>
+      </c>
+      <c r="V33">
+        <v>2.344060088182831</v>
+      </c>
+      <c r="W33">
+        <v>1.291946588468342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="D34">
+        <v>0.00958037511473684</v>
+      </c>
+      <c r="E34">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="F34">
+        <v>5.909017684447366</v>
+      </c>
+      <c r="G34">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="H34">
+        <v>0.1838737728705263</v>
+      </c>
+      <c r="I34">
+        <v>1.031983523042105</v>
+      </c>
+      <c r="J34">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="K34">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="L34">
+        <v>-0.0005682035325263156</v>
+      </c>
+      <c r="M34">
+        <v>2.953486430137894</v>
+      </c>
+      <c r="N34">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="O34">
+        <v>5.909017684447366</v>
+      </c>
+      <c r="P34">
+        <v>2.953859873323683</v>
+      </c>
+      <c r="Q34">
+        <v>3.046445728658946</v>
+      </c>
+      <c r="R34">
+        <v>1.969681806570174</v>
+      </c>
+      <c r="S34">
+        <v>2.03053117317263</v>
+      </c>
+      <c r="T34">
+        <v>1.969681806570175</v>
+      </c>
+      <c r="U34">
+        <v>1.523229798145262</v>
+      </c>
+      <c r="V34">
+        <v>1.218848973128841</v>
+      </c>
+      <c r="W34">
+        <v>1.260925164667908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4016887792814743</v>
+      </c>
+      <c r="D35">
+        <v>0.4805638902266511</v>
+      </c>
+      <c r="E35">
+        <v>0.4462946837383568</v>
+      </c>
+      <c r="F35">
+        <v>16.38710467647345</v>
+      </c>
+      <c r="G35">
+        <v>0.4016887792814743</v>
+      </c>
+      <c r="H35">
+        <v>0.4412639120490812</v>
+      </c>
+      <c r="I35">
+        <v>0.6606176723332552</v>
+      </c>
+      <c r="J35">
+        <v>0.4462946837382583</v>
+      </c>
+      <c r="K35">
+        <v>0.4462946837382583</v>
+      </c>
+      <c r="L35">
+        <v>0.4165908795507586</v>
+      </c>
+      <c r="M35">
+        <v>0.4403938253598643</v>
+      </c>
+      <c r="N35">
+        <v>0.4462946837382583</v>
+      </c>
+      <c r="O35">
+        <v>16.38710467647345</v>
+      </c>
+      <c r="P35">
+        <v>8.39439672787746</v>
+      </c>
+      <c r="Q35">
+        <v>8.414184294261263</v>
+      </c>
+      <c r="R35">
+        <v>5.74502937983106</v>
+      </c>
+      <c r="S35">
+        <v>5.743352455934667</v>
+      </c>
+      <c r="T35">
+        <v>5.74502937983106</v>
+      </c>
+      <c r="U35">
+        <v>4.419088012885565</v>
+      </c>
+      <c r="V35">
+        <v>3.624529347056104</v>
+      </c>
+      <c r="W35">
+        <v>2.459314789876599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.023354343061934</v>
+      </c>
+      <c r="D36">
+        <v>1.000380574227151</v>
+      </c>
+      <c r="E36">
+        <v>1.020973743947417</v>
+      </c>
+      <c r="F36">
+        <v>1.009075765608452</v>
+      </c>
+      <c r="G36">
+        <v>1.023354343061934</v>
+      </c>
+      <c r="H36">
+        <v>0.9876301499326327</v>
+      </c>
+      <c r="I36">
+        <v>0.9939016388325428</v>
+      </c>
+      <c r="J36">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="K36">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="L36">
+        <v>0.9946724890615262</v>
+      </c>
+      <c r="M36">
+        <v>0.9903849516046718</v>
+      </c>
+      <c r="N36">
+        <v>1.020973743947317</v>
+      </c>
+      <c r="O36">
+        <v>1.009075765608452</v>
+      </c>
+      <c r="P36">
+        <v>1.016215054335193</v>
+      </c>
+      <c r="Q36">
+        <v>0.9983529577705423</v>
+      </c>
+      <c r="R36">
+        <v>1.017801284205901</v>
+      </c>
+      <c r="S36">
+        <v>1.006686752867673</v>
+      </c>
+      <c r="T36">
+        <v>1.017801284205901</v>
+      </c>
+      <c r="U36">
+        <v>1.010258500637584</v>
+      </c>
+      <c r="V36">
+        <v>1.012401549299531</v>
+      </c>
+      <c r="W36">
+        <v>1.002546707034529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9534285128718087</v>
+      </c>
+      <c r="D37">
+        <v>0.9959883671489338</v>
+      </c>
+      <c r="E37">
+        <v>0.9588297560411738</v>
+      </c>
+      <c r="F37">
+        <v>1.032776778388947</v>
+      </c>
+      <c r="G37">
+        <v>0.9534285128718087</v>
+      </c>
+      <c r="H37">
+        <v>1.010157654634312</v>
+      </c>
+      <c r="I37">
+        <v>1.007039191971704</v>
+      </c>
+      <c r="J37">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="K37">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="L37">
+        <v>1.004677666068548</v>
+      </c>
+      <c r="M37">
+        <v>1.014636599692891</v>
+      </c>
+      <c r="N37">
+        <v>0.9588297560411595</v>
+      </c>
+      <c r="O37">
+        <v>1.032776778388947</v>
+      </c>
+      <c r="P37">
+        <v>0.9931026456303778</v>
+      </c>
+      <c r="Q37">
+        <v>1.021467216511629</v>
+      </c>
+      <c r="R37">
+        <v>0.9816783491006383</v>
+      </c>
+      <c r="S37">
+        <v>0.9987876486316892</v>
+      </c>
+      <c r="T37">
+        <v>0.9816783491006383</v>
+      </c>
+      <c r="U37">
+        <v>0.9887981754840567</v>
+      </c>
+      <c r="V37">
+        <v>0.9828044915954772</v>
+      </c>
+      <c r="W37">
+        <v>0.9971918158522879</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.144106204282514</v>
+      </c>
+      <c r="D38">
+        <v>1.003606171507223</v>
+      </c>
+      <c r="E38">
+        <v>1.190319070915759</v>
+      </c>
+      <c r="F38">
+        <v>0.9977774189626432</v>
+      </c>
+      <c r="G38">
+        <v>1.144106204282514</v>
+      </c>
+      <c r="H38">
+        <v>1.02377700235384</v>
+      </c>
+      <c r="I38">
+        <v>0.9880961094858424</v>
+      </c>
+      <c r="J38">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="K38">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="L38">
+        <v>1.007495421646769</v>
+      </c>
+      <c r="M38">
+        <v>1.046233146460518</v>
+      </c>
+      <c r="N38">
+        <v>1.19031907091576</v>
+      </c>
+      <c r="O38">
+        <v>0.9977774189626432</v>
+      </c>
+      <c r="P38">
+        <v>1.070941811622578</v>
+      </c>
+      <c r="Q38">
+        <v>1.010777210658241</v>
+      </c>
+      <c r="R38">
+        <v>1.110734231386972</v>
+      </c>
+      <c r="S38">
+        <v>1.055220208532999</v>
+      </c>
+      <c r="T38">
+        <v>1.110734231386972</v>
+      </c>
+      <c r="U38">
+        <v>1.088994924128689</v>
+      </c>
+      <c r="V38">
+        <v>1.109259753486103</v>
+      </c>
+      <c r="W38">
+        <v>1.050176318201889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.43671577580494</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.017233843058802</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.589415400589796</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.076027626424043</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.43671577580494</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.7675374369763202</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.061416121486824</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.589415400589796</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.589415400589796</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.012765353961964</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.045233505607876</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.589415400589796</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.076027626424043</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.256371701114491</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9217825317001814</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.367386267606259</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.093426946401767</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.367386267606259</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.217424059948774</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.291822328076979</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.125793132988821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7594855874874443</v>
+      </c>
+      <c r="D40">
+        <v>0.86147459076039</v>
+      </c>
+      <c r="E40">
+        <v>2.459152508464404</v>
+      </c>
+      <c r="F40">
+        <v>0.9170867328923393</v>
+      </c>
+      <c r="G40">
+        <v>0.7594855874874443</v>
+      </c>
+      <c r="H40">
+        <v>0.8827823005713574</v>
+      </c>
+      <c r="I40">
+        <v>0.9576140397648397</v>
+      </c>
+      <c r="J40">
+        <v>2.459152508464345</v>
+      </c>
+      <c r="K40">
+        <v>2.459152508464345</v>
+      </c>
+      <c r="L40">
+        <v>0.798647791262888</v>
+      </c>
+      <c r="M40">
+        <v>1.014995872078818</v>
+      </c>
+      <c r="N40">
+        <v>2.459152508464345</v>
+      </c>
+      <c r="O40">
+        <v>0.9170867328923393</v>
+      </c>
+      <c r="P40">
+        <v>0.8382861601898919</v>
+      </c>
+      <c r="Q40">
+        <v>0.8999345167318484</v>
+      </c>
+      <c r="R40">
+        <v>1.378574942948043</v>
+      </c>
+      <c r="S40">
+        <v>0.8531182069837137</v>
+      </c>
+      <c r="T40">
+        <v>1.378574942948043</v>
+      </c>
+      <c r="U40">
+        <v>1.254626782353872</v>
+      </c>
+      <c r="V40">
+        <v>1.495531927575966</v>
+      </c>
+      <c r="W40">
+        <v>1.081404927910303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.091789138797165</v>
+      </c>
+      <c r="D41">
+        <v>0.9641454969553561</v>
+      </c>
+      <c r="E41">
+        <v>1.03271510891929</v>
+      </c>
+      <c r="F41">
+        <v>1.035943629463957</v>
+      </c>
+      <c r="G41">
+        <v>1.091789138797165</v>
+      </c>
+      <c r="H41">
+        <v>1.023537967549754</v>
+      </c>
+      <c r="I41">
+        <v>1.00125028361605</v>
+      </c>
+      <c r="J41">
+        <v>1.032715108919293</v>
+      </c>
+      <c r="K41">
+        <v>1.032715108919293</v>
+      </c>
+      <c r="L41">
+        <v>1.030976635549927</v>
+      </c>
+      <c r="M41">
+        <v>1.020267029812882</v>
+      </c>
+      <c r="N41">
+        <v>1.032715108919293</v>
+      </c>
+      <c r="O41">
+        <v>1.035943629463957</v>
+      </c>
+      <c r="P41">
+        <v>1.063866384130561</v>
+      </c>
+      <c r="Q41">
+        <v>1.029740798506855</v>
+      </c>
+      <c r="R41">
+        <v>1.053482625726805</v>
+      </c>
+      <c r="S41">
+        <v>1.050423578603626</v>
+      </c>
+      <c r="T41">
+        <v>1.053482625726805</v>
+      </c>
+      <c r="U41">
+        <v>1.045996461182542</v>
+      </c>
+      <c r="V41">
+        <v>1.043340190729892</v>
+      </c>
+      <c r="W41">
+        <v>1.025078161333048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.71738929866704</v>
+      </c>
+      <c r="D42">
+        <v>0.8988783056026003</v>
+      </c>
+      <c r="E42">
+        <v>2.429422570254648</v>
+      </c>
+      <c r="F42">
+        <v>0.9333912446941899</v>
+      </c>
+      <c r="G42">
+        <v>0.71738929866704</v>
+      </c>
+      <c r="H42">
+        <v>0.9052326207262972</v>
+      </c>
+      <c r="I42">
+        <v>0.9351632279159983</v>
+      </c>
+      <c r="J42">
+        <v>2.429422570254652</v>
+      </c>
+      <c r="K42">
+        <v>2.429422570254652</v>
+      </c>
+      <c r="L42">
+        <v>0.780522286928404</v>
+      </c>
+      <c r="M42">
+        <v>0.9966239639536865</v>
+      </c>
+      <c r="N42">
+        <v>2.429422570254652</v>
+      </c>
+      <c r="O42">
+        <v>0.9333912446941899</v>
+      </c>
+      <c r="P42">
+        <v>0.825390271680615</v>
+      </c>
+      <c r="Q42">
+        <v>0.9193119327102435</v>
+      </c>
+      <c r="R42">
+        <v>1.360067704538627</v>
+      </c>
+      <c r="S42">
+        <v>0.8520043880291758</v>
+      </c>
+      <c r="T42">
+        <v>1.360067704538627</v>
+      </c>
+      <c r="U42">
+        <v>1.246358933585545</v>
+      </c>
+      <c r="V42">
+        <v>1.482971660919366</v>
+      </c>
+      <c r="W42">
+        <v>1.074577939842859</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.188435197922139</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="D3">
-        <v>1.131925712525188</v>
+        <v>0.9954901278068785</v>
       </c>
       <c r="E3">
-        <v>1.078301569264577</v>
+        <v>0.9966368502006497</v>
       </c>
       <c r="F3">
-        <v>1.188435197922139</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="G3">
-        <v>1.040362978238184</v>
+        <v>0.9986377404258929</v>
       </c>
       <c r="H3">
-        <v>1.026181523097045</v>
+        <v>0.994497883253487</v>
       </c>
       <c r="I3">
-        <v>1.188435197922191</v>
+        <v>1.003786982862443</v>
       </c>
       <c r="J3">
-        <v>1.131925712525188</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="K3">
-        <v>0.9422496913523514</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="L3">
-        <v>1.028591755786158</v>
+        <v>0.9958178111250164</v>
       </c>
       <c r="M3">
-        <v>1.0305374257722</v>
+        <v>1.005456498129638</v>
       </c>
       <c r="N3">
-        <v>1.188435197922139</v>
+        <v>0.9966368502006033</v>
       </c>
       <c r="O3">
-        <v>1.078301569264577</v>
+        <v>1.050433379329467</v>
       </c>
       <c r="P3">
-        <v>1.105113640894882</v>
+        <v>1.02453555987768</v>
       </c>
       <c r="Q3">
-        <v>1.059332273751381</v>
+        <v>1.022465631291477</v>
       </c>
       <c r="R3">
-        <v>1.132887493237301</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="S3">
-        <v>1.083530086675983</v>
+        <v>1.014523001002949</v>
       </c>
       <c r="T3">
-        <v>1.132887493237301</v>
+        <v>1.015235989985321</v>
       </c>
       <c r="U3">
-        <v>1.109756364487522</v>
+        <v>1.010051463302363</v>
       </c>
       <c r="V3">
-        <v>1.125492131174445</v>
+        <v>1.007368540682011</v>
       </c>
       <c r="W3">
-        <v>1.05832323174473</v>
+        <v>1.005094659141678</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.417205481451259</v>
+        <v>0.7594855874874443</v>
       </c>
       <c r="D4">
-        <v>1.199283816154053</v>
+        <v>0.86147459076039</v>
       </c>
       <c r="E4">
-        <v>1.118661553062093</v>
+        <v>2.459152508464404</v>
       </c>
       <c r="F4">
-        <v>1.417205481451259</v>
+        <v>0.9170867328923393</v>
       </c>
       <c r="G4">
-        <v>1.087798064723927</v>
+        <v>0.7594855874874443</v>
       </c>
       <c r="H4">
-        <v>1.057073872886221</v>
+        <v>0.8827823005713574</v>
       </c>
       <c r="I4">
-        <v>1.417205481451256</v>
+        <v>0.9576140397648397</v>
       </c>
       <c r="J4">
-        <v>1.199283816154053</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="K4">
-        <v>0.9202351166176348</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="L4">
-        <v>1.049297823514456</v>
+        <v>0.798647791262888</v>
       </c>
       <c r="M4">
-        <v>1.075320716921016</v>
+        <v>1.014995872078818</v>
       </c>
       <c r="N4">
-        <v>1.417205481451259</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="O4">
-        <v>1.118661553062093</v>
+        <v>0.9170867328923393</v>
       </c>
       <c r="P4">
-        <v>1.158972684608073</v>
+        <v>0.8382861601898919</v>
       </c>
       <c r="Q4">
-        <v>1.10322980889301</v>
+        <v>0.8999345167318484</v>
       </c>
       <c r="R4">
-        <v>1.245050283555801</v>
+        <v>1.378574942948043</v>
       </c>
       <c r="S4">
-        <v>1.135247811313358</v>
+        <v>0.8531182069837137</v>
       </c>
       <c r="T4">
-        <v>1.245050283555801</v>
+        <v>1.378574942948043</v>
       </c>
       <c r="U4">
-        <v>1.205737228847833</v>
+        <v>1.254626782353872</v>
       </c>
       <c r="V4">
-        <v>1.248030879368518</v>
+        <v>1.495531927575966</v>
       </c>
       <c r="W4">
-        <v>1.115609555666332</v>
+        <v>1.081404927910303</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.011081918575733</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="D5">
-        <v>1.465660858705745</v>
+        <v>0.8946054496707839</v>
       </c>
       <c r="E5">
-        <v>1.323719355077419</v>
+        <v>0.9569740186227577</v>
       </c>
       <c r="F5">
-        <v>2.011081918575733</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="G5">
-        <v>1.111991151632138</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="H5">
-        <v>1.223270377756779</v>
+        <v>0.8616190563367911</v>
       </c>
       <c r="I5">
-        <v>2.011081918575733</v>
+        <v>1.101282103086288</v>
       </c>
       <c r="J5">
-        <v>1.465660858705745</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="K5">
-        <v>0.9698278739823576</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="L5">
-        <v>1.347839542919922</v>
+        <v>0.8323102723649171</v>
       </c>
       <c r="M5">
-        <v>1.279794937675693</v>
+        <v>0.9166440397015987</v>
       </c>
       <c r="N5">
-        <v>2.011081918575733</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="O5">
-        <v>1.323719355077419</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="P5">
-        <v>1.394690106891582</v>
+        <v>2.015176227255959</v>
       </c>
       <c r="Q5">
-        <v>1.217855253354778</v>
+        <v>2.018180265817504</v>
       </c>
       <c r="R5">
-        <v>1.600154044119632</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="S5">
-        <v>1.300457121805101</v>
+        <v>1.630657170282903</v>
       </c>
       <c r="T5">
-        <v>1.600154044119632</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="U5">
-        <v>1.478113320997759</v>
+        <v>1.462236382367831</v>
       </c>
       <c r="V5">
-        <v>1.584707040513354</v>
+        <v>1.361183909618788</v>
       </c>
       <c r="W5">
-        <v>1.341648252040723</v>
+        <v>1.199223424286864</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.886134281613763</v>
+        <v>0.4016887792814743</v>
       </c>
       <c r="D6">
-        <v>1.958167472476742</v>
+        <v>0.4805638902266511</v>
       </c>
       <c r="E6">
-        <v>1.768223459933033</v>
+        <v>0.4462946837383568</v>
       </c>
       <c r="F6">
-        <v>2.886134281613763</v>
+        <v>16.38710467647345</v>
       </c>
       <c r="G6">
-        <v>1.618612105770097</v>
+        <v>0.4016887792814743</v>
       </c>
       <c r="H6">
-        <v>0.9450221804410572</v>
+        <v>0.4412639120490812</v>
       </c>
       <c r="I6">
-        <v>2.886134281613763</v>
+        <v>0.6606176723332552</v>
       </c>
       <c r="J6">
-        <v>1.958167472476742</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="K6">
-        <v>0.7166432862554265</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="L6">
-        <v>1.039270782724601</v>
+        <v>0.4165908795507586</v>
       </c>
       <c r="M6">
-        <v>0.9451728066937155</v>
+        <v>0.4403938253598643</v>
       </c>
       <c r="N6">
-        <v>2.886134281613763</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="O6">
-        <v>1.768223459933033</v>
+        <v>16.38710467647345</v>
       </c>
       <c r="P6">
-        <v>1.863195466204887</v>
+        <v>8.39439672787746</v>
       </c>
       <c r="Q6">
-        <v>1.693417782851565</v>
+        <v>8.414184294261263</v>
       </c>
       <c r="R6">
-        <v>2.204175071341179</v>
+        <v>5.74502937983106</v>
       </c>
       <c r="S6">
-        <v>1.781667679393291</v>
+        <v>5.743352455934667</v>
       </c>
       <c r="T6">
-        <v>2.204175071341179</v>
+        <v>5.74502937983106</v>
       </c>
       <c r="U6">
-        <v>2.057784329948409</v>
+        <v>4.419088012885565</v>
       </c>
       <c r="V6">
-        <v>2.22345432028148</v>
+        <v>3.624529347056104</v>
       </c>
       <c r="W6">
-        <v>1.484655796988555</v>
+        <v>2.459314789876599</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998886644541515</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="D7">
-        <v>0.9986333030070667</v>
+        <v>0.9554226516713367</v>
       </c>
       <c r="E7">
-        <v>1.025833678743525</v>
+        <v>1.179348721785962</v>
       </c>
       <c r="F7">
-        <v>0.998886644541515</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="G7">
-        <v>0.9998691019197307</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="H7">
-        <v>0.9994161996659707</v>
+        <v>1.030056761288366</v>
       </c>
       <c r="I7">
-        <v>0.9988866445416119</v>
+        <v>1.031933855854076</v>
       </c>
       <c r="J7">
-        <v>0.9986333030070667</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="K7">
-        <v>0.9984996777177525</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="L7">
-        <v>1.000496286563564</v>
+        <v>1.031337234310504</v>
       </c>
       <c r="M7">
-        <v>0.9990447516638313</v>
+        <v>1.042151695290369</v>
       </c>
       <c r="N7">
-        <v>0.998886644541515</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="O7">
-        <v>1.025833678743525</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="P7">
-        <v>1.012233490875296</v>
+        <v>1.078719811802107</v>
       </c>
       <c r="Q7">
-        <v>1.012851390331628</v>
+        <v>1.040888288663038</v>
       </c>
       <c r="R7">
-        <v>1.007784542097369</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="S7">
-        <v>1.008112027890108</v>
+        <v>1.062498794964193</v>
       </c>
       <c r="T7">
-        <v>1.007784542097369</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="U7">
-        <v>1.00580568205296</v>
+        <v>1.091711276669636</v>
       </c>
       <c r="V7">
-        <v>1.004421874550671</v>
+        <v>1.109238765692902</v>
       </c>
       <c r="W7">
-        <v>1.00258495547787</v>
+        <v>1.053461317975604</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9966368502006046</v>
+        <v>0.9534285128718087</v>
       </c>
       <c r="D8">
-        <v>0.9986377404258935</v>
+        <v>0.9959883671489338</v>
       </c>
       <c r="E8">
-        <v>1.050433379329462</v>
+        <v>0.9588297560411738</v>
       </c>
       <c r="F8">
-        <v>0.9966368502006046</v>
+        <v>1.032776778388947</v>
       </c>
       <c r="G8">
-        <v>0.9944978832534873</v>
+        <v>0.9534285128718087</v>
       </c>
       <c r="H8">
-        <v>1.003786982862443</v>
+        <v>1.010157654634312</v>
       </c>
       <c r="I8">
-        <v>0.996636850200651</v>
+        <v>1.007039191971704</v>
       </c>
       <c r="J8">
-        <v>0.9986377404258935</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="K8">
-        <v>0.9954901278068785</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="L8">
-        <v>1.005456498129637</v>
+        <v>1.004677666068548</v>
       </c>
       <c r="M8">
-        <v>0.9958178111250175</v>
+        <v>1.014636599692891</v>
       </c>
       <c r="N8">
-        <v>0.9966368502006046</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="O8">
-        <v>1.050433379329462</v>
+        <v>1.032776778388947</v>
       </c>
       <c r="P8">
-        <v>1.024535559877678</v>
+        <v>0.9931026456303778</v>
       </c>
       <c r="Q8">
-        <v>1.022465631291475</v>
+        <v>1.021467216511629</v>
       </c>
       <c r="R8">
-        <v>1.01523598998532</v>
+        <v>0.9816783491006383</v>
       </c>
       <c r="S8">
-        <v>1.014523001002948</v>
+        <v>0.9987876486316892</v>
       </c>
       <c r="T8">
-        <v>1.01523598998532</v>
+        <v>0.9816783491006383</v>
       </c>
       <c r="U8">
-        <v>1.010051463302362</v>
+        <v>0.9887981754840567</v>
       </c>
       <c r="V8">
-        <v>1.00736854068201</v>
+        <v>0.9828044915954772</v>
       </c>
       <c r="W8">
-        <v>1.005094659141678</v>
+        <v>0.9971918158522879</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.009392922481381</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="D9">
-        <v>0.9751242878626613</v>
+        <v>0.9202351166176346</v>
       </c>
       <c r="E9">
-        <v>1.048925201989139</v>
+        <v>1.417205481451256</v>
       </c>
       <c r="F9">
-        <v>1.009392922481381</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="G9">
-        <v>1.000918072694548</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="H9">
-        <v>0.9895954882788106</v>
+        <v>1.087798064723927</v>
       </c>
       <c r="I9">
-        <v>1.00939292248145</v>
+        <v>1.057073872886221</v>
       </c>
       <c r="J9">
-        <v>0.9751242878626613</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="K9">
-        <v>1.003890627153009</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="L9">
-        <v>1.024529772195253</v>
+        <v>1.075320716921016</v>
       </c>
       <c r="M9">
-        <v>0.9894274645205412</v>
+        <v>1.049297823514456</v>
       </c>
       <c r="N9">
-        <v>1.009392922481381</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="O9">
-        <v>1.048925201989139</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="P9">
-        <v>1.0120247449259</v>
+        <v>1.158972684608073</v>
       </c>
       <c r="Q9">
-        <v>1.024921637341843</v>
+        <v>1.10322980889301</v>
       </c>
       <c r="R9">
-        <v>1.011147470777727</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="S9">
-        <v>1.008322520848783</v>
+        <v>1.135247811313358</v>
       </c>
       <c r="T9">
-        <v>1.011147470777727</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="U9">
-        <v>1.008590121256932</v>
+        <v>1.205737228847833</v>
       </c>
       <c r="V9">
-        <v>1.008750681501822</v>
+        <v>1.248030879368518</v>
       </c>
       <c r="W9">
-        <v>1.005225479646918</v>
+        <v>1.115609555666332</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.014532584999888</v>
+        <v>0.4547764137885823</v>
       </c>
       <c r="D10">
-        <v>0.9813670868251095</v>
+        <v>0.4640612093463654</v>
       </c>
       <c r="E10">
-        <v>1.149885027876599</v>
+        <v>0.4155301028184255</v>
       </c>
       <c r="F10">
-        <v>1.014532584999888</v>
+        <v>16.72625199495856</v>
       </c>
       <c r="G10">
-        <v>1.004545793105161</v>
+        <v>0.4547764137885823</v>
       </c>
       <c r="H10">
-        <v>1.002065080224303</v>
+        <v>0.3516488083141171</v>
       </c>
       <c r="I10">
-        <v>1.014532585000059</v>
+        <v>0.6936832262941479</v>
       </c>
       <c r="J10">
-        <v>0.9813670868251095</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="K10">
-        <v>0.9904358855777051</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="L10">
-        <v>1.037479906541115</v>
+        <v>0.4158647150079044</v>
       </c>
       <c r="M10">
-        <v>1.000312551881359</v>
+        <v>0.4066071496869125</v>
       </c>
       <c r="N10">
-        <v>1.014532584999888</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="O10">
-        <v>1.149885027876599</v>
+        <v>16.72625199495856</v>
       </c>
       <c r="P10">
-        <v>1.065626057350854</v>
+        <v>8.590514204373569</v>
       </c>
       <c r="Q10">
-        <v>1.07721541049088</v>
+        <v>8.538950401636336</v>
       </c>
       <c r="R10">
-        <v>1.048594899900532</v>
+        <v>5.865519503855155</v>
       </c>
       <c r="S10">
-        <v>1.045265969268957</v>
+        <v>5.844225739020419</v>
       </c>
       <c r="T10">
-        <v>1.048594899900532</v>
+        <v>5.865519503855154</v>
       </c>
       <c r="U10">
-        <v>1.037582623201689</v>
+        <v>4.487051829969895</v>
       </c>
       <c r="V10">
-        <v>1.032972615561329</v>
+        <v>3.672747484539581</v>
       </c>
       <c r="W10">
-        <v>1.022577989628905</v>
+        <v>2.491052952526863</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9360873001749715</v>
+        <v>0.856102638878369</v>
       </c>
       <c r="D11">
-        <v>0.7900079486668178</v>
+        <v>0.8081569802656124</v>
       </c>
       <c r="E11">
-        <v>1.28973205890665</v>
+        <v>2.543157533863459</v>
       </c>
       <c r="F11">
-        <v>0.9360873001749715</v>
+        <v>0.9157459800759824</v>
       </c>
       <c r="G11">
-        <v>0.9708866643094608</v>
+        <v>0.856102638878369</v>
       </c>
       <c r="H11">
-        <v>0.926881462265564</v>
+        <v>0.8860901353887127</v>
       </c>
       <c r="I11">
-        <v>0.9360873001749701</v>
+        <v>0.9876804740171432</v>
       </c>
       <c r="J11">
-        <v>0.7900079486668178</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="K11">
-        <v>1.026218406448258</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="L11">
-        <v>1.180736999345972</v>
+        <v>0.8358439343277656</v>
       </c>
       <c r="M11">
-        <v>0.9577017005875006</v>
+        <v>1.039687148748768</v>
       </c>
       <c r="N11">
-        <v>0.9360873001749715</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="O11">
-        <v>1.28973205890665</v>
+        <v>0.9157459800759824</v>
       </c>
       <c r="P11">
-        <v>1.039870003786734</v>
+        <v>0.8859243094771757</v>
       </c>
       <c r="Q11">
-        <v>1.130309361608055</v>
+        <v>0.9009180577323476</v>
       </c>
       <c r="R11">
-        <v>1.00527576924948</v>
+        <v>1.438335384272604</v>
       </c>
       <c r="S11">
-        <v>1.016875557294309</v>
+        <v>0.8859795847810213</v>
       </c>
       <c r="T11">
-        <v>1.00527576924948</v>
+        <v>1.438335384272604</v>
       </c>
       <c r="U11">
-        <v>0.996678493014475</v>
+        <v>1.300274072051631</v>
       </c>
       <c r="V11">
-        <v>0.9845602544465744</v>
+        <v>1.548850764413997</v>
       </c>
       <c r="W11">
-        <v>1.009781567588149</v>
+        <v>1.109058103195727</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.610944634680863</v>
+        <v>0.8235526571141343</v>
       </c>
       <c r="D12">
-        <v>4.04193778799289</v>
+        <v>0.8528720133925489</v>
       </c>
       <c r="E12">
-        <v>0.0009085160065700445</v>
+        <v>0.7583563323886995</v>
       </c>
       <c r="F12">
-        <v>1.610944634680863</v>
+        <v>4.23404173613842</v>
       </c>
       <c r="G12">
-        <v>0.8677726221578201</v>
+        <v>0.8235526571141343</v>
       </c>
       <c r="H12">
-        <v>0.4969938815467501</v>
+        <v>0.7029013577772176</v>
       </c>
       <c r="I12">
-        <v>1.610944634682632</v>
+        <v>1.086964416566091</v>
       </c>
       <c r="J12">
-        <v>4.04193778799289</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="K12">
-        <v>0.5367521538377475</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="L12">
-        <v>0.9895721687651821</v>
+        <v>0.8240139847206484</v>
       </c>
       <c r="M12">
-        <v>1.145403902705155</v>
+        <v>0.7944310374899968</v>
       </c>
       <c r="N12">
-        <v>1.610944634680863</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="O12">
-        <v>0.0009085160065700445</v>
+        <v>4.23404173613842</v>
       </c>
       <c r="P12">
-        <v>2.02142315199973</v>
+        <v>2.528797196626277</v>
       </c>
       <c r="Q12">
-        <v>0.4343405690821951</v>
+        <v>2.468471546957819</v>
       </c>
       <c r="R12">
-        <v>1.884596979560108</v>
+        <v>1.938650241880348</v>
       </c>
       <c r="S12">
-        <v>1.63687297538576</v>
+        <v>1.920165250343257</v>
       </c>
       <c r="T12">
-        <v>1.884596979560108</v>
+        <v>1.938650241880348</v>
       </c>
       <c r="U12">
-        <v>1.630390890209536</v>
+        <v>1.629713020854565</v>
       </c>
       <c r="V12">
-        <v>1.626501639103801</v>
+        <v>1.45544168316135</v>
       </c>
       <c r="W12">
-        <v>1.211285708461622</v>
+        <v>1.259641691948443</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.0005238517142313297</v>
+        <v>1.342126651512301</v>
       </c>
       <c r="D13">
-        <v>0.02987992942547599</v>
+        <v>0.9921939326983391</v>
       </c>
       <c r="E13">
-        <v>0.72101817948155</v>
+        <v>1.013746537638943</v>
       </c>
       <c r="F13">
-        <v>0.0005238517142313297</v>
+        <v>0.931549260515908</v>
       </c>
       <c r="G13">
-        <v>1.611845770703254</v>
+        <v>1.342126651512301</v>
       </c>
       <c r="H13">
-        <v>1.000328412638958</v>
+        <v>0.843683803999525</v>
       </c>
       <c r="I13">
-        <v>0.0005238517142313297</v>
+        <v>1.000283484984592</v>
       </c>
       <c r="J13">
-        <v>0.02987992942547599</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="K13">
-        <v>0.7585353448858008</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="L13">
-        <v>1.375682220263042</v>
+        <v>1.130758471614477</v>
       </c>
       <c r="M13">
-        <v>0.9829323283851467</v>
+        <v>0.9698046700886789</v>
       </c>
       <c r="N13">
-        <v>0.0005238517142313297</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="O13">
-        <v>0.72101817948155</v>
+        <v>0.931549260515908</v>
       </c>
       <c r="P13">
-        <v>0.375449054453513</v>
+        <v>1.136837956014105</v>
       </c>
       <c r="Q13">
-        <v>1.166431975092402</v>
+        <v>0.8876165322577165</v>
       </c>
       <c r="R13">
-        <v>0.2504739868737524</v>
+        <v>1.095807483222373</v>
       </c>
       <c r="S13">
-        <v>0.7875812932034266</v>
+        <v>1.039119905342578</v>
       </c>
       <c r="T13">
-        <v>0.2504739868737524</v>
+        <v>1.095807483222373</v>
       </c>
       <c r="U13">
-        <v>0.5908169328311278</v>
+        <v>1.032776563416661</v>
       </c>
       <c r="V13">
-        <v>0.4727583166077485</v>
+        <v>1.028970558261111</v>
       </c>
       <c r="W13">
-        <v>0.8100932546871824</v>
+        <v>1.028018351631591</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0009504485273303545</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D14">
-        <v>0.1345042796491598</v>
+        <v>0.0008257495699999993</v>
       </c>
       <c r="E14">
-        <v>0.005452140686010068</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="F14">
-        <v>0.0009504485273303545</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="G14">
-        <v>0.6423559346484288</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="H14">
-        <v>0.04295996218495598</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="I14">
-        <v>0.0009504485273454656</v>
+        <v>0.2240137299999997</v>
       </c>
       <c r="J14">
-        <v>0.1345042796491598</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="K14">
-        <v>1.372465142416203</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="L14">
-        <v>2.108280647645759</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="M14">
-        <v>1.923300204130495</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="N14">
-        <v>0.0009504485273303545</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="O14">
-        <v>0.005452140686010068</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="P14">
-        <v>0.06997821016758494</v>
+        <v>15.19253647089998</v>
       </c>
       <c r="Q14">
-        <v>0.3239040376672194</v>
+        <v>15.19168282339998</v>
       </c>
       <c r="R14">
-        <v>0.04696895628750009</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="S14">
-        <v>0.2607707849945329</v>
+        <v>10.12882086286665</v>
       </c>
       <c r="T14">
-        <v>0.04696895628750009</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="U14">
-        <v>0.1958157008777323</v>
+        <v>7.59591760442499</v>
       </c>
       <c r="V14">
-        <v>0.1568426504076519</v>
+        <v>6.076175649359992</v>
       </c>
       <c r="W14">
-        <v>0.7787835949860427</v>
+        <v>3.825279316146245</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.495813502275312</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="D15">
-        <v>3.764445332348539</v>
+        <v>-0.0020116523</v>
       </c>
       <c r="E15">
-        <v>1.715526862205314</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="F15">
-        <v>1.495813502275312</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="G15">
-        <v>0.4008822325947025</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="H15">
-        <v>1.651418092919315</v>
+        <v>0.9379539099999999</v>
       </c>
       <c r="I15">
-        <v>1.495813502275312</v>
+        <v>-0.0031867442</v>
       </c>
       <c r="J15">
-        <v>3.764445332348539</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="K15">
-        <v>0.8892578769328345</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="L15">
-        <v>0.02098859333633427</v>
+        <v>0.00023330841</v>
       </c>
       <c r="M15">
-        <v>1.393726803578441</v>
+        <v>15.189881</v>
       </c>
       <c r="N15">
-        <v>1.495813502275312</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="O15">
-        <v>1.715526862205314</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="P15">
-        <v>2.739986097276927</v>
+        <v>-0.00383106035</v>
       </c>
       <c r="Q15">
-        <v>1.058204547400008</v>
+        <v>0.4683616951</v>
       </c>
       <c r="R15">
-        <v>2.325261898943055</v>
+        <v>0.0001244103000000001</v>
       </c>
       <c r="S15">
-        <v>1.960284809049519</v>
+        <v>0.3100972631</v>
       </c>
       <c r="T15">
-        <v>2.325261898943055</v>
+        <v>0.0001244103000000002</v>
       </c>
       <c r="U15">
-        <v>1.844166982355967</v>
+        <v>0.234581785225</v>
       </c>
       <c r="V15">
-        <v>1.774496286339836</v>
+        <v>0.1892724985</v>
       </c>
       <c r="W15">
-        <v>1.416507412023849</v>
+        <v>2.01540538160125</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.020973743947315</v>
+        <v>0.0062360679</v>
       </c>
       <c r="D16">
-        <v>1.023354343061932</v>
+        <v>0.0091395608</v>
       </c>
       <c r="E16">
-        <v>1.009075765608452</v>
+        <v>45.564748</v>
       </c>
       <c r="F16">
-        <v>1.020973743947315</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="G16">
-        <v>0.9876301499326322</v>
+        <v>0.0062360679</v>
       </c>
       <c r="H16">
-        <v>0.9939016388325416</v>
+        <v>-0.0070311687</v>
       </c>
       <c r="I16">
-        <v>1.020973743947415</v>
+        <v>-0.0026279171</v>
       </c>
       <c r="J16">
-        <v>1.023354343061932</v>
+        <v>45.564748</v>
       </c>
       <c r="K16">
-        <v>1.00038057422715</v>
+        <v>45.564748</v>
       </c>
       <c r="L16">
-        <v>0.9903849516046722</v>
+        <v>0.00010522111</v>
       </c>
       <c r="M16">
-        <v>0.9946724890615252</v>
+        <v>0.0080378142</v>
       </c>
       <c r="N16">
-        <v>1.020973743947315</v>
+        <v>45.564748</v>
       </c>
       <c r="O16">
-        <v>1.009075765608452</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="P16">
-        <v>1.016215054335192</v>
+        <v>0.00172194855</v>
       </c>
       <c r="Q16">
-        <v>0.9983529577705421</v>
+        <v>-0.00491166975</v>
       </c>
       <c r="R16">
-        <v>1.0178012842059</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="S16">
-        <v>1.006686752867672</v>
+        <v>-0.0011957572</v>
       </c>
       <c r="T16">
-        <v>1.0178012842059</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="U16">
-        <v>1.010258500637583</v>
+        <v>11.3902901821</v>
       </c>
       <c r="V16">
-        <v>1.01240154929953</v>
+        <v>18.22518174568</v>
       </c>
       <c r="W16">
-        <v>1.002546707034528</v>
+        <v>5.69697692592625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9588297560411586</v>
+        <v>0.0064915301</v>
       </c>
       <c r="D17">
-        <v>0.9534285128718081</v>
+        <v>1.4292654</v>
       </c>
       <c r="E17">
-        <v>1.032776778388946</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="F17">
-        <v>0.9588297560411586</v>
+        <v>0.017037886</v>
       </c>
       <c r="G17">
-        <v>1.010157654634312</v>
+        <v>0.0064915301</v>
       </c>
       <c r="H17">
-        <v>1.007039191971703</v>
+        <v>0.032757385</v>
       </c>
       <c r="I17">
-        <v>0.9588297560411729</v>
+        <v>0.023386404</v>
       </c>
       <c r="J17">
-        <v>0.9534285128718081</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="K17">
-        <v>0.9959883671489342</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="L17">
-        <v>1.014636599692892</v>
+        <v>0.0027305869</v>
       </c>
       <c r="M17">
-        <v>1.004677666068547</v>
+        <v>0.012057309</v>
       </c>
       <c r="N17">
-        <v>0.9588297560411586</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="O17">
-        <v>1.032776778388946</v>
+        <v>0.017037886</v>
       </c>
       <c r="P17">
-        <v>0.9931026456303772</v>
+        <v>0.01176470805</v>
       </c>
       <c r="Q17">
-        <v>1.021467216511629</v>
+        <v>0.0248976355</v>
       </c>
       <c r="R17">
-        <v>0.9816783491006377</v>
+        <v>0.008172408076666667</v>
       </c>
       <c r="S17">
-        <v>0.9987876486316889</v>
+        <v>0.01876226703333333</v>
       </c>
       <c r="T17">
-        <v>0.9816783491006377</v>
+        <v>0.008172408076666667</v>
       </c>
       <c r="U17">
-        <v>0.9887981754840562</v>
+        <v>0.0143186523075</v>
       </c>
       <c r="V17">
-        <v>0.9828044915954767</v>
+        <v>0.011652483472</v>
       </c>
       <c r="W17">
-        <v>0.9971918158522877</v>
+        <v>0.19058928864125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.190319070915757</v>
+        <v>3.546862464858905</v>
       </c>
       <c r="D18">
-        <v>1.144106204282512</v>
+        <v>0.0009646458843287674</v>
       </c>
       <c r="E18">
-        <v>0.9977774189626428</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="F18">
-        <v>1.190319070915757</v>
+        <v>1.774527139705205</v>
       </c>
       <c r="G18">
-        <v>1.023777002353839</v>
+        <v>3.546862464858905</v>
       </c>
       <c r="H18">
-        <v>0.9880961094858424</v>
+        <v>1.786575892026302</v>
       </c>
       <c r="I18">
-        <v>1.190319070915756</v>
+        <v>1.773207853897534</v>
       </c>
       <c r="J18">
-        <v>1.144106204282512</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="K18">
-        <v>1.003606171507222</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="L18">
-        <v>1.046233146460518</v>
+        <v>1.775090965915205</v>
       </c>
       <c r="M18">
-        <v>1.007495421646768</v>
+        <v>1.983429950333862</v>
       </c>
       <c r="N18">
-        <v>1.190319070915757</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="O18">
-        <v>0.9977774189626428</v>
+        <v>1.774527139705205</v>
       </c>
       <c r="P18">
-        <v>1.070941811622577</v>
+        <v>2.660694802282055</v>
       </c>
       <c r="Q18">
-        <v>1.010777210658241</v>
+        <v>1.780551515865754</v>
       </c>
       <c r="R18">
-        <v>1.11073423138697</v>
+        <v>3.547001498571599</v>
       </c>
       <c r="S18">
-        <v>1.055220208532998</v>
+        <v>2.369321832196804</v>
       </c>
       <c r="T18">
-        <v>1.11073423138697</v>
+        <v>3.547001498571599</v>
       </c>
       <c r="U18">
-        <v>1.088994924128687</v>
+        <v>3.106895096935275</v>
       </c>
       <c r="V18">
-        <v>1.109259753486101</v>
+        <v>3.549439055778357</v>
       </c>
       <c r="W18">
-        <v>1.050176318201888</v>
+        <v>2.245034225471504</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.589415400589796</v>
+        <v>0.001263754283263158</v>
       </c>
       <c r="D19">
-        <v>1.43671577580494</v>
+        <v>1.783217642024737</v>
       </c>
       <c r="E19">
-        <v>1.076027626424043</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="F19">
-        <v>1.589415400589796</v>
+        <v>2.504721636714681</v>
       </c>
       <c r="G19">
-        <v>0.7675374369763202</v>
+        <v>0.001263754283263158</v>
       </c>
       <c r="H19">
-        <v>1.061416121486824</v>
+        <v>1.708747056802105</v>
       </c>
       <c r="I19">
-        <v>1.589415400589796</v>
+        <v>0.1406515773943684</v>
       </c>
       <c r="J19">
-        <v>1.43671577580494</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="K19">
-        <v>1.017233843058802</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="L19">
-        <v>1.045233505607876</v>
+        <v>0.1773699181505263</v>
       </c>
       <c r="M19">
-        <v>1.012765353961964</v>
+        <v>0.2668171258199999</v>
       </c>
       <c r="N19">
-        <v>1.589415400589796</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="O19">
-        <v>1.076027626424043</v>
+        <v>2.504721636714681</v>
       </c>
       <c r="P19">
-        <v>1.256371701114491</v>
+        <v>1.252992695498972</v>
       </c>
       <c r="Q19">
-        <v>0.9217825317001815</v>
+        <v>2.106734346758393</v>
       </c>
       <c r="R19">
-        <v>1.36738626760626</v>
+        <v>2.086256462518332</v>
       </c>
       <c r="S19">
-        <v>1.093426946401768</v>
+        <v>1.40491081593335</v>
       </c>
       <c r="T19">
-        <v>1.36738626760626</v>
+        <v>2.086256462518332</v>
       </c>
       <c r="U19">
-        <v>1.217424059948775</v>
+        <v>1.991879111089276</v>
       </c>
       <c r="V19">
-        <v>1.291822328076979</v>
+        <v>2.344060088182831</v>
       </c>
       <c r="W19">
-        <v>1.125793132988821</v>
+        <v>1.291946588468342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="D20">
+        <v>0.00958037511473684</v>
+      </c>
+      <c r="E20">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="F20">
+        <v>5.909017684447366</v>
+      </c>
+      <c r="G20">
+        <v>-0.0012979378</v>
+      </c>
+      <c r="H20">
+        <v>0.1838737728705263</v>
+      </c>
+      <c r="I20">
+        <v>1.031983523042105</v>
+      </c>
+      <c r="J20">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="K20">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="L20">
+        <v>-0.0005682035325263156</v>
+      </c>
+      <c r="M20">
+        <v>2.953486430137894</v>
+      </c>
+      <c r="N20">
+        <v>0.001325673063157895</v>
+      </c>
+      <c r="O20">
+        <v>5.909017684447366</v>
+      </c>
+      <c r="P20">
+        <v>2.953859873323683</v>
+      </c>
+      <c r="Q20">
+        <v>3.046445728658946</v>
+      </c>
+      <c r="R20">
+        <v>1.969681806570174</v>
+      </c>
+      <c r="S20">
+        <v>2.03053117317263</v>
+      </c>
+      <c r="T20">
+        <v>1.969681806570175</v>
+      </c>
+      <c r="U20">
+        <v>1.523229798145262</v>
+      </c>
+      <c r="V20">
+        <v>1.218848973128841</v>
+      </c>
+      <c r="W20">
+        <v>1.260925164667908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1345042796491597</v>
+      </c>
+      <c r="D21">
+        <v>1.372465142416202</v>
+      </c>
+      <c r="E21">
+        <v>0.0009504485273454639</v>
+      </c>
+      <c r="F21">
+        <v>0.005452140686010064</v>
+      </c>
+      <c r="G21">
+        <v>0.1345042796491597</v>
+      </c>
+      <c r="H21">
+        <v>0.6423559346484294</v>
+      </c>
+      <c r="I21">
+        <v>0.04295996218495594</v>
+      </c>
+      <c r="J21">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="K21">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="L21">
+        <v>1.923300204130495</v>
+      </c>
+      <c r="M21">
+        <v>2.10828064764576</v>
+      </c>
+      <c r="N21">
+        <v>0.0009504485273303528</v>
+      </c>
+      <c r="O21">
+        <v>0.005452140686010064</v>
+      </c>
+      <c r="P21">
+        <v>0.06997821016758488</v>
+      </c>
+      <c r="Q21">
+        <v>0.3239040376672198</v>
+      </c>
+      <c r="R21">
+        <v>0.04696895628750004</v>
+      </c>
+      <c r="S21">
+        <v>0.260770784994533</v>
+      </c>
+      <c r="T21">
+        <v>0.04696895628750004</v>
+      </c>
+      <c r="U21">
+        <v>0.1958157008777324</v>
+      </c>
+      <c r="V21">
+        <v>0.156842650407652</v>
+      </c>
+      <c r="W21">
+        <v>0.7787835949860429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3.764445332348538</v>
+      </c>
+      <c r="D22">
+        <v>0.8892578769328345</v>
+      </c>
+      <c r="E22">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="F22">
+        <v>1.715526862205314</v>
+      </c>
+      <c r="G22">
+        <v>3.764445332348538</v>
+      </c>
+      <c r="H22">
+        <v>0.4008822325947026</v>
+      </c>
+      <c r="I22">
+        <v>1.651418092919315</v>
+      </c>
+      <c r="J22">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="K22">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="L22">
+        <v>1.393726803578442</v>
+      </c>
+      <c r="M22">
+        <v>0.02098859333633427</v>
+      </c>
+      <c r="N22">
+        <v>1.495813502275313</v>
+      </c>
+      <c r="O22">
+        <v>1.715526862205314</v>
+      </c>
+      <c r="P22">
+        <v>2.739986097276926</v>
+      </c>
+      <c r="Q22">
+        <v>1.058204547400008</v>
+      </c>
+      <c r="R22">
+        <v>2.325261898943055</v>
+      </c>
+      <c r="S22">
+        <v>1.960284809049518</v>
+      </c>
+      <c r="T22">
+        <v>2.325261898943055</v>
+      </c>
+      <c r="U22">
+        <v>1.844166982355967</v>
+      </c>
+      <c r="V22">
+        <v>1.774496286339836</v>
+      </c>
+      <c r="W22">
+        <v>1.416507412023849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="D23">
+        <v>0.5367521538377465</v>
+      </c>
+      <c r="E23">
+        <v>1.610944634682633</v>
+      </c>
+      <c r="F23">
+        <v>0.000908516006570043</v>
+      </c>
+      <c r="G23">
+        <v>4.041937787992891</v>
+      </c>
+      <c r="H23">
+        <v>0.8677726221578203</v>
+      </c>
+      <c r="I23">
+        <v>0.4969938815467497</v>
+      </c>
+      <c r="J23">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="K23">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="L23">
+        <v>1.145403902705154</v>
+      </c>
+      <c r="M23">
+        <v>0.9895721687651821</v>
+      </c>
+      <c r="N23">
+        <v>1.610944634680863</v>
+      </c>
+      <c r="O23">
+        <v>0.000908516006570043</v>
+      </c>
+      <c r="P23">
+        <v>2.021423151999731</v>
+      </c>
+      <c r="Q23">
+        <v>0.4343405690821951</v>
+      </c>
+      <c r="R23">
+        <v>1.884596979560108</v>
+      </c>
+      <c r="S23">
+        <v>1.63687297538576</v>
+      </c>
+      <c r="T23">
+        <v>1.884596979560108</v>
+      </c>
+      <c r="U23">
+        <v>1.630390890209536</v>
+      </c>
+      <c r="V23">
+        <v>1.626501639103801</v>
+      </c>
+      <c r="W23">
+        <v>1.211285708461622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.02987992942547596</v>
+      </c>
+      <c r="D24">
+        <v>0.7585353448858002</v>
+      </c>
+      <c r="E24">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="F24">
+        <v>0.7210181794815498</v>
+      </c>
+      <c r="G24">
+        <v>0.02987992942547596</v>
+      </c>
+      <c r="H24">
+        <v>1.611845770703254</v>
+      </c>
+      <c r="I24">
+        <v>1.000328412638958</v>
+      </c>
+      <c r="J24">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="K24">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="L24">
+        <v>0.9829323283851462</v>
+      </c>
+      <c r="M24">
+        <v>1.375682220263042</v>
+      </c>
+      <c r="N24">
+        <v>0.0005238517142313264</v>
+      </c>
+      <c r="O24">
+        <v>0.7210181794815498</v>
+      </c>
+      <c r="P24">
+        <v>0.3754490544535128</v>
+      </c>
+      <c r="Q24">
+        <v>1.166431975092402</v>
+      </c>
+      <c r="R24">
+        <v>0.2504739868737523</v>
+      </c>
+      <c r="S24">
+        <v>0.7875812932034266</v>
+      </c>
+      <c r="T24">
+        <v>0.2504739868737524</v>
+      </c>
+      <c r="U24">
+        <v>0.5908169328311279</v>
+      </c>
+      <c r="V24">
+        <v>0.4727583166077486</v>
+      </c>
+      <c r="W24">
+        <v>0.8100932546871822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0003631998126757124</v>
+      </c>
+      <c r="D25">
+        <v>0.3175454731481536</v>
+      </c>
+      <c r="E25">
+        <v>0.9491087792212194</v>
+      </c>
+      <c r="F25">
+        <v>0.08770336085313092</v>
+      </c>
+      <c r="G25">
+        <v>0.0003631998126757124</v>
+      </c>
+      <c r="H25">
+        <v>2.120524075867421</v>
+      </c>
+      <c r="I25">
+        <v>1.238952681821663</v>
+      </c>
+      <c r="J25">
+        <v>0.9491087792212194</v>
+      </c>
+      <c r="K25">
+        <v>0.9491087792212194</v>
+      </c>
+      <c r="L25">
+        <v>0.3162050623354329</v>
+      </c>
+      <c r="M25">
+        <v>0.931334486166965</v>
+      </c>
+      <c r="N25">
+        <v>0.9491087792212194</v>
+      </c>
+      <c r="O25">
+        <v>0.08770336085313092</v>
+      </c>
+      <c r="P25">
+        <v>0.04403328033290332</v>
+      </c>
+      <c r="Q25">
+        <v>1.104113718360276</v>
+      </c>
+      <c r="R25">
+        <v>0.3457251132956753</v>
+      </c>
+      <c r="S25">
+        <v>0.7361968788444093</v>
+      </c>
+      <c r="T25">
+        <v>0.3457251132956753</v>
+      </c>
+      <c r="U25">
+        <v>0.7894248539386118</v>
+      </c>
+      <c r="V25">
+        <v>0.8213616389951334</v>
+      </c>
+      <c r="W25">
+        <v>0.7452171399033327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.31723637027121</v>
+      </c>
+      <c r="D26">
+        <v>1.398345407835505</v>
+      </c>
+      <c r="E26">
+        <v>1.477346880145304</v>
+      </c>
+      <c r="F26">
+        <v>2.21242725823406</v>
+      </c>
+      <c r="G26">
+        <v>0.31723637027121</v>
+      </c>
+      <c r="H26">
+        <v>0.0283344714097904</v>
+      </c>
+      <c r="I26">
+        <v>1.15966699110789</v>
+      </c>
+      <c r="J26">
+        <v>1.477346880145304</v>
+      </c>
+      <c r="K26">
+        <v>1.477346880145304</v>
+      </c>
+      <c r="L26">
+        <v>0.5588649040796136</v>
+      </c>
+      <c r="M26">
+        <v>0.4868358393874022</v>
+      </c>
+      <c r="N26">
+        <v>1.477346880145304</v>
+      </c>
+      <c r="O26">
+        <v>2.21242725823406</v>
+      </c>
+      <c r="P26">
+        <v>1.264831814252635</v>
+      </c>
+      <c r="Q26">
+        <v>1.120380864821925</v>
+      </c>
+      <c r="R26">
+        <v>1.335670169550191</v>
+      </c>
+      <c r="S26">
+        <v>0.8526660333050201</v>
+      </c>
+      <c r="T26">
+        <v>1.335670169550191</v>
+      </c>
+      <c r="U26">
+        <v>1.008836245015091</v>
+      </c>
+      <c r="V26">
+        <v>1.102538372041133</v>
+      </c>
+      <c r="W26">
+        <v>0.9548822653088468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.0217794330504278</v>
+      </c>
+      <c r="D27">
+        <v>0.3477536238716386</v>
+      </c>
+      <c r="E27">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="F27">
+        <v>2.003839738309507</v>
+      </c>
+      <c r="G27">
+        <v>0.0217794330504278</v>
+      </c>
+      <c r="H27">
+        <v>1.931405793959247</v>
+      </c>
+      <c r="I27">
+        <v>0.4300329722445953</v>
+      </c>
+      <c r="J27">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="K27">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="L27">
+        <v>0.664103623691195</v>
+      </c>
+      <c r="M27">
+        <v>1.941349205351302</v>
+      </c>
+      <c r="N27">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="O27">
+        <v>2.003839738309507</v>
+      </c>
+      <c r="P27">
+        <v>1.012809585679968</v>
+      </c>
+      <c r="Q27">
+        <v>1.967622766134377</v>
+      </c>
+      <c r="R27">
+        <v>1.103188308982882</v>
+      </c>
+      <c r="S27">
+        <v>1.319008321773061</v>
+      </c>
+      <c r="T27">
+        <v>1.103188308982882</v>
+      </c>
+      <c r="U27">
+        <v>1.310242680226973</v>
+      </c>
+      <c r="V27">
+        <v>1.304983295299321</v>
+      </c>
+      <c r="W27">
+        <v>1.078026268258328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.196980096766146</v>
+      </c>
+      <c r="D28">
+        <v>1.443610855558693</v>
+      </c>
+      <c r="E28">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="F28">
+        <v>2.445355303913376</v>
+      </c>
+      <c r="G28">
+        <v>1.196980096766146</v>
+      </c>
+      <c r="H28">
+        <v>0.2579300361015015</v>
+      </c>
+      <c r="I28">
+        <v>0.7333538392836862</v>
+      </c>
+      <c r="J28">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="K28">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="L28">
+        <v>0.8922633181862669</v>
+      </c>
+      <c r="M28">
+        <v>2.582646428776857</v>
+      </c>
+      <c r="N28">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="O28">
+        <v>2.445355303913376</v>
+      </c>
+      <c r="P28">
+        <v>1.821167700339761</v>
+      </c>
+      <c r="Q28">
+        <v>1.351642670007439</v>
+      </c>
+      <c r="R28">
+        <v>1.879862286209133</v>
+      </c>
+      <c r="S28">
+        <v>1.300088478927008</v>
+      </c>
+      <c r="T28">
+        <v>1.879862286209133</v>
+      </c>
+      <c r="U28">
+        <v>1.474379223682225</v>
+      </c>
+      <c r="V28">
+        <v>1.578953670535355</v>
+      </c>
+      <c r="W28">
+        <v>1.4436739170668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.03131079464037278</v>
+      </c>
+      <c r="D29">
+        <v>2.85090879781913</v>
+      </c>
+      <c r="E29">
+        <v>0.02168026804357363</v>
+      </c>
+      <c r="F29">
+        <v>0.002345090741945556</v>
+      </c>
+      <c r="G29">
+        <v>0.03131079464037278</v>
+      </c>
+      <c r="H29">
+        <v>0.3544383514074393</v>
+      </c>
+      <c r="I29">
+        <v>0.002138564498970776</v>
+      </c>
+      <c r="J29">
+        <v>0.02168026804357363</v>
+      </c>
+      <c r="K29">
+        <v>0.02168026804357363</v>
+      </c>
+      <c r="L29">
+        <v>0.3108311494832243</v>
+      </c>
+      <c r="M29">
+        <v>5.540280154904054</v>
+      </c>
+      <c r="N29">
+        <v>0.02168026804357363</v>
+      </c>
+      <c r="O29">
+        <v>0.002345090741945556</v>
+      </c>
+      <c r="P29">
+        <v>0.01682794269115917</v>
+      </c>
+      <c r="Q29">
+        <v>0.1783917210746924</v>
+      </c>
+      <c r="R29">
+        <v>0.01844538447529732</v>
+      </c>
+      <c r="S29">
+        <v>0.1293647455965859</v>
+      </c>
+      <c r="T29">
+        <v>0.01844538447529732</v>
+      </c>
+      <c r="U29">
+        <v>0.1024436262083328</v>
+      </c>
+      <c r="V29">
+        <v>0.08629095457538098</v>
+      </c>
+      <c r="W29">
+        <v>1.139241646442339</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7594855874874443</v>
+        <v>0.8337253803315133</v>
       </c>
       <c r="D4">
-        <v>0.86147459076039</v>
+        <v>0.9558137102140735</v>
       </c>
       <c r="E4">
-        <v>2.459152508464404</v>
+        <v>0.8784717762277323</v>
       </c>
       <c r="F4">
-        <v>0.9170867328923393</v>
+        <v>2.471020677928275</v>
       </c>
       <c r="G4">
-        <v>0.7594855874874443</v>
+        <v>0.8337253803315133</v>
       </c>
       <c r="H4">
-        <v>0.8827823005713574</v>
+        <v>0.8533298139341446</v>
       </c>
       <c r="I4">
-        <v>0.9576140397648397</v>
+        <v>1.115667275503263</v>
       </c>
       <c r="J4">
-        <v>2.459152508464345</v>
+        <v>0.878471776227579</v>
       </c>
       <c r="K4">
-        <v>2.459152508464345</v>
+        <v>0.878471776227579</v>
       </c>
       <c r="L4">
-        <v>0.798647791262888</v>
+        <v>0.8414321326223833</v>
       </c>
       <c r="M4">
-        <v>1.014995872078818</v>
+        <v>0.8709370640830574</v>
       </c>
       <c r="N4">
-        <v>2.459152508464345</v>
+        <v>0.878471776227579</v>
       </c>
       <c r="O4">
-        <v>0.9170867328923393</v>
+        <v>2.471020677928275</v>
       </c>
       <c r="P4">
-        <v>0.8382861601898919</v>
+        <v>1.652373029129894</v>
       </c>
       <c r="Q4">
-        <v>0.8999345167318484</v>
+        <v>1.66217524593121</v>
       </c>
       <c r="R4">
-        <v>1.378574942948043</v>
+        <v>1.394405944829122</v>
       </c>
       <c r="S4">
-        <v>0.8531182069837137</v>
+        <v>1.386025290731311</v>
       </c>
       <c r="T4">
-        <v>1.378574942948043</v>
+        <v>1.394405944829122</v>
       </c>
       <c r="U4">
-        <v>1.254626782353872</v>
+        <v>1.259136912105378</v>
       </c>
       <c r="V4">
-        <v>1.495531927575966</v>
+        <v>1.183003884929818</v>
       </c>
       <c r="W4">
-        <v>1.081404927910303</v>
+        <v>1.102549728855536</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8556109792137022</v>
+        <v>-0.001352288825052127</v>
       </c>
       <c r="D5">
-        <v>0.8946054496707839</v>
+        <v>0.01029846540936226</v>
       </c>
       <c r="E5">
-        <v>0.9569740186227577</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="F5">
-        <v>3.174741475298216</v>
+        <v>4.49693082844336</v>
       </c>
       <c r="G5">
-        <v>0.8556109792137022</v>
+        <v>-0.001352288825052127</v>
       </c>
       <c r="H5">
-        <v>0.8616190563367911</v>
+        <v>0.1797443978197705</v>
       </c>
       <c r="I5">
-        <v>1.101282103086288</v>
+        <v>1.096825101568488</v>
       </c>
       <c r="J5">
-        <v>0.9569740186226151</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="K5">
-        <v>0.9569740186226151</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="L5">
-        <v>0.8323102723649171</v>
+        <v>-0.0003898151431831477</v>
       </c>
       <c r="M5">
-        <v>0.9166440397015987</v>
+        <v>2.886504778798488</v>
       </c>
       <c r="N5">
-        <v>0.9569740186226151</v>
+        <v>0.001260769884377864</v>
       </c>
       <c r="O5">
-        <v>3.174741475298216</v>
+        <v>4.49693082844336</v>
       </c>
       <c r="P5">
-        <v>2.015176227255959</v>
+        <v>2.247789269809154</v>
       </c>
       <c r="Q5">
-        <v>2.018180265817504</v>
+        <v>2.338337613131565</v>
       </c>
       <c r="R5">
-        <v>1.662442157711511</v>
+        <v>1.498946436500895</v>
       </c>
       <c r="S5">
-        <v>1.630657170282903</v>
+        <v>1.558440979146026</v>
       </c>
       <c r="T5">
-        <v>1.662442157711511</v>
+        <v>1.498946436500895</v>
       </c>
       <c r="U5">
-        <v>1.462236382367831</v>
+        <v>1.169145926830614</v>
       </c>
       <c r="V5">
-        <v>1.361183909618788</v>
+        <v>0.9355688954413669</v>
       </c>
       <c r="W5">
-        <v>1.199223424286864</v>
+        <v>1.083727779744451</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4016887792814743</v>
+        <v>0.7594855874874443</v>
       </c>
       <c r="D6">
-        <v>0.4805638902266511</v>
+        <v>0.86147459076039</v>
       </c>
       <c r="E6">
-        <v>0.4462946837383568</v>
+        <v>2.459152508464404</v>
       </c>
       <c r="F6">
-        <v>16.38710467647345</v>
+        <v>0.9170867328923393</v>
       </c>
       <c r="G6">
-        <v>0.4016887792814743</v>
+        <v>0.7594855874874443</v>
       </c>
       <c r="H6">
-        <v>0.4412639120490812</v>
+        <v>0.8827823005713574</v>
       </c>
       <c r="I6">
-        <v>0.6606176723332552</v>
+        <v>0.9576140397648397</v>
       </c>
       <c r="J6">
-        <v>0.4462946837382583</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="K6">
-        <v>0.4462946837382583</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="L6">
-        <v>0.4165908795507586</v>
+        <v>0.798647791262888</v>
       </c>
       <c r="M6">
-        <v>0.4403938253598643</v>
+        <v>1.014995872078818</v>
       </c>
       <c r="N6">
-        <v>0.4462946837382583</v>
+        <v>2.459152508464345</v>
       </c>
       <c r="O6">
-        <v>16.38710467647345</v>
+        <v>0.9170867328923393</v>
       </c>
       <c r="P6">
-        <v>8.39439672787746</v>
+        <v>0.8382861601898919</v>
       </c>
       <c r="Q6">
-        <v>8.414184294261263</v>
+        <v>0.8999345167318484</v>
       </c>
       <c r="R6">
-        <v>5.74502937983106</v>
+        <v>1.378574942948043</v>
       </c>
       <c r="S6">
-        <v>5.743352455934667</v>
+        <v>0.8531182069837137</v>
       </c>
       <c r="T6">
-        <v>5.74502937983106</v>
+        <v>1.378574942948043</v>
       </c>
       <c r="U6">
-        <v>4.419088012885565</v>
+        <v>1.254626782353872</v>
       </c>
       <c r="V6">
-        <v>3.624529347056104</v>
+        <v>1.495531927575966</v>
       </c>
       <c r="W6">
-        <v>2.459314789876599</v>
+        <v>1.081404927910303</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.105719807566504</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="D7">
-        <v>0.9554226516713367</v>
+        <v>0.8946054496707839</v>
       </c>
       <c r="E7">
-        <v>1.179348721785962</v>
+        <v>0.9569740186227577</v>
       </c>
       <c r="F7">
-        <v>1.051719816037709</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="G7">
-        <v>1.105719807566504</v>
+        <v>0.8556109792137022</v>
       </c>
       <c r="H7">
-        <v>1.030056761288366</v>
+        <v>0.8616190563367911</v>
       </c>
       <c r="I7">
-        <v>1.031933855854076</v>
+        <v>1.101282103086288</v>
       </c>
       <c r="J7">
-        <v>1.179348721785964</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="K7">
-        <v>1.179348721785964</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="L7">
-        <v>1.031337234310504</v>
+        <v>0.8323102723649171</v>
       </c>
       <c r="M7">
-        <v>1.042151695290369</v>
+        <v>0.9166440397015987</v>
       </c>
       <c r="N7">
-        <v>1.179348721785964</v>
+        <v>0.9569740186226151</v>
       </c>
       <c r="O7">
-        <v>1.051719816037709</v>
+        <v>3.174741475298216</v>
       </c>
       <c r="P7">
-        <v>1.078719811802107</v>
+        <v>2.015176227255959</v>
       </c>
       <c r="Q7">
-        <v>1.040888288663038</v>
+        <v>2.018180265817504</v>
       </c>
       <c r="R7">
-        <v>1.112262781796726</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="S7">
-        <v>1.062498794964193</v>
+        <v>1.630657170282903</v>
       </c>
       <c r="T7">
-        <v>1.112262781796726</v>
+        <v>1.662442157711511</v>
       </c>
       <c r="U7">
-        <v>1.091711276669636</v>
+        <v>1.462236382367831</v>
       </c>
       <c r="V7">
-        <v>1.109238765692902</v>
+        <v>1.361183909618788</v>
       </c>
       <c r="W7">
-        <v>1.053461317975604</v>
+        <v>1.199223424286864</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9534285128718087</v>
+        <v>0.4016887792814743</v>
       </c>
       <c r="D8">
-        <v>0.9959883671489338</v>
+        <v>0.4805638902266511</v>
       </c>
       <c r="E8">
-        <v>0.9588297560411738</v>
+        <v>0.4462946837383568</v>
       </c>
       <c r="F8">
-        <v>1.032776778388947</v>
+        <v>16.38710467647345</v>
       </c>
       <c r="G8">
-        <v>0.9534285128718087</v>
+        <v>0.4016887792814743</v>
       </c>
       <c r="H8">
-        <v>1.010157654634312</v>
+        <v>0.4412639120490812</v>
       </c>
       <c r="I8">
-        <v>1.007039191971704</v>
+        <v>0.6606176723332552</v>
       </c>
       <c r="J8">
-        <v>0.9588297560411595</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="K8">
-        <v>0.9588297560411595</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="L8">
-        <v>1.004677666068548</v>
+        <v>0.4165908795507586</v>
       </c>
       <c r="M8">
-        <v>1.014636599692891</v>
+        <v>0.4403938253598643</v>
       </c>
       <c r="N8">
-        <v>0.9588297560411595</v>
+        <v>0.4462946837382583</v>
       </c>
       <c r="O8">
-        <v>1.032776778388947</v>
+        <v>16.38710467647345</v>
       </c>
       <c r="P8">
-        <v>0.9931026456303778</v>
+        <v>8.39439672787746</v>
       </c>
       <c r="Q8">
-        <v>1.021467216511629</v>
+        <v>8.414184294261263</v>
       </c>
       <c r="R8">
-        <v>0.9816783491006383</v>
+        <v>5.74502937983106</v>
       </c>
       <c r="S8">
-        <v>0.9987876486316892</v>
+        <v>5.743352455934667</v>
       </c>
       <c r="T8">
-        <v>0.9816783491006383</v>
+        <v>5.74502937983106</v>
       </c>
       <c r="U8">
-        <v>0.9887981754840567</v>
+        <v>4.419088012885565</v>
       </c>
       <c r="V8">
-        <v>0.9828044915954772</v>
+        <v>3.624529347056104</v>
       </c>
       <c r="W8">
-        <v>0.9971918158522879</v>
+        <v>2.459314789876599</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.199283816154053</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="D9">
-        <v>0.9202351166176346</v>
+        <v>0.9554226516713367</v>
       </c>
       <c r="E9">
-        <v>1.417205481451256</v>
+        <v>1.179348721785962</v>
       </c>
       <c r="F9">
-        <v>1.118661553062093</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="G9">
-        <v>1.199283816154053</v>
+        <v>1.105719807566504</v>
       </c>
       <c r="H9">
-        <v>1.087798064723927</v>
+        <v>1.030056761288366</v>
       </c>
       <c r="I9">
-        <v>1.057073872886221</v>
+        <v>1.031933855854076</v>
       </c>
       <c r="J9">
-        <v>1.417205481451259</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="K9">
-        <v>1.417205481451259</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="L9">
-        <v>1.075320716921016</v>
+        <v>1.031337234310504</v>
       </c>
       <c r="M9">
-        <v>1.049297823514456</v>
+        <v>1.042151695290369</v>
       </c>
       <c r="N9">
-        <v>1.417205481451259</v>
+        <v>1.179348721785964</v>
       </c>
       <c r="O9">
-        <v>1.118661553062093</v>
+        <v>1.051719816037709</v>
       </c>
       <c r="P9">
-        <v>1.158972684608073</v>
+        <v>1.078719811802107</v>
       </c>
       <c r="Q9">
-        <v>1.10322980889301</v>
+        <v>1.040888288663038</v>
       </c>
       <c r="R9">
-        <v>1.245050283555801</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="S9">
-        <v>1.135247811313358</v>
+        <v>1.062498794964193</v>
       </c>
       <c r="T9">
-        <v>1.245050283555801</v>
+        <v>1.112262781796726</v>
       </c>
       <c r="U9">
-        <v>1.205737228847833</v>
+        <v>1.091711276669636</v>
       </c>
       <c r="V9">
-        <v>1.248030879368518</v>
+        <v>1.109238765692902</v>
       </c>
       <c r="W9">
-        <v>1.115609555666332</v>
+        <v>1.053461317975604</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4547764137885823</v>
+        <v>0.9534285128718087</v>
       </c>
       <c r="D10">
-        <v>0.4640612093463654</v>
+        <v>0.9959883671489338</v>
       </c>
       <c r="E10">
-        <v>0.4155301028184255</v>
+        <v>0.9588297560411738</v>
       </c>
       <c r="F10">
-        <v>16.72625199495856</v>
+        <v>1.032776778388947</v>
       </c>
       <c r="G10">
-        <v>0.4547764137885823</v>
+        <v>0.9534285128718087</v>
       </c>
       <c r="H10">
-        <v>0.3516488083141171</v>
+        <v>1.010157654634312</v>
       </c>
       <c r="I10">
-        <v>0.6936832262941479</v>
+        <v>1.007039191971704</v>
       </c>
       <c r="J10">
-        <v>0.4155301028183252</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="K10">
-        <v>0.4155301028183252</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="L10">
-        <v>0.4158647150079044</v>
+        <v>1.004677666068548</v>
       </c>
       <c r="M10">
-        <v>0.4066071496869125</v>
+        <v>1.014636599692891</v>
       </c>
       <c r="N10">
-        <v>0.4155301028183252</v>
+        <v>0.9588297560411595</v>
       </c>
       <c r="O10">
-        <v>16.72625199495856</v>
+        <v>1.032776778388947</v>
       </c>
       <c r="P10">
-        <v>8.590514204373569</v>
+        <v>0.9931026456303778</v>
       </c>
       <c r="Q10">
-        <v>8.538950401636336</v>
+        <v>1.021467216511629</v>
       </c>
       <c r="R10">
-        <v>5.865519503855155</v>
+        <v>0.9816783491006383</v>
       </c>
       <c r="S10">
-        <v>5.844225739020419</v>
+        <v>0.9987876486316892</v>
       </c>
       <c r="T10">
-        <v>5.865519503855154</v>
+        <v>0.9816783491006383</v>
       </c>
       <c r="U10">
-        <v>4.487051829969895</v>
+        <v>0.9887981754840567</v>
       </c>
       <c r="V10">
-        <v>3.672747484539581</v>
+        <v>0.9828044915954772</v>
       </c>
       <c r="W10">
-        <v>2.491052952526863</v>
+        <v>0.9971918158522879</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.856102638878369</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="D11">
-        <v>0.8081569802656124</v>
+        <v>0.9202351166176346</v>
       </c>
       <c r="E11">
-        <v>2.543157533863459</v>
+        <v>1.417205481451256</v>
       </c>
       <c r="F11">
-        <v>0.9157459800759824</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="G11">
-        <v>0.856102638878369</v>
+        <v>1.199283816154053</v>
       </c>
       <c r="H11">
-        <v>0.8860901353887127</v>
+        <v>1.087798064723927</v>
       </c>
       <c r="I11">
-        <v>0.9876804740171432</v>
+        <v>1.057073872886221</v>
       </c>
       <c r="J11">
-        <v>2.54315753386346</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="K11">
-        <v>2.54315753386346</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="L11">
-        <v>0.8358439343277656</v>
+        <v>1.075320716921016</v>
       </c>
       <c r="M11">
-        <v>1.039687148748768</v>
+        <v>1.049297823514456</v>
       </c>
       <c r="N11">
-        <v>2.54315753386346</v>
+        <v>1.417205481451259</v>
       </c>
       <c r="O11">
-        <v>0.9157459800759824</v>
+        <v>1.118661553062093</v>
       </c>
       <c r="P11">
-        <v>0.8859243094771757</v>
+        <v>1.158972684608073</v>
       </c>
       <c r="Q11">
-        <v>0.9009180577323476</v>
+        <v>1.10322980889301</v>
       </c>
       <c r="R11">
-        <v>1.438335384272604</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="S11">
-        <v>0.8859795847810213</v>
+        <v>1.135247811313358</v>
       </c>
       <c r="T11">
-        <v>1.438335384272604</v>
+        <v>1.245050283555801</v>
       </c>
       <c r="U11">
-        <v>1.300274072051631</v>
+        <v>1.205737228847833</v>
       </c>
       <c r="V11">
-        <v>1.548850764413997</v>
+        <v>1.248030879368518</v>
       </c>
       <c r="W11">
-        <v>1.109058103195727</v>
+        <v>1.115609555666332</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8235526571141343</v>
+        <v>0.4547764137885823</v>
       </c>
       <c r="D12">
-        <v>0.8528720133925489</v>
+        <v>0.4640612093463654</v>
       </c>
       <c r="E12">
-        <v>0.7583563323886995</v>
+        <v>0.4155301028184255</v>
       </c>
       <c r="F12">
-        <v>4.23404173613842</v>
+        <v>16.72625199495856</v>
       </c>
       <c r="G12">
-        <v>0.8235526571141343</v>
+        <v>0.4547764137885823</v>
       </c>
       <c r="H12">
-        <v>0.7029013577772176</v>
+        <v>0.3516488083141171</v>
       </c>
       <c r="I12">
-        <v>1.086964416566091</v>
+        <v>0.6936832262941479</v>
       </c>
       <c r="J12">
-        <v>0.758356332388489</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="K12">
-        <v>0.758356332388489</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="L12">
-        <v>0.8240139847206484</v>
+        <v>0.4158647150079044</v>
       </c>
       <c r="M12">
-        <v>0.7944310374899968</v>
+        <v>0.4066071496869125</v>
       </c>
       <c r="N12">
-        <v>0.758356332388489</v>
+        <v>0.4155301028183252</v>
       </c>
       <c r="O12">
-        <v>4.23404173613842</v>
+        <v>16.72625199495856</v>
       </c>
       <c r="P12">
-        <v>2.528797196626277</v>
+        <v>8.590514204373569</v>
       </c>
       <c r="Q12">
-        <v>2.468471546957819</v>
+        <v>8.538950401636336</v>
       </c>
       <c r="R12">
-        <v>1.938650241880348</v>
+        <v>5.865519503855155</v>
       </c>
       <c r="S12">
-        <v>1.920165250343257</v>
+        <v>5.844225739020419</v>
       </c>
       <c r="T12">
-        <v>1.938650241880348</v>
+        <v>5.865519503855154</v>
       </c>
       <c r="U12">
-        <v>1.629713020854565</v>
+        <v>4.487051829969895</v>
       </c>
       <c r="V12">
-        <v>1.45544168316135</v>
+        <v>3.672747484539581</v>
       </c>
       <c r="W12">
-        <v>1.259641691948443</v>
+        <v>2.491052952526863</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.342126651512301</v>
+        <v>0.856102638878369</v>
       </c>
       <c r="D13">
-        <v>0.9921939326983391</v>
+        <v>0.8081569802656124</v>
       </c>
       <c r="E13">
-        <v>1.013746537638943</v>
+        <v>2.543157533863459</v>
       </c>
       <c r="F13">
-        <v>0.931549260515908</v>
+        <v>0.9157459800759824</v>
       </c>
       <c r="G13">
-        <v>1.342126651512301</v>
+        <v>0.856102638878369</v>
       </c>
       <c r="H13">
-        <v>0.843683803999525</v>
+        <v>0.8860901353887127</v>
       </c>
       <c r="I13">
-        <v>1.000283484984592</v>
+        <v>0.9876804740171432</v>
       </c>
       <c r="J13">
-        <v>1.013746537638909</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="K13">
-        <v>1.013746537638909</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="L13">
-        <v>1.130758471614477</v>
+        <v>0.8358439343277656</v>
       </c>
       <c r="M13">
-        <v>0.9698046700886789</v>
+        <v>1.039687148748768</v>
       </c>
       <c r="N13">
-        <v>1.013746537638909</v>
+        <v>2.54315753386346</v>
       </c>
       <c r="O13">
-        <v>0.931549260515908</v>
+        <v>0.9157459800759824</v>
       </c>
       <c r="P13">
-        <v>1.136837956014105</v>
+        <v>0.8859243094771757</v>
       </c>
       <c r="Q13">
-        <v>0.8876165322577165</v>
+        <v>0.9009180577323476</v>
       </c>
       <c r="R13">
-        <v>1.095807483222373</v>
+        <v>1.438335384272604</v>
       </c>
       <c r="S13">
-        <v>1.039119905342578</v>
+        <v>0.8859795847810213</v>
       </c>
       <c r="T13">
-        <v>1.095807483222373</v>
+        <v>1.438335384272604</v>
       </c>
       <c r="U13">
-        <v>1.032776563416661</v>
+        <v>1.300274072051631</v>
       </c>
       <c r="V13">
-        <v>1.028970558261111</v>
+        <v>1.548850764413997</v>
       </c>
       <c r="W13">
-        <v>1.028018351631591</v>
+        <v>1.109058103195727</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003096941800000001</v>
+        <v>0.8235526571141343</v>
       </c>
       <c r="D14">
-        <v>0.0008257495699999993</v>
+        <v>0.8528720133925489</v>
       </c>
       <c r="E14">
-        <v>-0.002792170900000001</v>
+        <v>0.7583563323886995</v>
       </c>
       <c r="F14">
-        <v>30.38197599999996</v>
+        <v>4.23404173613842</v>
       </c>
       <c r="G14">
-        <v>0.003096941800000001</v>
+        <v>0.8235526571141343</v>
       </c>
       <c r="H14">
-        <v>0.001389646800000002</v>
+        <v>0.7029013577772176</v>
       </c>
       <c r="I14">
-        <v>0.2240137299999997</v>
+        <v>1.086964416566091</v>
       </c>
       <c r="J14">
-        <v>-0.002792170900000001</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="K14">
-        <v>-0.002792170900000001</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="L14">
-        <v>-0.005045797299999992</v>
+        <v>0.8240139847206484</v>
       </c>
       <c r="M14">
-        <v>-0.0012295708</v>
+        <v>0.7944310374899968</v>
       </c>
       <c r="N14">
-        <v>-0.002792170900000001</v>
+        <v>0.758356332388489</v>
       </c>
       <c r="O14">
-        <v>30.38197599999996</v>
+        <v>4.23404173613842</v>
       </c>
       <c r="P14">
-        <v>15.19253647089998</v>
+        <v>2.528797196626277</v>
       </c>
       <c r="Q14">
-        <v>15.19168282339998</v>
+        <v>2.468471546957819</v>
       </c>
       <c r="R14">
-        <v>10.12742692363332</v>
+        <v>1.938650241880348</v>
       </c>
       <c r="S14">
-        <v>10.12882086286665</v>
+        <v>1.920165250343257</v>
       </c>
       <c r="T14">
-        <v>10.12742692363332</v>
+        <v>1.938650241880348</v>
       </c>
       <c r="U14">
-        <v>7.59591760442499</v>
+        <v>1.629713020854565</v>
       </c>
       <c r="V14">
-        <v>6.076175649359992</v>
+        <v>1.45544168316135</v>
       </c>
       <c r="W14">
-        <v>3.825279316146245</v>
+        <v>1.259641691948443</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0064316009</v>
+        <v>1.342126651512301</v>
       </c>
       <c r="D15">
-        <v>-0.0020116523</v>
+        <v>0.9921939326983391</v>
       </c>
       <c r="E15">
-        <v>0.008035351600000001</v>
+        <v>1.013746537638943</v>
       </c>
       <c r="F15">
-        <v>-0.0012305198</v>
+        <v>0.931549260515908</v>
       </c>
       <c r="G15">
-        <v>-0.0064316009</v>
+        <v>1.342126651512301</v>
       </c>
       <c r="H15">
-        <v>0.9379539099999999</v>
+        <v>0.843683803999525</v>
       </c>
       <c r="I15">
-        <v>-0.0031867442</v>
+        <v>1.000283484984592</v>
       </c>
       <c r="J15">
-        <v>0.008035351600000001</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="K15">
-        <v>0.008035351600000001</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="L15">
-        <v>0.00023330841</v>
+        <v>1.130758471614477</v>
       </c>
       <c r="M15">
-        <v>15.189881</v>
+        <v>0.9698046700886789</v>
       </c>
       <c r="N15">
-        <v>0.008035351600000001</v>
+        <v>1.013746537638909</v>
       </c>
       <c r="O15">
-        <v>-0.0012305198</v>
+        <v>0.931549260515908</v>
       </c>
       <c r="P15">
-        <v>-0.00383106035</v>
+        <v>1.136837956014105</v>
       </c>
       <c r="Q15">
-        <v>0.4683616951</v>
+        <v>0.8876165322577165</v>
       </c>
       <c r="R15">
-        <v>0.0001244103000000001</v>
+        <v>1.095807483222373</v>
       </c>
       <c r="S15">
-        <v>0.3100972631</v>
+        <v>1.039119905342578</v>
       </c>
       <c r="T15">
-        <v>0.0001244103000000002</v>
+        <v>1.095807483222373</v>
       </c>
       <c r="U15">
-        <v>0.234581785225</v>
+        <v>1.032776563416661</v>
       </c>
       <c r="V15">
-        <v>0.1892724985</v>
+        <v>1.028970558261111</v>
       </c>
       <c r="W15">
-        <v>2.01540538160125</v>
+        <v>1.028018351631591</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0062360679</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D16">
-        <v>0.0091395608</v>
+        <v>0.0008257495699999993</v>
       </c>
       <c r="E16">
-        <v>45.564748</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="F16">
-        <v>-0.0027921708</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="G16">
-        <v>0.0062360679</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="H16">
-        <v>-0.0070311687</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="I16">
-        <v>-0.0026279171</v>
+        <v>0.2240137299999997</v>
       </c>
       <c r="J16">
-        <v>45.564748</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="K16">
-        <v>45.564748</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="L16">
-        <v>0.00010522111</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="M16">
-        <v>0.0080378142</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="N16">
-        <v>45.564748</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="O16">
-        <v>-0.0027921708</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="P16">
-        <v>0.00172194855</v>
+        <v>15.19253647089998</v>
       </c>
       <c r="Q16">
-        <v>-0.00491166975</v>
+        <v>15.19168282339998</v>
       </c>
       <c r="R16">
-        <v>15.18939729903333</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="S16">
-        <v>-0.0011957572</v>
+        <v>10.12882086286665</v>
       </c>
       <c r="T16">
-        <v>15.18939729903333</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="U16">
-        <v>11.3902901821</v>
+        <v>7.59591760442499</v>
       </c>
       <c r="V16">
-        <v>18.22518174568</v>
+        <v>6.076175649359992</v>
       </c>
       <c r="W16">
-        <v>5.69697692592625</v>
+        <v>3.825279316146245</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0064915301</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="D17">
-        <v>1.4292654</v>
+        <v>-0.0020116523</v>
       </c>
       <c r="E17">
-        <v>0.0009878081300000001</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="F17">
-        <v>0.017037886</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="G17">
-        <v>0.0064915301</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="H17">
-        <v>0.032757385</v>
+        <v>0.9379539099999999</v>
       </c>
       <c r="I17">
-        <v>0.023386404</v>
+        <v>-0.0031867442</v>
       </c>
       <c r="J17">
-        <v>0.0009878081300000001</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="K17">
-        <v>0.0009878081300000001</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="L17">
-        <v>0.0027305869</v>
+        <v>0.00023330841</v>
       </c>
       <c r="M17">
-        <v>0.012057309</v>
+        <v>15.189881</v>
       </c>
       <c r="N17">
-        <v>0.0009878081300000001</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="O17">
-        <v>0.017037886</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="P17">
-        <v>0.01176470805</v>
+        <v>-0.00383106035</v>
       </c>
       <c r="Q17">
-        <v>0.0248976355</v>
+        <v>0.4683616951</v>
       </c>
       <c r="R17">
-        <v>0.008172408076666667</v>
+        <v>0.0001244103000000001</v>
       </c>
       <c r="S17">
-        <v>0.01876226703333333</v>
+        <v>0.3100972631</v>
       </c>
       <c r="T17">
-        <v>0.008172408076666667</v>
+        <v>0.0001244103000000002</v>
       </c>
       <c r="U17">
-        <v>0.0143186523075</v>
+        <v>0.234581785225</v>
       </c>
       <c r="V17">
-        <v>0.011652483472</v>
+        <v>0.1892724985</v>
       </c>
       <c r="W17">
-        <v>0.19058928864125</v>
+        <v>2.01540538160125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.546862464858905</v>
+        <v>0.0062360679</v>
       </c>
       <c r="D18">
-        <v>0.0009646458843287674</v>
+        <v>0.0091395608</v>
       </c>
       <c r="E18">
-        <v>5.319614891150686</v>
+        <v>45.564748</v>
       </c>
       <c r="F18">
-        <v>1.774527139705205</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="G18">
-        <v>3.546862464858905</v>
+        <v>0.0062360679</v>
       </c>
       <c r="H18">
-        <v>1.786575892026302</v>
+        <v>-0.0070311687</v>
       </c>
       <c r="I18">
-        <v>1.773207853897534</v>
+        <v>-0.0026279171</v>
       </c>
       <c r="J18">
-        <v>5.319614891150686</v>
+        <v>45.564748</v>
       </c>
       <c r="K18">
-        <v>5.319614891150686</v>
+        <v>45.564748</v>
       </c>
       <c r="L18">
-        <v>1.775090965915205</v>
+        <v>0.00010522111</v>
       </c>
       <c r="M18">
-        <v>1.983429950333862</v>
+        <v>0.0080378142</v>
       </c>
       <c r="N18">
-        <v>5.319614891150686</v>
+        <v>45.564748</v>
       </c>
       <c r="O18">
-        <v>1.774527139705205</v>
+        <v>-0.0027921708</v>
       </c>
       <c r="P18">
-        <v>2.660694802282055</v>
+        <v>0.00172194855</v>
       </c>
       <c r="Q18">
-        <v>1.780551515865754</v>
+        <v>-0.00491166975</v>
       </c>
       <c r="R18">
-        <v>3.547001498571599</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="S18">
-        <v>2.369321832196804</v>
+        <v>-0.0011957572</v>
       </c>
       <c r="T18">
-        <v>3.547001498571599</v>
+        <v>15.18939729903333</v>
       </c>
       <c r="U18">
-        <v>3.106895096935275</v>
+        <v>11.3902901821</v>
       </c>
       <c r="V18">
-        <v>3.549439055778357</v>
+        <v>18.22518174568</v>
       </c>
       <c r="W18">
-        <v>2.245034225471504</v>
+        <v>5.69697692592625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.001263754283263158</v>
+        <v>0.0064915301</v>
       </c>
       <c r="D19">
-        <v>1.783217642024737</v>
+        <v>1.4292654</v>
       </c>
       <c r="E19">
-        <v>3.752783996557052</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="F19">
-        <v>2.504721636714681</v>
+        <v>0.017037886</v>
       </c>
       <c r="G19">
-        <v>0.001263754283263158</v>
+        <v>0.0064915301</v>
       </c>
       <c r="H19">
-        <v>1.708747056802105</v>
+        <v>0.032757385</v>
       </c>
       <c r="I19">
-        <v>0.1406515773943684</v>
+        <v>0.023386404</v>
       </c>
       <c r="J19">
-        <v>3.752783996557052</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="K19">
-        <v>3.752783996557052</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="L19">
-        <v>0.1773699181505263</v>
+        <v>0.0027305869</v>
       </c>
       <c r="M19">
-        <v>0.2668171258199999</v>
+        <v>0.012057309</v>
       </c>
       <c r="N19">
-        <v>3.752783996557052</v>
+        <v>0.0009878081300000001</v>
       </c>
       <c r="O19">
-        <v>2.504721636714681</v>
+        <v>0.017037886</v>
       </c>
       <c r="P19">
-        <v>1.252992695498972</v>
+        <v>0.01176470805</v>
       </c>
       <c r="Q19">
-        <v>2.106734346758393</v>
+        <v>0.0248976355</v>
       </c>
       <c r="R19">
-        <v>2.086256462518332</v>
+        <v>0.008172408076666667</v>
       </c>
       <c r="S19">
-        <v>1.40491081593335</v>
+        <v>0.01876226703333333</v>
       </c>
       <c r="T19">
-        <v>2.086256462518332</v>
+        <v>0.008172408076666667</v>
       </c>
       <c r="U19">
-        <v>1.991879111089276</v>
+        <v>0.0143186523075</v>
       </c>
       <c r="V19">
-        <v>2.344060088182831</v>
+        <v>0.011652483472</v>
       </c>
       <c r="W19">
-        <v>1.291946588468342</v>
+        <v>0.19058928864125</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-0.0012979378</v>
+        <v>3.546862464858905</v>
       </c>
       <c r="D20">
-        <v>0.00958037511473684</v>
+        <v>0.0009646458843287674</v>
       </c>
       <c r="E20">
-        <v>0.001325673063157895</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="F20">
-        <v>5.909017684447366</v>
+        <v>1.774527139705205</v>
       </c>
       <c r="G20">
-        <v>-0.0012979378</v>
+        <v>3.546862464858905</v>
       </c>
       <c r="H20">
-        <v>0.1838737728705263</v>
+        <v>1.786575892026302</v>
       </c>
       <c r="I20">
-        <v>1.031983523042105</v>
+        <v>1.773207853897534</v>
       </c>
       <c r="J20">
-        <v>0.001325673063157895</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="K20">
-        <v>0.001325673063157895</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="L20">
-        <v>-0.0005682035325263156</v>
+        <v>1.775090965915205</v>
       </c>
       <c r="M20">
-        <v>2.953486430137894</v>
+        <v>1.983429950333862</v>
       </c>
       <c r="N20">
-        <v>0.001325673063157895</v>
+        <v>5.319614891150686</v>
       </c>
       <c r="O20">
-        <v>5.909017684447366</v>
+        <v>1.774527139705205</v>
       </c>
       <c r="P20">
-        <v>2.953859873323683</v>
+        <v>2.660694802282055</v>
       </c>
       <c r="Q20">
-        <v>3.046445728658946</v>
+        <v>1.780551515865754</v>
       </c>
       <c r="R20">
-        <v>1.969681806570174</v>
+        <v>3.547001498571599</v>
       </c>
       <c r="S20">
-        <v>2.03053117317263</v>
+        <v>2.369321832196804</v>
       </c>
       <c r="T20">
-        <v>1.969681806570175</v>
+        <v>3.547001498571599</v>
       </c>
       <c r="U20">
-        <v>1.523229798145262</v>
+        <v>3.106895096935275</v>
       </c>
       <c r="V20">
-        <v>1.218848973128841</v>
+        <v>3.549439055778357</v>
       </c>
       <c r="W20">
-        <v>1.260925164667908</v>
+        <v>2.245034225471504</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1345042796491597</v>
+        <v>0.001263754283263158</v>
       </c>
       <c r="D21">
-        <v>1.372465142416202</v>
+        <v>1.783217642024737</v>
       </c>
       <c r="E21">
-        <v>0.0009504485273454639</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="F21">
-        <v>0.005452140686010064</v>
+        <v>2.504721636714681</v>
       </c>
       <c r="G21">
-        <v>0.1345042796491597</v>
+        <v>0.001263754283263158</v>
       </c>
       <c r="H21">
-        <v>0.6423559346484294</v>
+        <v>1.708747056802105</v>
       </c>
       <c r="I21">
-        <v>0.04295996218495594</v>
+        <v>0.1406515773943684</v>
       </c>
       <c r="J21">
-        <v>0.0009504485273303528</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="K21">
-        <v>0.0009504485273303528</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="L21">
-        <v>1.923300204130495</v>
+        <v>0.1773699181505263</v>
       </c>
       <c r="M21">
-        <v>2.10828064764576</v>
+        <v>0.2668171258199999</v>
       </c>
       <c r="N21">
-        <v>0.0009504485273303528</v>
+        <v>3.752783996557052</v>
       </c>
       <c r="O21">
-        <v>0.005452140686010064</v>
+        <v>2.504721636714681</v>
       </c>
       <c r="P21">
-        <v>0.06997821016758488</v>
+        <v>1.252992695498972</v>
       </c>
       <c r="Q21">
-        <v>0.3239040376672198</v>
+        <v>2.106734346758393</v>
       </c>
       <c r="R21">
-        <v>0.04696895628750004</v>
+        <v>2.086256462518332</v>
       </c>
       <c r="S21">
-        <v>0.260770784994533</v>
+        <v>1.40491081593335</v>
       </c>
       <c r="T21">
-        <v>0.04696895628750004</v>
+        <v>2.086256462518332</v>
       </c>
       <c r="U21">
-        <v>0.1958157008777324</v>
+        <v>1.991879111089276</v>
       </c>
       <c r="V21">
-        <v>0.156842650407652</v>
+        <v>2.344060088182831</v>
       </c>
       <c r="W21">
-        <v>0.7787835949860429</v>
+        <v>1.291946588468342</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.764445332348538</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="D22">
-        <v>0.8892578769328345</v>
+        <v>0.00958037511473684</v>
       </c>
       <c r="E22">
-        <v>1.495813502275313</v>
+        <v>0.001325673063157895</v>
       </c>
       <c r="F22">
-        <v>1.715526862205314</v>
+        <v>5.909017684447366</v>
       </c>
       <c r="G22">
-        <v>3.764445332348538</v>
+        <v>-0.0012979378</v>
       </c>
       <c r="H22">
-        <v>0.4008822325947026</v>
+        <v>0.1838737728705263</v>
       </c>
       <c r="I22">
-        <v>1.651418092919315</v>
+        <v>1.031983523042105</v>
       </c>
       <c r="J22">
-        <v>1.495813502275313</v>
+        <v>0.001325673063157895</v>
       </c>
       <c r="K22">
-        <v>1.495813502275313</v>
+        <v>0.001325673063157895</v>
       </c>
       <c r="L22">
-        <v>1.393726803578442</v>
+        <v>-0.0005682035325263156</v>
       </c>
       <c r="M22">
-        <v>0.02098859333633427</v>
+        <v>2.953486430137894</v>
       </c>
       <c r="N22">
-        <v>1.495813502275313</v>
+        <v>0.001325673063157895</v>
       </c>
       <c r="O22">
-        <v>1.715526862205314</v>
+        <v>5.909017684447366</v>
       </c>
       <c r="P22">
-        <v>2.739986097276926</v>
+        <v>2.953859873323683</v>
       </c>
       <c r="Q22">
-        <v>1.058204547400008</v>
+        <v>3.046445728658946</v>
       </c>
       <c r="R22">
-        <v>2.325261898943055</v>
+        <v>1.969681806570174</v>
       </c>
       <c r="S22">
-        <v>1.960284809049518</v>
+        <v>2.03053117317263</v>
       </c>
       <c r="T22">
-        <v>2.325261898943055</v>
+        <v>1.969681806570175</v>
       </c>
       <c r="U22">
-        <v>1.844166982355967</v>
+        <v>1.523229798145262</v>
       </c>
       <c r="V22">
-        <v>1.774496286339836</v>
+        <v>1.218848973128841</v>
       </c>
       <c r="W22">
-        <v>1.416507412023849</v>
+        <v>1.260925164667908</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.041937787992891</v>
+        <v>0.1345042796491597</v>
       </c>
       <c r="D23">
-        <v>0.5367521538377465</v>
+        <v>1.372465142416202</v>
       </c>
       <c r="E23">
-        <v>1.610944634682633</v>
+        <v>0.0009504485273454639</v>
       </c>
       <c r="F23">
-        <v>0.000908516006570043</v>
+        <v>0.005452140686010064</v>
       </c>
       <c r="G23">
-        <v>4.041937787992891</v>
+        <v>0.1345042796491597</v>
       </c>
       <c r="H23">
-        <v>0.8677726221578203</v>
+        <v>0.6423559346484294</v>
       </c>
       <c r="I23">
-        <v>0.4969938815467497</v>
+        <v>0.04295996218495594</v>
       </c>
       <c r="J23">
-        <v>1.610944634680863</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="K23">
-        <v>1.610944634680863</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="L23">
-        <v>1.145403902705154</v>
+        <v>1.923300204130495</v>
       </c>
       <c r="M23">
-        <v>0.9895721687651821</v>
+        <v>2.10828064764576</v>
       </c>
       <c r="N23">
-        <v>1.610944634680863</v>
+        <v>0.0009504485273303528</v>
       </c>
       <c r="O23">
-        <v>0.000908516006570043</v>
+        <v>0.005452140686010064</v>
       </c>
       <c r="P23">
-        <v>2.021423151999731</v>
+        <v>0.06997821016758488</v>
       </c>
       <c r="Q23">
-        <v>0.4343405690821951</v>
+        <v>0.3239040376672198</v>
       </c>
       <c r="R23">
-        <v>1.884596979560108</v>
+        <v>0.04696895628750004</v>
       </c>
       <c r="S23">
-        <v>1.63687297538576</v>
+        <v>0.260770784994533</v>
       </c>
       <c r="T23">
-        <v>1.884596979560108</v>
+        <v>0.04696895628750004</v>
       </c>
       <c r="U23">
-        <v>1.630390890209536</v>
+        <v>0.1958157008777324</v>
       </c>
       <c r="V23">
-        <v>1.626501639103801</v>
+        <v>0.156842650407652</v>
       </c>
       <c r="W23">
-        <v>1.211285708461622</v>
+        <v>0.7787835949860429</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.02987992942547596</v>
+        <v>3.764445332348538</v>
       </c>
       <c r="D24">
-        <v>0.7585353448858002</v>
+        <v>0.8892578769328345</v>
       </c>
       <c r="E24">
-        <v>0.0005238517142313264</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="F24">
-        <v>0.7210181794815498</v>
+        <v>1.715526862205314</v>
       </c>
       <c r="G24">
-        <v>0.02987992942547596</v>
+        <v>3.764445332348538</v>
       </c>
       <c r="H24">
-        <v>1.611845770703254</v>
+        <v>0.4008822325947026</v>
       </c>
       <c r="I24">
-        <v>1.000328412638958</v>
+        <v>1.651418092919315</v>
       </c>
       <c r="J24">
-        <v>0.0005238517142313264</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="K24">
-        <v>0.0005238517142313264</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="L24">
-        <v>0.9829323283851462</v>
+        <v>1.393726803578442</v>
       </c>
       <c r="M24">
-        <v>1.375682220263042</v>
+        <v>0.02098859333633427</v>
       </c>
       <c r="N24">
-        <v>0.0005238517142313264</v>
+        <v>1.495813502275313</v>
       </c>
       <c r="O24">
-        <v>0.7210181794815498</v>
+        <v>1.715526862205314</v>
       </c>
       <c r="P24">
-        <v>0.3754490544535128</v>
+        <v>2.739986097276926</v>
       </c>
       <c r="Q24">
-        <v>1.166431975092402</v>
+        <v>1.058204547400008</v>
       </c>
       <c r="R24">
-        <v>0.2504739868737523</v>
+        <v>2.325261898943055</v>
       </c>
       <c r="S24">
-        <v>0.7875812932034266</v>
+        <v>1.960284809049518</v>
       </c>
       <c r="T24">
-        <v>0.2504739868737524</v>
+        <v>2.325261898943055</v>
       </c>
       <c r="U24">
-        <v>0.5908169328311279</v>
+        <v>1.844166982355967</v>
       </c>
       <c r="V24">
-        <v>0.4727583166077486</v>
+        <v>1.774496286339836</v>
       </c>
       <c r="W24">
-        <v>0.8100932546871822</v>
+        <v>1.416507412023849</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0003631998126757124</v>
+        <v>4.041937787992891</v>
       </c>
       <c r="D25">
-        <v>0.3175454731481536</v>
+        <v>0.5367521538377465</v>
       </c>
       <c r="E25">
-        <v>0.9491087792212194</v>
+        <v>1.610944634682633</v>
       </c>
       <c r="F25">
-        <v>0.08770336085313092</v>
+        <v>0.000908516006570043</v>
       </c>
       <c r="G25">
-        <v>0.0003631998126757124</v>
+        <v>4.041937787992891</v>
       </c>
       <c r="H25">
-        <v>2.120524075867421</v>
+        <v>0.8677726221578203</v>
       </c>
       <c r="I25">
-        <v>1.238952681821663</v>
+        <v>0.4969938815467497</v>
       </c>
       <c r="J25">
-        <v>0.9491087792212194</v>
+        <v>1.610944634680863</v>
       </c>
       <c r="K25">
-        <v>0.9491087792212194</v>
+        <v>1.610944634680863</v>
       </c>
       <c r="L25">
-        <v>0.3162050623354329</v>
+        <v>1.145403902705154</v>
       </c>
       <c r="M25">
-        <v>0.931334486166965</v>
+        <v>0.9895721687651821</v>
       </c>
       <c r="N25">
-        <v>0.9491087792212194</v>
+        <v>1.610944634680863</v>
       </c>
       <c r="O25">
-        <v>0.08770336085313092</v>
+        <v>0.000908516006570043</v>
       </c>
       <c r="P25">
-        <v>0.04403328033290332</v>
+        <v>2.021423151999731</v>
       </c>
       <c r="Q25">
-        <v>1.104113718360276</v>
+        <v>0.4343405690821951</v>
       </c>
       <c r="R25">
-        <v>0.3457251132956753</v>
+        <v>1.884596979560108</v>
       </c>
       <c r="S25">
-        <v>0.7361968788444093</v>
+        <v>1.63687297538576</v>
       </c>
       <c r="T25">
-        <v>0.3457251132956753</v>
+        <v>1.884596979560108</v>
       </c>
       <c r="U25">
-        <v>0.7894248539386118</v>
+        <v>1.630390890209536</v>
       </c>
       <c r="V25">
-        <v>0.8213616389951334</v>
+        <v>1.626501639103801</v>
       </c>
       <c r="W25">
-        <v>0.7452171399033327</v>
+        <v>1.211285708461622</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.31723637027121</v>
+        <v>0.02987992942547596</v>
       </c>
       <c r="D26">
-        <v>1.398345407835505</v>
+        <v>0.7585353448858002</v>
       </c>
       <c r="E26">
-        <v>1.477346880145304</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="F26">
-        <v>2.21242725823406</v>
+        <v>0.7210181794815498</v>
       </c>
       <c r="G26">
-        <v>0.31723637027121</v>
+        <v>0.02987992942547596</v>
       </c>
       <c r="H26">
-        <v>0.0283344714097904</v>
+        <v>1.611845770703254</v>
       </c>
       <c r="I26">
-        <v>1.15966699110789</v>
+        <v>1.000328412638958</v>
       </c>
       <c r="J26">
-        <v>1.477346880145304</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="K26">
-        <v>1.477346880145304</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="L26">
-        <v>0.5588649040796136</v>
+        <v>0.9829323283851462</v>
       </c>
       <c r="M26">
-        <v>0.4868358393874022</v>
+        <v>1.375682220263042</v>
       </c>
       <c r="N26">
-        <v>1.477346880145304</v>
+        <v>0.0005238517142313264</v>
       </c>
       <c r="O26">
-        <v>2.21242725823406</v>
+        <v>0.7210181794815498</v>
       </c>
       <c r="P26">
-        <v>1.264831814252635</v>
+        <v>0.3754490544535128</v>
       </c>
       <c r="Q26">
-        <v>1.120380864821925</v>
+        <v>1.166431975092402</v>
       </c>
       <c r="R26">
-        <v>1.335670169550191</v>
+        <v>0.2504739868737523</v>
       </c>
       <c r="S26">
-        <v>0.8526660333050201</v>
+        <v>0.7875812932034266</v>
       </c>
       <c r="T26">
-        <v>1.335670169550191</v>
+        <v>0.2504739868737524</v>
       </c>
       <c r="U26">
-        <v>1.008836245015091</v>
+        <v>0.5908169328311279</v>
       </c>
       <c r="V26">
-        <v>1.102538372041133</v>
+        <v>0.4727583166077486</v>
       </c>
       <c r="W26">
-        <v>0.9548822653088468</v>
+        <v>0.8100932546871822</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.0217794330504278</v>
+        <v>0.0003631998126757124</v>
       </c>
       <c r="D27">
-        <v>0.3477536238716386</v>
+        <v>0.3175454731481536</v>
       </c>
       <c r="E27">
-        <v>1.28394575558871</v>
+        <v>0.9491087792212194</v>
       </c>
       <c r="F27">
-        <v>2.003839738309507</v>
+        <v>0.08770336085313092</v>
       </c>
       <c r="G27">
-        <v>0.0217794330504278</v>
+        <v>0.0003631998126757124</v>
       </c>
       <c r="H27">
-        <v>1.931405793959247</v>
+        <v>2.120524075867421</v>
       </c>
       <c r="I27">
-        <v>0.4300329722445953</v>
+        <v>1.238952681821663</v>
       </c>
       <c r="J27">
-        <v>1.28394575558871</v>
+        <v>0.9491087792212194</v>
       </c>
       <c r="K27">
-        <v>1.28394575558871</v>
+        <v>0.9491087792212194</v>
       </c>
       <c r="L27">
-        <v>0.664103623691195</v>
+        <v>0.3162050623354329</v>
       </c>
       <c r="M27">
-        <v>1.941349205351302</v>
+        <v>0.931334486166965</v>
       </c>
       <c r="N27">
-        <v>1.28394575558871</v>
+        <v>0.9491087792212194</v>
       </c>
       <c r="O27">
-        <v>2.003839738309507</v>
+        <v>0.08770336085313092</v>
       </c>
       <c r="P27">
-        <v>1.012809585679968</v>
+        <v>0.04403328033290332</v>
       </c>
       <c r="Q27">
-        <v>1.967622766134377</v>
+        <v>1.104113718360276</v>
       </c>
       <c r="R27">
-        <v>1.103188308982882</v>
+        <v>0.3457251132956753</v>
       </c>
       <c r="S27">
-        <v>1.319008321773061</v>
+        <v>0.7361968788444093</v>
       </c>
       <c r="T27">
-        <v>1.103188308982882</v>
+        <v>0.3457251132956753</v>
       </c>
       <c r="U27">
-        <v>1.310242680226973</v>
+        <v>0.7894248539386118</v>
       </c>
       <c r="V27">
-        <v>1.304983295299321</v>
+        <v>0.8213616389951334</v>
       </c>
       <c r="W27">
-        <v>1.078026268258328</v>
+        <v>0.7452171399033327</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.196980096766146</v>
+        <v>0.31723637027121</v>
       </c>
       <c r="D28">
-        <v>1.443610855558693</v>
+        <v>1.398345407835505</v>
       </c>
       <c r="E28">
-        <v>1.997251457947876</v>
+        <v>1.477346880145304</v>
       </c>
       <c r="F28">
-        <v>2.445355303913376</v>
+        <v>2.21242725823406</v>
       </c>
       <c r="G28">
-        <v>1.196980096766146</v>
+        <v>0.31723637027121</v>
       </c>
       <c r="H28">
-        <v>0.2579300361015015</v>
+        <v>0.0283344714097904</v>
       </c>
       <c r="I28">
-        <v>0.7333538392836862</v>
+        <v>1.15966699110789</v>
       </c>
       <c r="J28">
-        <v>1.997251457947876</v>
+        <v>1.477346880145304</v>
       </c>
       <c r="K28">
-        <v>1.997251457947876</v>
+        <v>1.477346880145304</v>
       </c>
       <c r="L28">
-        <v>0.8922633181862669</v>
+        <v>0.5588649040796136</v>
       </c>
       <c r="M28">
-        <v>2.582646428776857</v>
+        <v>0.4868358393874022</v>
       </c>
       <c r="N28">
-        <v>1.997251457947876</v>
+        <v>1.477346880145304</v>
       </c>
       <c r="O28">
-        <v>2.445355303913376</v>
+        <v>2.21242725823406</v>
       </c>
       <c r="P28">
-        <v>1.821167700339761</v>
+        <v>1.264831814252635</v>
       </c>
       <c r="Q28">
-        <v>1.351642670007439</v>
+        <v>1.120380864821925</v>
       </c>
       <c r="R28">
-        <v>1.879862286209133</v>
+        <v>1.335670169550191</v>
       </c>
       <c r="S28">
-        <v>1.300088478927008</v>
+        <v>0.8526660333050201</v>
       </c>
       <c r="T28">
-        <v>1.879862286209133</v>
+        <v>1.335670169550191</v>
       </c>
       <c r="U28">
-        <v>1.474379223682225</v>
+        <v>1.008836245015091</v>
       </c>
       <c r="V28">
-        <v>1.578953670535355</v>
+        <v>1.102538372041133</v>
       </c>
       <c r="W28">
-        <v>1.4436739170668</v>
+        <v>0.9548822653088468</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.0217794330504278</v>
+      </c>
+      <c r="D29">
+        <v>0.3477536238716386</v>
+      </c>
+      <c r="E29">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="F29">
+        <v>2.003839738309507</v>
+      </c>
+      <c r="G29">
+        <v>0.0217794330504278</v>
+      </c>
+      <c r="H29">
+        <v>1.931405793959247</v>
+      </c>
+      <c r="I29">
+        <v>0.4300329722445953</v>
+      </c>
+      <c r="J29">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="K29">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="L29">
+        <v>0.664103623691195</v>
+      </c>
+      <c r="M29">
+        <v>1.941349205351302</v>
+      </c>
+      <c r="N29">
+        <v>1.28394575558871</v>
+      </c>
+      <c r="O29">
+        <v>2.003839738309507</v>
+      </c>
+      <c r="P29">
+        <v>1.012809585679968</v>
+      </c>
+      <c r="Q29">
+        <v>1.967622766134377</v>
+      </c>
+      <c r="R29">
+        <v>1.103188308982882</v>
+      </c>
+      <c r="S29">
+        <v>1.319008321773061</v>
+      </c>
+      <c r="T29">
+        <v>1.103188308982882</v>
+      </c>
+      <c r="U29">
+        <v>1.310242680226973</v>
+      </c>
+      <c r="V29">
+        <v>1.304983295299321</v>
+      </c>
+      <c r="W29">
+        <v>1.078026268258328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.196980096766146</v>
+      </c>
+      <c r="D30">
+        <v>1.443610855558693</v>
+      </c>
+      <c r="E30">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="F30">
+        <v>2.445355303913376</v>
+      </c>
+      <c r="G30">
+        <v>1.196980096766146</v>
+      </c>
+      <c r="H30">
+        <v>0.2579300361015015</v>
+      </c>
+      <c r="I30">
+        <v>0.7333538392836862</v>
+      </c>
+      <c r="J30">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="K30">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="L30">
+        <v>0.8922633181862669</v>
+      </c>
+      <c r="M30">
+        <v>2.582646428776857</v>
+      </c>
+      <c r="N30">
+        <v>1.997251457947876</v>
+      </c>
+      <c r="O30">
+        <v>2.445355303913376</v>
+      </c>
+      <c r="P30">
+        <v>1.821167700339761</v>
+      </c>
+      <c r="Q30">
+        <v>1.351642670007439</v>
+      </c>
+      <c r="R30">
+        <v>1.879862286209133</v>
+      </c>
+      <c r="S30">
+        <v>1.300088478927008</v>
+      </c>
+      <c r="T30">
+        <v>1.879862286209133</v>
+      </c>
+      <c r="U30">
+        <v>1.474379223682225</v>
+      </c>
+      <c r="V30">
+        <v>1.578953670535355</v>
+      </c>
+      <c r="W30">
+        <v>1.4436739170668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.03131079464037278</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.85090879781913</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.02168026804357363</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.002345090741945556</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.03131079464037278</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.3544383514074393</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.002138564498970776</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.02168026804357363</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.02168026804357363</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.3108311494832243</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>5.540280154904054</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.02168026804357363</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.002345090741945556</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.01682794269115917</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.1783917210746924</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.01844538447529732</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.1293647455965859</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.01844538447529732</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.1024436262083328</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.08629095457538098</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.139241646442339</v>
       </c>
     </row>
